--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dexter/Desktop/gre vocabulary/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dexter/Desktop/gre vocabulary/gre_vocabulary/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="365">
   <si>
     <t>unit 22</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1079,6 +1079,2161 @@
     <t>n.合金</t>
     <rPh sb="2" eb="3">
       <t>he jin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grudge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.吝惜，勉强给或承认；不满，怨恨</t>
+    <rPh sb="2" eb="3">
+      <t>lin xi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mian qiang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>gei</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>cheng ren</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>bu man</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>yuan hen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>haphazardly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adv.偶然地，随意地，杂乱地</t>
+    <rPh sb="8" eb="9">
+      <t>sui yi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>di</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>za luan</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>naivete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.天真的言行举止，天真无邪</t>
+    <rPh sb="2" eb="3">
+      <t>tian zhen</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yan xing ju zhi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>tian zhen wu xie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extraneous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.外来的；无关的</t>
+    <rPh sb="4" eb="5">
+      <t>wai lai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wu guan de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.灵巧的，熟练的</t>
+    <rPh sb="4" eb="5">
+      <t>ling qiao de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shu lian de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animosity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.憎恨，仇恨</t>
+    <rPh sb="2" eb="3">
+      <t>zeng hen</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chou hen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cringe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.畏缩，谄媚</t>
+    <rPh sb="2" eb="3">
+      <t>wei suo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chan mei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unequivoval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.毫无疑问的</t>
+    <rPh sb="4" eb="5">
+      <t>hao wu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yi wen de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.丰满的；v.使丰满，使变成圆</t>
+    <rPh sb="4" eb="5">
+      <t>feng man de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>feng man</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>bian cheng</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remiss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.疏忽的，不留心的</t>
+    <rPh sb="4" eb="5">
+      <t>shu hu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bu liu xin de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transgress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.冒犯，违背</t>
+    <rPh sb="2" eb="3">
+      <t>mao fan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wei bei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dupe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.易上当者</t>
+    <rPh sb="2" eb="3">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shang dang zhe</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fumigate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.用烟熏消毒</t>
+    <rPh sb="2" eb="3">
+      <t>yong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yan xun</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xiao du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ruthless</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.无情的，残忍的</t>
+    <rPh sb="4" eb="5">
+      <t>wu qing de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>can ren de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perspire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.出汗</t>
+    <rPh sb="2" eb="3">
+      <t>chu han</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.损害，削弱</t>
+    <rPh sb="2" eb="3">
+      <t>sun hai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xue ruo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recreational</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.娱乐的，休闲的</t>
+    <rPh sb="4" eb="5">
+      <t>yu le</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xiu xian a</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self-conscious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.自觉的，害羞的，不自然的</t>
+    <rPh sb="4" eb="5">
+      <t>zi jue de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>hai xiu de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>bu zi ran de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exorbitant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.过分的，过度的</t>
+    <rPh sb="4" eb="5">
+      <t>guo fen de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>guo du de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thrifty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.节俭的</t>
+    <rPh sb="4" eb="5">
+      <t>jie jian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.庄严的，庄重的；n.墓穴</t>
+    <rPh sb="4" eb="5">
+      <t>zhuang yan de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhuang zhong de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>mu xue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chafe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.(将皮肤等)擦热，擦破；激怒</t>
+    <rPh sb="3" eb="4">
+      <t>jiang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pi fu deng</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>care</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ca po</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ji nu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scheme</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.阴谋；(作品等)体系，结构</t>
+    <rPh sb="2" eb="3">
+      <t>yin mou</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zuo pin</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ti xi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>jie gou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impede</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.妨碍</t>
+    <rPh sb="2" eb="3">
+      <t>fang ai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exigency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.紧急要求，迫切需求</t>
+    <rPh sb="2" eb="3">
+      <t>jin ji</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yao qiu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>po qie</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xu qiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incumbent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.在职者，现任者；adj.义不容辞的</t>
+    <rPh sb="2" eb="3">
+      <t>zai zhi zhe</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xian ren</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhe</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>yi bu rong ci de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>certitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.确定无疑</t>
+    <rPh sb="2" eb="3">
+      <t>que ding</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wu yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stocky</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.(人活动物)矮而结实的，粗壮的</t>
+    <rPh sb="5" eb="6">
+      <t>ren</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>dong wu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ai</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>er</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>jie shi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>cu zhuang</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>circumstantial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不重要的，偶然地；描述详细的</t>
+    <rPh sb="4" eb="5">
+      <t>bu zhong yao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ou ran de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>miao shu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>xiang xi de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>convivial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.欢乐的，快乐的</t>
+    <rPh sb="4" eb="5">
+      <t>huan le de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>kuai le</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adverse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.有害的，不利的，相反的，敌对的</t>
+    <rPh sb="4" eb="5">
+      <t>you hai de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bu li de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>xiang fan de</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>di dui</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decrepit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.衰老的，破旧的</t>
+    <rPh sb="4" eb="5">
+      <t>shuai lao de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>po jiu de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>misanthrope</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.厌恶人类者</t>
+    <rPh sb="2" eb="3">
+      <t>yan wu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ren lei zhe</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>caste</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.社会等级，等级</t>
+    <rPh sb="2" eb="3">
+      <t>she hui</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>deng ji</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>deng ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.机智，圆滑</t>
+    <rPh sb="2" eb="3">
+      <t>ji zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yuan hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beaded</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.以珠装饰的</t>
+    <rPh sb="4" eb="5">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhuang shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>envision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.想象，预想</t>
+    <rPh sb="2" eb="3">
+      <t>xiang xiang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yu xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aphorism</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.格言</t>
+    <rPh sb="2" eb="3">
+      <t>ge yan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.脆弱的，不坚实的</t>
+    <rPh sb="4" eb="5">
+      <t>cui ruo de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bu jian shi de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jian shi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instigate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.怂恿，鼓动，煽动</t>
+    <rPh sb="2" eb="3">
+      <t>song yong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gu dong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shan dong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.憎恨，怨恨</t>
+    <rPh sb="2" eb="3">
+      <t>zeng hen</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yuan hen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vulgar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.庸俗的，无教养的</t>
+    <rPh sb="4" eb="5">
+      <t>yong su</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jiao yang de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ragtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.使人发笑的；n.雷格泰姆音乐</t>
+    <rPh sb="4" eb="5">
+      <t>shi ren</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fa xiao de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>lei fe tai mu</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>yin yue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.有知觉的，知悉的</t>
+    <rPh sb="4" eb="5">
+      <t>you</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhi jue</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhi xi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>odorless</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.没有气味的</t>
+    <rPh sb="4" eb="5">
+      <t>mei you</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qi wei de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.似是而非的，华而不实的</t>
+    <rPh sb="4" eb="5">
+      <t>si shi er fei</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>hua er bu shi de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.胆汁，怨恨</t>
+    <rPh sb="2" eb="3">
+      <t>dan zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yuan hen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disinterested</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.公正的，客观的</t>
+    <rPh sb="4" eb="5">
+      <t>gong zheng de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ke guan de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vitiate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.削弱，损害</t>
+    <rPh sb="2" eb="3">
+      <t>xue ruo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>sun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>excavate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.开洞，凿洞；挖掘，发掘</t>
+    <rPh sb="2" eb="3">
+      <t>kai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>dong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zao dong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wa jue</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>fa jue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discretion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.谨慎，审慎</t>
+    <rPh sb="2" eb="3">
+      <t>jin shen</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shen shen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sully</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.玷污，污染</t>
+    <rPh sb="2" eb="3">
+      <t>dian wu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wu ran</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instantaneous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.立即的，即刻的，瞬间的</t>
+    <rPh sb="4" eb="5">
+      <t>li ji de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ji ke</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>shun jian de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.赞美</t>
+    <rPh sb="2" eb="3">
+      <t>zan mei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ceramic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.陶器的；n.陶瓷制品</t>
+    <rPh sb="4" eb="5">
+      <t>tao qi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>tao ci</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zhi pin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woolly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.羊毛的；模糊的</t>
+    <rPh sb="4" eb="5">
+      <t>yang mao de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>mo hu de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seismic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.地震的，由地震引起的</t>
+    <rPh sb="4" eb="5">
+      <t>di zhen de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>you</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>di zhen</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yin qi de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paucity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.少量；缺乏</t>
+    <rPh sb="2" eb="3">
+      <t>shao liang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>que fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sustain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.承受(困难)；支撑(重量或压力)</t>
+    <rPh sb="2" eb="3">
+      <t>cheng shou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>kun nan</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhi cheng</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>cheng</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zhong liang</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ya li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actuate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.开动，促使</t>
+    <rPh sb="2" eb="3">
+      <t>kai dong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>cu shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>counterfeit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.伪造，仿造；adj.伪造的</t>
+    <rPh sb="2" eb="3">
+      <t>wei zao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fang zao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>wei zao</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.海峡；adj.狭窄的</t>
+    <rPh sb="2" eb="3">
+      <t>hai xia</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xia zhai de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frugality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.节俭，朴素</t>
+    <rPh sb="2" eb="3">
+      <t>jie jian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>pu su</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equivocator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.说模棱话的人，说话支吾的人</t>
+    <rPh sb="2" eb="3">
+      <t>shuo o</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>mo leng liang ke</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hua</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ren</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shuo hua</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>wu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>humility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.谦逊</t>
+    <rPh sb="2" eb="3">
+      <t>qian xun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.减少，衰落</t>
+    <rPh sb="2" eb="3">
+      <t>jian shao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shuai luo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sonorous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.(声音)洪亮的</t>
+    <rPh sb="5" eb="6">
+      <t>sheng yin</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>hong liang de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refrain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.抑制；n.(诗歌中的)叠句</t>
+    <rPh sb="2" eb="3">
+      <t>yi zhi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi ge</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>die ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.兽群</t>
+    <rPh sb="2" eb="3">
+      <t>shou qun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>humdrum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.单调的</t>
+    <rPh sb="4" eb="5">
+      <t>dan diao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nuance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.细微差异</t>
+    <rPh sb="2" eb="3">
+      <t>xi wei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cha yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sprout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.长出，萌芽；n.嫩芽</t>
+    <rPh sb="2" eb="3">
+      <t>zhang chu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>meng ya</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>nen ya</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>philistine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.庸俗的人，对文化艺术无知的人</t>
+    <rPh sb="2" eb="3">
+      <t>yong su de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ren</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wen hua</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yi shu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>wu zhi de ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chastisement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.惩罚</t>
+    <rPh sb="2" eb="3">
+      <t>cheng fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>carve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.雕刻；(把肉等)切成片</t>
+    <rPh sb="2" eb="3">
+      <t>diao ke</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ba</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>rou</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>qie cheng</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>pian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>demean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weather</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nominally</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desultory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>profundity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cantankerous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proverb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incisive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tenacity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.贬抑，降低</t>
+    <rPh sb="2" eb="3">
+      <t>bian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yi zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jiang di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.风化；经受风雨；平安度过危难</t>
+    <rPh sb="2" eb="3">
+      <t>feng hua</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>hua</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jing shou</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>feng yu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ping an</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>du guo</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>wei nan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adv.名义上的；有名无实的</t>
+    <rPh sb="4" eb="5">
+      <t>ming yi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>you ming wu shi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不连贯的；散漫的</t>
+    <rPh sb="4" eb="5">
+      <t>bu lian guan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>san man de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.深奥的事情；深刻，深厚</t>
+    <rPh sb="2" eb="3">
+      <t>shen ao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi qing</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shen ke</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shen hou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.坏脾气的；好争吵的</t>
+    <rPh sb="4" eb="5">
+      <t>huai pi qi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>hao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zheng chao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.谚语</t>
+    <rPh sb="2" eb="3">
+      <t>yan yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.镇压，依法取消</t>
+    <rPh sb="2" eb="3">
+      <t>zhen ya</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yi fa</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>qu xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.尖锐的，深刻的</t>
+    <rPh sb="4" eb="5">
+      <t>jian rui</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shen ke</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.逃避；搞不清楚，理解不了</t>
+    <rPh sb="2" eb="3">
+      <t>tao bi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gao bu qing chu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>li jie</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>bu liao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.坚持，固执</t>
+    <rPh sb="2" eb="3">
+      <t>jian chi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gu zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incandescent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fussy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>puncture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>truce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.遇热发光的，发白热光的</t>
+    <rPh sb="4" eb="5">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>re</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fa guang de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>fa</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bai re</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>guang</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.爱挑剔的，难取悦的</t>
+    <rPh sb="4" eb="5">
+      <t>ai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tiao ti de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>nan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>qu yue</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.刺穿，戳破;n.刺孔，穿孔</t>
+    <rPh sb="2" eb="3">
+      <t>ci chuan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chuo po</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ci</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>kong</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>chuan kong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.停战，休战(协议)</t>
+    <rPh sb="2" eb="3">
+      <t>ting zhan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xiu zhan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xie yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incentive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tapering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gibe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forsake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flippant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incendiary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pungent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eligible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>encroach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supersede</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ambivalent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compliant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.恭敬的，顺从的</t>
+    <rPh sb="4" eb="5">
+      <t>gong jing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shun cong</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.有矛盾看法的</t>
+    <rPh sb="4" eb="5">
+      <t>you</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mao dun</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>kan fa</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.淘汰；取代</t>
+    <rPh sb="2" eb="3">
+      <t>tao tai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qu dai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.侵占，侵蚀</t>
+    <rPh sb="2" eb="3">
+      <t>qin zhan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qin shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.合格的，有资格的</t>
+    <rPh sb="4" eb="5">
+      <t>he ge</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>you</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zi ge</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.辛辣的，刺激的；尖锐的</t>
+    <rPh sb="4" eb="5">
+      <t>xin la de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ci ji de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>jian rui de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.放火的，纵火的</t>
+    <rPh sb="8" eb="9">
+      <t>zong huo</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.无礼的；轻率的</t>
+    <rPh sb="4" eb="5">
+      <t>wu li</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qing shuai</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.肥胖的；强壮的</t>
+    <rPh sb="4" eb="5">
+      <t>fei pang de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qiang zhuang de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.遗弃，放弃</t>
+    <rPh sb="2" eb="3">
+      <t>yi qi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fang qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v/n.嘲弄，讥笑</t>
+    <rPh sb="4" eb="5">
+      <t>chao nong</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ji xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.尖端细的</t>
+    <rPh sb="4" eb="5">
+      <t>jian duan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.刺激，诱因，动机</t>
+    <rPh sb="2" eb="3">
+      <t>ci ji</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>you yin</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>dong ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explicate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bleach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baffle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heterodox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>edify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pejorative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ponderous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pedagogic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parody</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outlast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preconception</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>balk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>destine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>carnage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>devout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spanking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pertinent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.相关的，有关的</t>
+    <rPh sb="4" eb="5">
+      <t>xiang guan de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>you guan de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.强烈的，疾行的</t>
+    <rPh sb="4" eb="5">
+      <t>qiang lie</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.虔诚的；忠诚的</t>
+    <rPh sb="4" eb="5">
+      <t>qian cheng de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhong cheng de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.大屠杀，残杀</t>
+    <rPh sb="2" eb="3">
+      <t>da tu sha</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>can sha</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.命中注定，预定</t>
+    <rPh sb="2" eb="3">
+      <t>ming zhong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhu ding</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yu ding</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.横梁，大梁；v.妨碍；畏缩不前</t>
+    <rPh sb="2" eb="3">
+      <t>heng liang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>da liang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>liang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>fang ai</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>wei suo</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>bu qian</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>qian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.先入之见</t>
+    <rPh sb="2" eb="3">
+      <t>xian ru zhi jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.比……持久</t>
+    <rPh sb="2" eb="3">
+      <t>bi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chi jiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.拙劣的模仿；滑稽模仿作品</t>
+    <rPh sb="2" eb="3">
+      <t>zhuo lie</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mo fang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>hua ji de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>mo fang</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zuo pin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.教育学的</t>
+    <rPh sb="4" eb="5">
+      <t>jiao yu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xue</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.笨重的，(因太重)不便搬运的</t>
+    <rPh sb="4" eb="5">
+      <t>ben zhong de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yin</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>tai zhong</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>bu bian</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ban yun de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.轻视的，贬低的</t>
+    <rPh sb="4" eb="5">
+      <t>qing shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bian di</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.陶冶，启发</t>
+    <rPh sb="2" eb="3">
+      <t>tao ye</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qi fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.异端的，非正统的</t>
+    <rPh sb="8" eb="9">
+      <t>fei</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zheng tong de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使困惑，难倒</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>kun huo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>nan dao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>dao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.去色，漂白;n.漂白剂，漂白的行为</t>
+    <rPh sb="2" eb="3">
+      <t>qu se</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>piao bai</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>piao bai ji</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>piao bai</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>xing wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.详细解说</t>
+    <rPh sb="2" eb="3">
+      <t>xiang xi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jie shuo</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1406,10 +3561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B186"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A57" zoomScale="108" zoomScaleNormal="108" zoomScalePageLayoutView="108" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A166" zoomScale="108" zoomScaleNormal="108" zoomScalePageLayoutView="108" workbookViewId="0">
+      <selection activeCell="B171" sqref="B171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1918,10 +4073,977 @@
         <v>123</v>
       </c>
     </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>124</v>
+      </c>
+      <c r="B65" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>126</v>
+      </c>
+      <c r="B66" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>128</v>
+      </c>
+      <c r="B67" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>130</v>
+      </c>
+      <c r="B68" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>132</v>
+      </c>
+      <c r="B69" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>134</v>
+      </c>
+      <c r="B70" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>136</v>
+      </c>
+      <c r="B71" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>138</v>
+      </c>
+      <c r="B72" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>140</v>
+      </c>
+      <c r="B73" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>142</v>
+      </c>
+      <c r="B74" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>144</v>
+      </c>
+      <c r="B75" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>146</v>
+      </c>
+      <c r="B76" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>148</v>
+      </c>
+      <c r="B77" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>150</v>
+      </c>
+      <c r="B78" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>152</v>
+      </c>
+      <c r="B79" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>154</v>
+      </c>
+      <c r="B80" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>156</v>
+      </c>
+      <c r="B81" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>158</v>
+      </c>
+      <c r="B82" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>160</v>
+      </c>
+      <c r="B83" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>162</v>
+      </c>
+      <c r="B84" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>164</v>
+      </c>
+      <c r="B85" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>166</v>
+      </c>
+      <c r="B86" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>168</v>
+      </c>
+      <c r="B87" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>170</v>
+      </c>
+      <c r="B88" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>172</v>
+      </c>
+      <c r="B89" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>174</v>
+      </c>
+      <c r="B90" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>176</v>
+      </c>
+      <c r="B91" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>178</v>
+      </c>
+      <c r="B92" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>180</v>
+      </c>
+      <c r="B93" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>182</v>
+      </c>
+      <c r="B94" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>184</v>
+      </c>
+      <c r="B95" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>186</v>
+      </c>
+      <c r="B96" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>188</v>
+      </c>
+      <c r="B97" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>190</v>
+      </c>
+      <c r="B98" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>192</v>
+      </c>
+      <c r="B99" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>194</v>
+      </c>
+      <c r="B100" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>196</v>
+      </c>
+      <c r="B101" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>198</v>
+      </c>
+      <c r="B102" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>200</v>
+      </c>
+      <c r="B103" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>202</v>
+      </c>
+      <c r="B104" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>204</v>
+      </c>
+      <c r="B105" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>206</v>
+      </c>
+      <c r="B106" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B108" s="1"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>209</v>
+      </c>
+      <c r="B109" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>211</v>
+      </c>
+      <c r="B110" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>213</v>
+      </c>
+      <c r="B111" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>215</v>
+      </c>
+      <c r="B112" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>217</v>
+      </c>
+      <c r="B113" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>219</v>
+      </c>
+      <c r="B114" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>221</v>
+      </c>
+      <c r="B115" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>223</v>
+      </c>
+      <c r="B116" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>225</v>
+      </c>
+      <c r="B117" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>227</v>
+      </c>
+      <c r="B118" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>229</v>
+      </c>
+      <c r="B119" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>231</v>
+      </c>
+      <c r="B120" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>233</v>
+      </c>
+      <c r="B121" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>235</v>
+      </c>
+      <c r="B122" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>237</v>
+      </c>
+      <c r="B123" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>239</v>
+      </c>
+      <c r="B124" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>241</v>
+      </c>
+      <c r="B125" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>243</v>
+      </c>
+      <c r="B126" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>245</v>
+      </c>
+      <c r="B127" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>247</v>
+      </c>
+      <c r="B128" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>249</v>
+      </c>
+      <c r="B129" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>251</v>
+      </c>
+      <c r="B130" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>253</v>
+      </c>
+      <c r="B131" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>255</v>
+      </c>
+      <c r="B132" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>257</v>
+      </c>
+      <c r="B133" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>259</v>
+      </c>
+      <c r="B134" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>261</v>
+      </c>
+      <c r="B135" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>263</v>
+      </c>
+      <c r="B136" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>265</v>
+      </c>
+      <c r="B137" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>267</v>
+      </c>
+      <c r="B138" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>269</v>
+      </c>
+      <c r="B139" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>271</v>
+      </c>
+      <c r="B140" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>273</v>
+      </c>
+      <c r="B141" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>275</v>
+      </c>
+      <c r="B142" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>276</v>
+      </c>
+      <c r="B143" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>277</v>
+      </c>
+      <c r="B144" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>278</v>
+      </c>
+      <c r="B145" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>279</v>
+      </c>
+      <c r="B146" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>280</v>
+      </c>
+      <c r="B147" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>281</v>
+      </c>
+      <c r="B148" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>282</v>
+      </c>
+      <c r="B149" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>283</v>
+      </c>
+      <c r="B150" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>284</v>
+      </c>
+      <c r="B151" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>285</v>
+      </c>
+      <c r="B152" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>297</v>
+      </c>
+      <c r="B153" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>298</v>
+      </c>
+      <c r="B154" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>299</v>
+      </c>
+      <c r="B155" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>300</v>
+      </c>
+      <c r="B156" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>305</v>
+      </c>
+      <c r="B157" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>306</v>
+      </c>
+      <c r="B158" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>307</v>
+      </c>
+      <c r="B159" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>308</v>
+      </c>
+      <c r="B160" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>309</v>
+      </c>
+      <c r="B161" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>310</v>
+      </c>
+      <c r="B162" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>311</v>
+      </c>
+      <c r="B163" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>312</v>
+      </c>
+      <c r="B164" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>313</v>
+      </c>
+      <c r="B165" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>314</v>
+      </c>
+      <c r="B166" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>315</v>
+      </c>
+      <c r="B167" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>316</v>
+      </c>
+      <c r="B168" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>317</v>
+      </c>
+      <c r="B169" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>331</v>
+      </c>
+      <c r="B170" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>332</v>
+      </c>
+      <c r="B171" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>333</v>
+      </c>
+      <c r="B172" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>334</v>
+      </c>
+      <c r="B173" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>335</v>
+      </c>
+      <c r="B174" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>336</v>
+      </c>
+      <c r="B175" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>337</v>
+      </c>
+      <c r="B176" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>338</v>
+      </c>
+      <c r="B177" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>339</v>
+      </c>
+      <c r="B178" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>340</v>
+      </c>
+      <c r="B179" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>341</v>
+      </c>
+      <c r="B180" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>342</v>
+      </c>
+      <c r="B181" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>343</v>
+      </c>
+      <c r="B182" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>344</v>
+      </c>
+      <c r="B183" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>345</v>
+      </c>
+      <c r="B184" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>346</v>
+      </c>
+      <c r="B185" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>347</v>
+      </c>
+      <c r="B186" t="s">
+        <v>348</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A108:B108"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="607">
   <si>
     <t>unit 22</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3234,6 +3234,2207 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>jie shuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit 19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>walrus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phenomenal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impenetrable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enervate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cannily</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adv.机灵地</t>
+    <rPh sb="4" eb="5">
+      <t>ji ling</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使虚弱，使无力</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xu ruo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wu li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不能穿透的；不可理解的</t>
+    <rPh sb="4" eb="5">
+      <t>bu neng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>chuan tou de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bu ke</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>li jie de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.海象</t>
+    <rPh sb="2" eb="3">
+      <t>hai xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>censorious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epoch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>circumspect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gloat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brevity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pernicious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.有害的；致命的</t>
+    <rPh sb="4" eb="5">
+      <t>you hai de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhi ming de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.短暂</t>
+    <rPh sb="2" eb="3">
+      <t>duan zan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.幸灾乐祸地看，心满意足地看</t>
+    <rPh sb="2" eb="3">
+      <t>xing zai le huo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>di</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>kan</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xin man yi zu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>di</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>kan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.慎重的</t>
+    <rPh sb="4" eb="5">
+      <t>shen zhong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.新纪元；重大的事件</t>
+    <rPh sb="2" eb="3">
+      <t>xin</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ji yuan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhong da de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>hsi jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.挑剔的</t>
+    <rPh sb="4" eb="5">
+      <t>tiao ti de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blockbuster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.巨型炸弹；一鸣惊人的事物；非常成功的书或电影</t>
+    <rPh sb="2" eb="3">
+      <t>ju xing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zha dan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yi ming jing ren</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>shi wu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>fei chang</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>cheng gong de</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>shu</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>dian ying</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>culminate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.达到顶点；使达到最高点</t>
+    <rPh sb="2" eb="3">
+      <t>da ddao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ding fian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>da dao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zui gao dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>earnest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.诚挚的；认真的</t>
+    <rPh sb="4" eb="5">
+      <t>cheng zhi de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ren zhen de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rectify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.改正，矫正；提纯</t>
+    <rPh sb="2" eb="3">
+      <t>gai zheng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jiao zheng</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ti chun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repulse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>venal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>involuntary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aquatic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.水生的，水中的</t>
+    <rPh sb="4" eb="5">
+      <t>shui sheng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shui zhong de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.灵敏的，敏锐的；剧烈的</t>
+    <rPh sb="4" eb="5">
+      <t>ling min</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>min rui de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ju lie de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.无意的</t>
+    <rPh sb="4" eb="5">
+      <t>wu yi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.腐败的，贪赃枉法的</t>
+    <rPh sb="4" eb="5">
+      <t>fu bai de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tan zang wang fa</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.散文</t>
+    <rPh sb="2" eb="3">
+      <t>san wen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.击退；(粗暴无礼)回绝 n.回绝，击退</t>
+    <rPh sb="2" eb="3">
+      <t>ji tui</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>cu bao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wu l</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>hui jue</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>hui jue</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ji tui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>circuitous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.绕圈子的，迂回的</t>
+    <rPh sb="4" eb="5">
+      <t>rao quan zi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yu hui</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indiscriminate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不加选择的；随意的</t>
+    <rPh sb="4" eb="5">
+      <t>bu jia</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xuan ze</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>sui yi de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>antiquity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.古老；古人；古迹</t>
+    <rPh sb="2" eb="3">
+      <t>gu lao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gu ren</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gu ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overdue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.到期未付的；晚来的，延误的</t>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wan lai</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>yan wu</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extricable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inconsequential</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agrarian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.土地的</t>
+    <rPh sb="4" eb="5">
+      <t>tu di de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不重要的，微不足道的</t>
+    <rPh sb="4" eb="5">
+      <t>bu zhong yao de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>wei bu zu dao de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ignominy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.羞辱，耻辱</t>
+    <rPh sb="2" eb="3">
+      <t>xiu ru</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chi ru</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.可解救的，能脱险的</t>
+    <rPh sb="4" eb="5">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jie jiu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>neng</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>tuo xian de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.无意义的，空洞的；愚蠢的</t>
+    <rPh sb="4" eb="5">
+      <t>wu yi yi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>kong dong de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>yu chun de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.戳，刺；刺激，激励</t>
+    <rPh sb="2" eb="3">
+      <t>chuo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ci</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ci ji</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ji li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obsequious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abatement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spongy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>harass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>escapism</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deluge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acolyte</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.(教士的)助手，侍僧</t>
+    <rPh sb="3" eb="4">
+      <t>jiao shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhu shou</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>seng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.大洪水；暴雨</t>
+    <rPh sb="2" eb="3">
+      <t>da hong shui</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bao yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.逃避现实(的习气)</t>
+    <rPh sb="2" eb="3">
+      <t>tao bi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xian shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xi qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.侵扰，烦扰</t>
+    <rPh sb="2" eb="3">
+      <t>qin rao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fan rao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.像海绵的；不坚实的</t>
+    <rPh sb="4" eb="5">
+      <t>xiang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hai mian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jian</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.减少，减轻</t>
+    <rPh sb="2" eb="3">
+      <t>jian shao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jian qing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.逢迎的，谄媚的</t>
+    <rPh sb="4" eb="5">
+      <t>feng ying</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>cahn mei</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frenetic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prosaic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swift</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>semimolten</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>afflict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amiability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chagrin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grandiose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scrupulous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.恪守道德规范的；一丝不苟的</t>
+    <rPh sb="4" eb="5">
+      <t>ke shou</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dao de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gui fan de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>yi si bu gou</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.宏伟的；浮夸的</t>
+    <rPh sb="4" eb="5">
+      <t>hong wei</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fu kua</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.小心的，审慎的</t>
+    <rPh sb="4" eb="5">
+      <t>xiao xin de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shen</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.失望，懊恼</t>
+    <rPh sb="2" eb="3">
+      <t>shi wang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ao nao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.亲切，友善</t>
+    <rPh sb="2" eb="3">
+      <t>qin qie</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>you shan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.折磨；使痛苦</t>
+    <rPh sb="2" eb="3">
+      <t>zhe m</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>tong ku</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.半融化的</t>
+    <rPh sb="4" eb="5">
+      <t>ban</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>rong hua</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.迅速的；敏捷的</t>
+    <rPh sb="4" eb="5">
+      <t>xun su</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>min jie de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.散文(体)的；单调的，无趣的</t>
+    <rPh sb="4" eb="5">
+      <t>san wen</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ti</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>dan diao de</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>wu qu</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.狂乱的，发狂的</t>
+    <rPh sb="4" eb="5">
+      <t>kuang luan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fa kuang de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endemic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imposture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arresting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obviate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rueful</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>precipitious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.陡峭的</t>
+    <rPh sb="4" eb="5">
+      <t>dou qiao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.抱撼的；后悔的，悔恨的</t>
+    <rPh sb="4" eb="5">
+      <t>bao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>han</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>hou hui</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>hui hen de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.排除，消除(困难、危险等)</t>
+    <rPh sb="2" eb="3">
+      <t>pai chu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xiao ch</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>kun nan</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>wei xian</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>deng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.醒目的，引人注意的</t>
+    <rPh sb="4" eb="5">
+      <t>xing mu de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yin ren</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhu yi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.吐露(心事)；倾诉</t>
+    <rPh sb="2" eb="3">
+      <t>tu lu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xin shi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>qing su</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.冒充</t>
+    <rPh sb="2" eb="3">
+      <t>mao chong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.地方性的</t>
+    <rPh sb="4" eb="5">
+      <t>di fang xing</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fruitlessly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>folly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>germinate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eschew</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recollect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>translucent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.可用的，耐用的</t>
+    <rPh sb="4" eb="5">
+      <t>ke yong de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>nai yong de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.半透明的</t>
+    <rPh sb="4" eb="5">
+      <t>ban tou ming</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.回忆；想起</t>
+    <rPh sb="2" eb="3">
+      <t>hui yi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xiang qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.避开，戒绝</t>
+    <rPh sb="2" eb="3">
+      <t>bi kai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jie jue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.发芽；发展</t>
+    <rPh sb="2" eb="3">
+      <t>fa ya</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fa zan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.愚蠢；愚蠢的想法或做法</t>
+    <rPh sb="2" eb="3">
+      <t>yu chun</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yu chun</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xiang fa</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zuo fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adv.徒劳地，无益地</t>
+    <rPh sb="4" eb="5">
+      <t>tu lao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>di</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>censure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specimen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>byzantine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apprise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defunct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compliance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.顺从，尊从</t>
+    <rPh sb="2" eb="3">
+      <t>shun chong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zun chong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>cong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.死亡的</t>
+    <rPh sb="4" eb="5">
+      <t>si wang de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.通知，告知</t>
+    <rPh sb="2" eb="3">
+      <t>tong zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gao zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.错综复杂的</t>
+    <rPh sb="4" eb="5">
+      <t>cuo zong fu za</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.范例，样品，标本</t>
+    <rPh sb="2" eb="3">
+      <t>fan li</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yang pin</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>biao ben</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.／v.指责，谴责</t>
+    <rPh sb="5" eb="6">
+      <t>zhi ze</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qian ze</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vanity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.虚荣，自负</t>
+    <rPh sb="2" eb="3">
+      <t>xu rong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zi fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit 18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>threadlike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ostentation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indebted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incorrigible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>committed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.(对事业工作)尽忠的</t>
+    <rPh sb="5" eb="6">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi ye</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gong zuo</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>jin zhong</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.积习难改的，不可救药的</t>
+    <rPh sb="4" eb="5">
+      <t>ji xi nan gai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bu ke jiu yao</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.感激的，蒙恩的</t>
+    <rPh sb="4" eb="5">
+      <t>gan ji de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>meng en</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.夸示，炫耀</t>
+    <rPh sb="2" eb="3">
+      <t>kua shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xuan yao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.线状的</t>
+    <rPh sb="4" eb="5">
+      <t>xian zhuang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ramshackle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inflict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>communal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unctuous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>espouse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physiological</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>venerable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frivolity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.轻浮的行为</t>
+    <rPh sb="2" eb="3">
+      <t>qing fu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xing wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.值得尊敬的，庄严的</t>
+    <rPh sb="4" eb="5">
+      <t>zhi de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zun jing</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhuang yan</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.生理(机能)的；生理学的</t>
+    <rPh sb="4" eb="5">
+      <t>sheng li</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ji neng</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>sheng li xue</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.支持，拥护</t>
+    <rPh sb="2" eb="3">
+      <t>zhi chi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yong hu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.油质；油腔滑调的</t>
+    <rPh sb="4" eb="5">
+      <t>you</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>you qiang hua diao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.全体共用的，共享的</t>
+    <rPh sb="4" eb="5">
+      <t>quan ti</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gong</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yong de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gong xiang de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使遭受(痛苦、损伤等)</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zao shou</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>tong ku</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>sun shang</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>deng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.摇摇欲坠的</t>
+    <rPh sb="4" eb="5">
+      <t>yao yao yu zui</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhui</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quarrel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>primitive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amicable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tortuous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pestilential</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.引起瘟疫的，致命的，&lt;口&gt;极讨厌的</t>
+    <rPh sb="4" eb="5">
+      <t>yin qi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wen yi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhi ming</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>kou</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>tao yan</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.／v.争吵</t>
+    <rPh sb="5" eb="6">
+      <t>zheng chao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.原始的，远古的，基本的</t>
+    <rPh sb="4" eb="5">
+      <t>yuan shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yuan gu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ji ben de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.友好的</t>
+    <rPh sb="4" eb="5">
+      <t>you hao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.曲折的，拐弯抹角的，弯弯曲曲的</t>
+    <rPh sb="4" eb="5">
+      <t>qu zhe</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>guai wan mo jiao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>wan wan qu qu</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.争吵，打斗 v.磨破</t>
+    <rPh sb="2" eb="3">
+      <t>zheng chao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>da dou</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>mo po</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cerebral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stagnate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>figment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extravagance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appetizing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reactionary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>balmy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upstage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>egregious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unscathed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defiance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dissonant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ethereal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.大脑的；深思的</t>
+    <rPh sb="4" eb="5">
+      <t>da nao de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shen si</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.停滞</t>
+    <rPh sb="2" eb="3">
+      <t>ting zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.虚构的事</t>
+    <rPh sb="2" eb="3">
+      <t>xu gou</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.奢侈，挥霍</t>
+    <rPh sb="2" eb="3">
+      <t>she chi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hui huo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.是惊骇，使胆寒</t>
+    <rPh sb="2" eb="3">
+      <t>shi jing hai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>dan han</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.美味可口的，促进食欲的</t>
+    <rPh sb="4" eb="5">
+      <t>mei wei</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ke kou de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>cu jin</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>shi yu de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.极端保守的，反动的</t>
+    <rPh sb="4" eb="5">
+      <t>ji duan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bao shou</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>fan dong de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.芳香的；空气温和的；止痛的</t>
+    <rPh sb="4" eb="5">
+      <t>fang xiang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>kong qi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wen he</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zhi tong</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.高傲的</t>
+    <rPh sb="4" eb="5">
+      <t>gao ao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.极端恶劣的</t>
+    <rPh sb="4" eb="5">
+      <t>ji duan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>e lie</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.为受损伤的，未受伤害的</t>
+    <rPh sb="4" eb="5">
+      <t>wei shou</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>sun shang de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shou</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>shang hai</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.挑战；违抗；反抗</t>
+    <rPh sb="2" eb="3">
+      <t>tiao zhan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wei kang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fan kang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不和谐的，不一致的</t>
+    <rPh sb="4" eb="5">
+      <t>bu he xie</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bu yi zhi de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.缓行，漫步</t>
+    <rPh sb="2" eb="3">
+      <t>huan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>man bu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.太空的；轻巧的，轻飘飘的</t>
+    <rPh sb="4" eb="5">
+      <t>tai kong de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qing qiao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>qing piao piao</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bellicose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unliterary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>revile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>radiant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nonchalantly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resurrect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glandular</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parsimony</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eliminate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.好战的，好斗的</t>
+    <rPh sb="4" eb="5">
+      <t>hao zhan de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>hao dou</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不巧揉造作的，不咬文嚼字的</t>
+    <rPh sb="4" eb="5">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qiao rou zao zuo</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>yao wen jiao zi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.辱骂，恶言相向</t>
+    <rPh sb="2" eb="3">
+      <t>ru ma</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>e yan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xiang xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.发光的；容光焕发的</t>
+    <rPh sb="4" eb="5">
+      <t>fa guang d</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>rong guang huan fa</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adv.冷淡地，冷漠地</t>
+    <rPh sb="4" eb="5">
+      <t>leng dan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>di</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>len mo</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使复活；复兴</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fu huo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fu xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.腺状的，腺的</t>
+    <rPh sb="4" eb="5">
+      <t>xian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhuang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.过分节俭，吝啬</t>
+    <rPh sb="2" eb="3">
+      <t>guo fen</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jie jian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>lin se</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.含盐的，咸的</t>
+    <rPh sb="4" eb="5">
+      <t>han</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.除去，淘汰</t>
+    <rPh sb="2" eb="3">
+      <t>chu qu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tao tai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>squalid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ferromagnetic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>antithesis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>erratic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impugn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sequester</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.污秽的，肮脏的</t>
+    <rPh sb="4" eb="5">
+      <t>wu hui</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ang zang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.地磁的，磁体的</t>
+    <rPh sb="4" eb="5">
+      <t>di ci</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ci ti</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.对立，相对</t>
+    <rPh sb="2" eb="3">
+      <t>dui li</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xiang dui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.捐赠；赋予</t>
+    <rPh sb="2" eb="3">
+      <t>juan zeng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fu yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.无规律的，不稳定的；古怪的</t>
+    <rPh sb="4" eb="5">
+      <t>wu gui lü</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bu wen ding de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>gu guai de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.提出异议，对……表示不满</t>
+    <rPh sb="2" eb="3">
+      <t>ti chu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yi yi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>biao shi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>bu man</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.(使)隐退；使隔离</t>
+    <rPh sb="3" eb="4">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yin tui</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ge li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.显著的，非凡的</t>
+    <rPh sb="4" eb="5">
+      <t>xian zhu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fei fan de</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3561,10 +5762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B186"/>
+  <dimension ref="A1:B310"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A166" zoomScale="108" zoomScaleNormal="108" zoomScalePageLayoutView="108" workbookViewId="0">
-      <selection activeCell="B171" sqref="B171"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A255" zoomScale="108" zoomScaleNormal="108" zoomScalePageLayoutView="108" workbookViewId="0">
+      <selection activeCell="B191" sqref="B191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5039,11 +7240,985 @@
         <v>348</v>
       </c>
     </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B188" s="1"/>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>366</v>
+      </c>
+      <c r="B189" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>367</v>
+      </c>
+      <c r="B190" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>368</v>
+      </c>
+      <c r="B191" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>369</v>
+      </c>
+      <c r="B192" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>370</v>
+      </c>
+      <c r="B193" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>375</v>
+      </c>
+      <c r="B194" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>376</v>
+      </c>
+      <c r="B195" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>377</v>
+      </c>
+      <c r="B196" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>378</v>
+      </c>
+      <c r="B197" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>379</v>
+      </c>
+      <c r="B198" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>380</v>
+      </c>
+      <c r="B199" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>387</v>
+      </c>
+      <c r="B200" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>389</v>
+      </c>
+      <c r="B201" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>391</v>
+      </c>
+      <c r="B202" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>393</v>
+      </c>
+      <c r="B203" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>395</v>
+      </c>
+      <c r="B204" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>396</v>
+      </c>
+      <c r="B205" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>397</v>
+      </c>
+      <c r="B206" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>398</v>
+      </c>
+      <c r="B207" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>399</v>
+      </c>
+      <c r="B208" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>400</v>
+      </c>
+      <c r="B209" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>407</v>
+      </c>
+      <c r="B210" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>409</v>
+      </c>
+      <c r="B211" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>411</v>
+      </c>
+      <c r="B212" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>413</v>
+      </c>
+      <c r="B213" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>415</v>
+      </c>
+      <c r="B214" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>416</v>
+      </c>
+      <c r="B215" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>417</v>
+      </c>
+      <c r="B216" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>422</v>
+      </c>
+      <c r="B217" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>418</v>
+      </c>
+      <c r="B218" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>419</v>
+      </c>
+      <c r="B219" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>427</v>
+      </c>
+      <c r="B220" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>428</v>
+      </c>
+      <c r="B221" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>429</v>
+      </c>
+      <c r="B222" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>430</v>
+      </c>
+      <c r="B223" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>431</v>
+      </c>
+      <c r="B224" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>432</v>
+      </c>
+      <c r="B225" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>433</v>
+      </c>
+      <c r="B226" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>441</v>
+      </c>
+      <c r="B227" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>442</v>
+      </c>
+      <c r="B228" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>443</v>
+      </c>
+      <c r="B229" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>444</v>
+      </c>
+      <c r="B230" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>445</v>
+      </c>
+      <c r="B231" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>446</v>
+      </c>
+      <c r="B232" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>447</v>
+      </c>
+      <c r="B233" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>448</v>
+      </c>
+      <c r="B234" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>449</v>
+      </c>
+      <c r="B235" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>450</v>
+      </c>
+      <c r="B236" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>461</v>
+      </c>
+      <c r="B237" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>462</v>
+      </c>
+      <c r="B238" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>463</v>
+      </c>
+      <c r="B239" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>464</v>
+      </c>
+      <c r="B240" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>465</v>
+      </c>
+      <c r="B241" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>466</v>
+      </c>
+      <c r="B242" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>467</v>
+      </c>
+      <c r="B243" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>475</v>
+      </c>
+      <c r="B244" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>476</v>
+      </c>
+      <c r="B245" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>477</v>
+      </c>
+      <c r="B246" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>478</v>
+      </c>
+      <c r="B247" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>479</v>
+      </c>
+      <c r="B248" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>480</v>
+      </c>
+      <c r="B249" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>481</v>
+      </c>
+      <c r="B250" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>489</v>
+      </c>
+      <c r="B251" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>490</v>
+      </c>
+      <c r="B252" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>491</v>
+      </c>
+      <c r="B253" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>492</v>
+      </c>
+      <c r="B254" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>493</v>
+      </c>
+      <c r="B255" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>494</v>
+      </c>
+      <c r="B256" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>501</v>
+      </c>
+      <c r="B257" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B259" s="1"/>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>504</v>
+      </c>
+      <c r="B260" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>505</v>
+      </c>
+      <c r="B261" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>506</v>
+      </c>
+      <c r="B262" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>507</v>
+      </c>
+      <c r="B263" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>508</v>
+      </c>
+      <c r="B264" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>514</v>
+      </c>
+      <c r="B265" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>515</v>
+      </c>
+      <c r="B266" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>516</v>
+      </c>
+      <c r="B267" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>517</v>
+      </c>
+      <c r="B268" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>518</v>
+      </c>
+      <c r="B269" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>519</v>
+      </c>
+      <c r="B270" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>520</v>
+      </c>
+      <c r="B271" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>521</v>
+      </c>
+      <c r="B272" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>530</v>
+      </c>
+      <c r="B273" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>531</v>
+      </c>
+      <c r="B274" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>532</v>
+      </c>
+      <c r="B275" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>533</v>
+      </c>
+      <c r="B276" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>534</v>
+      </c>
+      <c r="B277" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>535</v>
+      </c>
+      <c r="B278" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>542</v>
+      </c>
+      <c r="B279" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>543</v>
+      </c>
+      <c r="B280" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>544</v>
+      </c>
+      <c r="B281" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>545</v>
+      </c>
+      <c r="B282" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>546</v>
+      </c>
+      <c r="B283" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>547</v>
+      </c>
+      <c r="B284" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>548</v>
+      </c>
+      <c r="B285" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>549</v>
+      </c>
+      <c r="B286" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>550</v>
+      </c>
+      <c r="B287" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>551</v>
+      </c>
+      <c r="B288" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>552</v>
+      </c>
+      <c r="B289" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>553</v>
+      </c>
+      <c r="B290" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>554</v>
+      </c>
+      <c r="B291" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>555</v>
+      </c>
+      <c r="B292" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>556</v>
+      </c>
+      <c r="B293" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>572</v>
+      </c>
+      <c r="B294" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>573</v>
+      </c>
+      <c r="B295" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>574</v>
+      </c>
+      <c r="B296" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>575</v>
+      </c>
+      <c r="B297" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>576</v>
+      </c>
+      <c r="B298" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>577</v>
+      </c>
+      <c r="B299" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>578</v>
+      </c>
+      <c r="B300" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>579</v>
+      </c>
+      <c r="B301" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>580</v>
+      </c>
+      <c r="B302" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>581</v>
+      </c>
+      <c r="B303" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>592</v>
+      </c>
+      <c r="B304" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>593</v>
+      </c>
+      <c r="B305" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>594</v>
+      </c>
+      <c r="B306" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>595</v>
+      </c>
+      <c r="B307" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>596</v>
+      </c>
+      <c r="B308" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>597</v>
+      </c>
+      <c r="B309" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>598</v>
+      </c>
+      <c r="B310" t="s">
+        <v>605</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A259:B259"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="813">
   <si>
     <t>unit 22</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5435,6 +5435,1886 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>fei fan de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stingy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>umbrage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sramble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nonplussed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exacerbate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>propitious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>partisan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.吝啬的，小气的</t>
+    <rPh sb="4" eb="5">
+      <t>lin se de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xiao qi de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.不快，愤怒</t>
+    <rPh sb="2" eb="3">
+      <t>bu kuai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fen nu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.攀登；搅乱，使混乱，争夺</t>
+    <rPh sb="2" eb="3">
+      <t>pan deng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jiao luan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zheng duo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不知所措的，陷于困境的</t>
+    <rPh sb="4" eb="5">
+      <t>bu zhi suo cuo</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xian</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>kun jing</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使加重，使恶化</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jia ju</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>e hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.吉利的，顺利的，有利的</t>
+    <rPh sb="4" eb="5">
+      <t>ji li</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shun li</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>you li</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.党派支持者，党羽</t>
+    <rPh sb="2" eb="3">
+      <t>dang pai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhi chi z</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>dang yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debauch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>render</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opinionated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使堕落，败坏；n.堕落</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>duo luo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bai huai</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>duo luo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.呈递，提供；给予，归还</t>
+    <rPh sb="2" eb="3">
+      <t>cheng di</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ti gong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gei yu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>gui huan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.击退；使反感</t>
+    <rPh sb="2" eb="3">
+      <t>ji tui</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fang an</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.活门，阀门</t>
+    <rPh sb="2" eb="3">
+      <t>huo men</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fa men</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.发出砰的一声；突然出现</t>
+    <rPh sb="2" eb="3">
+      <t>fa chu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>peng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yi sheng</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>tu ran</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>chu xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.固执己见的</t>
+    <rPh sb="4" eb="5">
+      <t>gu zhi ji jian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beleaguer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avaricious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>irrevocable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>corrosive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>infertile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debilitate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>climactic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.围攻；骚扰</t>
+    <rPh sb="2" eb="3">
+      <t>wei gong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>sao rao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.贪婪的，贪心的</t>
+    <rPh sb="4" eb="5">
+      <t>tan lan de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tan xin de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不能撤回的，无法取消的</t>
+    <rPh sb="4" eb="5">
+      <t>bu neng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>che hui</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wu fa</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>qu xiao de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.腐蚀性的，腐蚀的，蚀坏的</t>
+    <rPh sb="4" eb="5">
+      <t>fu shi xing</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>huai</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.贫瘠的，不结果实的</t>
+    <rPh sb="4" eb="5">
+      <t>pin ji</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bu jie guo shi de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使衰弱</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shuai ruo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.高潮的</t>
+    <rPh sb="4" eb="5">
+      <t>gao chao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit 17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inferable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nubile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fraternity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unadorned</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discomfit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>salient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emblematic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>braggart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spiral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shuffle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.能推理的，能推论的</t>
+    <rPh sb="4" eb="5">
+      <t>neng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tui li</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>neng</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>tui lun de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.适婚的；性感的</t>
+    <rPh sb="4" eb="5">
+      <t>shi hun</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xing gan de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.同行；友爱</t>
+    <rPh sb="2" eb="3">
+      <t>tong hang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>you ai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.未装饰的，朴素的</t>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>pu su</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使难堪，使困惑</t>
+    <rPh sb="6" eb="7">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>kun huo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.显著的，突出的</t>
+    <rPh sb="4" eb="5">
+      <t>xian zhu de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tu ch de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.款待，宴请，使……快乐</t>
+    <rPh sb="2" eb="3">
+      <t>kuan dai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yan qing</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>kuai le</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.做为象征的</t>
+    <rPh sb="4" eb="5">
+      <t>zuo wei</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xiang zheng</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.吹牛者</t>
+    <rPh sb="2" eb="3">
+      <t>chui niu pi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.螺旋形的；上升的； v.螺旋形上升或下降</t>
+    <rPh sb="4" eb="5">
+      <t>luo xuan xing</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shang hseng</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>luo xuan xing</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>shang sheng</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>xia jiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.洗牌；拖步走；支吾</t>
+    <rPh sb="2" eb="3">
+      <t>xi pai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhi wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pensive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drizzly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outgrow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>barren</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glossary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dictate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>secular</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scarcity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intensification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ratify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.沉思的；忧心忡忡的</t>
+    <rPh sb="4" eb="5">
+      <t>chen si</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>you xin chong chong</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.毛毛细雨的</t>
+    <rPh sb="4" eb="5">
+      <t>mao mao xi yu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt.生长速度超过……，长得比……快</t>
+    <rPh sb="3" eb="4">
+      <t>sheng zhang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>su du</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>chao guo</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zhang de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>bi</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>kuai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不育的；贫瘠的；不结果实的</t>
+    <rPh sb="4" eb="5">
+      <t>bu yu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>pin ji de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>bu jie guo shi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.词汇表；难词表</t>
+    <rPh sb="2" eb="3">
+      <t>ci hui biao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.口述；命令</t>
+    <rPh sb="2" eb="3">
+      <t>kou shu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ming ling</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.世俗的，尘世的</t>
+    <rPh sb="4" eb="5">
+      <t>shi su</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chen shi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.不足，缺乏</t>
+    <rPh sb="2" eb="3">
+      <t>bu zu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>que fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.增强，加剧；激烈化</t>
+    <rPh sb="2" eb="3">
+      <t>zeng qiang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jia ju</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ji lie hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.批准</t>
+    <rPh sb="2" eb="3">
+      <t>pi zhun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proselytize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adamant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wholesale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>irredeemable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imperial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discursive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bravado</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wistful</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impermanent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conscientious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obliqueness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.(使）皈依</t>
+    <rPh sb="3" eb="4">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gui yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.坚决的，固执的；强硬的</t>
+    <rPh sb="4" eb="5">
+      <t>jian jue de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gu zhi de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>qiang ying</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.批发的；大规模的</t>
+    <rPh sb="4" eb="5">
+      <t>pi fa de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>da gui mo</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.无法挽回的，不可救药的</t>
+    <rPh sb="4" eb="5">
+      <t>wu fa</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wan hui</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bu ke</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>jiu yao</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.帝王的，至尊的</t>
+    <rPh sb="4" eb="5">
+      <t>di wang de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhi zun</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.散漫的；不得要领的</t>
+    <rPh sb="4" eb="5">
+      <t>san man</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bu de yao ling</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.故作勇敢，虚张声势</t>
+    <rPh sb="2" eb="3">
+      <t>gu zuo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yong gan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xu zhang sheng shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.惆怅的；渴望的</t>
+    <rPh sb="4" eb="5">
+      <t>chou chang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ke wang de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.暂时的</t>
+    <rPh sb="4" eb="5">
+      <t>zan shi de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.尽责的；小心谨慎的</t>
+    <rPh sb="4" eb="5">
+      <t>jin ze de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xiao xin jin shen</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.斜度；倾斜</t>
+    <rPh sb="2" eb="3">
+      <t>xie</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>du</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qing xie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.(使)烦躁，焦躁；n.烦躁，焦躁</t>
+    <rPh sb="3" eb="4">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fan zao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jiao zao</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>fan zao</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>jiao zao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effervescence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heinus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blazing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abhor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ostracize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.冒泡；活泼</t>
+    <rPh sb="2" eb="3">
+      <t>mao pao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>huo po</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.十恶不赦的，可憎的</t>
+    <rPh sb="4" eb="5">
+      <t>shi e b she</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ke zeng</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.炽烧的，闪耀的</t>
+    <rPh sb="4" eb="5">
+      <t>chi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shan yao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.憎恨，厌恶</t>
+    <rPh sb="2" eb="3">
+      <t>zeng hen</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yan wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.(植物的)茎，叶柄 v.阻止，遏制(水流等)</t>
+    <rPh sb="3" eb="4">
+      <t>zhi wu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jing ye</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ye bing</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zu zhi</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>e zhi</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>shui liu</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>deng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.排斥；放逐</t>
+    <rPh sb="2" eb="3">
+      <t>pai chi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fang zhu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impudent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>momentarily</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>astigmatic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drudgery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.完整的，完好无缺的</t>
+    <rPh sb="4" eb="5">
+      <t>wan zheng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wna hao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wu que</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.运用，行使，施加</t>
+    <rPh sb="2" eb="3">
+      <t>yun yong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xing shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi jia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.鲁莽的，无礼的</t>
+    <rPh sb="4" eb="5">
+      <t>lu mang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wu li</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adv.暂时地；片刻，立刻</t>
+    <rPh sb="4" eb="5">
+      <t>zan shi de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>di</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>pian ke</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>li ke</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.沉溺；上瘾</t>
+    <rPh sb="2" eb="3">
+      <t>chen ni</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shang yin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.散光的，乱视的</t>
+    <rPh sb="4" eb="5">
+      <t>san guang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>luan</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.苦工，苦活</t>
+    <rPh sb="2" eb="3">
+      <t>ku gong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ku huo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>veil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pithy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jolting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unremitting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleterious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>particulate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protrude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>illustrative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>potshot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.面纱，遮蔽物； v.以面纱掩盖</t>
+    <rPh sb="2" eb="3">
+      <t>mian sha</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhe bi wu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>mian sha</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>yan gai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.(讲话或文章)简练有力的，言简意赅的</t>
+    <rPh sb="5" eb="6">
+      <t>jiang hua</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wen zhang</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>jian lian you li</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>de</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>yan jian yi gai</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.令人震惊的</t>
+    <rPh sb="4" eb="5">
+      <t>ling ren</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhen jing</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使迷惑，搞混</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>mi huo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gao hun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.归咎于；归于</t>
+    <rPh sb="2" eb="3">
+      <t>gui jiu yu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gui yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不间断的，持续的</t>
+    <rPh sb="4" eb="5">
+      <t>bu jian duan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>chi xu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.有害的，有毒的</t>
+    <rPh sb="4" eb="5">
+      <t>you hai de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>you du</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.微粒的 n.微粒</t>
+    <rPh sb="4" eb="5">
+      <t>wei li</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wei li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.突出，伸出</t>
+    <rPh sb="2" eb="3">
+      <t>tu chu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shen chu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.解说性的，用作说明的</t>
+    <rPh sb="4" eb="5">
+      <t>jie shuo xing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yong zuo</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shuo ming de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.盲目射击；肆意抨击；v.肆意抨击</t>
+    <rPh sb="2" eb="3">
+      <t>mang mu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>she ji</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>si yi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>peng ji</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>si yi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>peng ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.欺骗，哄骗</t>
+    <rPh sb="2" eb="3">
+      <t>qi pian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hong pian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taunt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impeccable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gospel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dispensable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scenic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n./v.嘲笑，讥讽</t>
+    <rPh sb="5" eb="6">
+      <t>hcao xiao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ji feng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.无瑕疵的</t>
+    <rPh sb="4" eb="5">
+      <t>wu xia ci</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.教义，信条</t>
+    <rPh sb="2" eb="3">
+      <t>jiao yi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xin tiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.订正，校订</t>
+    <rPh sb="2" eb="3">
+      <t>ding zheng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jiao ding</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不必要的，可有可无的</t>
+    <rPh sb="4" eb="5">
+      <t>bu bi yao de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ke you</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ke wu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>wu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.风景如画啊的</t>
+    <rPh sb="4" eb="5">
+      <t>feng jing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ru hua a</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit 16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angular</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>precede</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proficiency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deceptive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.生硬的，笨拙的；有角的</t>
+    <rPh sb="4" eb="5">
+      <t>sheng ying</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ben zhuo</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>you jiao</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.在……之前，早于</t>
+    <rPh sb="2" eb="3">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhi qian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.进步；熟练，精通</t>
+    <rPh sb="2" eb="3">
+      <t>jin bu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shu lian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jing tong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.意义，涵义，主旨</t>
+    <rPh sb="2" eb="3">
+      <t>yi yi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>han yi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhu zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.欺骗的，导致误解的</t>
+    <rPh sb="4" eb="5">
+      <t>qi pian de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>dao zhi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wu jie</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.(言辞、行为)简略而草率的</t>
+    <rPh sb="5" eb="6">
+      <t>yan ci</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xing wei</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>jian lue</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>er</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>cao shuai</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indented</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>succinctness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saturnine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>descry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mordant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impostor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indubitable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tribulation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>caricatur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noncommittal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.镶嵌；困扰</t>
+    <rPh sb="2" eb="3">
+      <t>xiang qian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>kun rao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.锯齿状的；高低不平的</t>
+    <rPh sb="4" eb="5">
+      <t>ju chi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhuang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>gao di</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bu ping</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.简明，简洁</t>
+    <rPh sb="2" eb="3">
+      <t>jian ming</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jian jie</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.忧郁的，阴沉的</t>
+    <rPh sb="4" eb="5">
+      <t>you yu de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yin chen</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.看见，察觉</t>
+    <rPh sb="2" eb="3">
+      <t>kan jian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>cha jue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.讥讽的，尖酸的</t>
+    <rPh sb="4" eb="5">
+      <t>ji feng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jian suan de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.冒充者，骗子</t>
+    <rPh sb="2" eb="3">
+      <t>mao chong z</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhe</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>pian zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不容置疑的</t>
+    <rPh sb="4" eb="5">
+      <t>bu rong zhi yi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.苦难，忧患</t>
+    <rPh sb="2" eb="3">
+      <t>ku nan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>you huan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使有权(做某事)</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>you quan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zuo</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>mou shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.讽刺画；滑稽模仿</t>
+    <rPh sb="2" eb="3">
+      <t>feng ci hua</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>hua ji</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>mo fang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.态度暧昧的；不承担义务的</t>
+    <rPh sb="4" eb="5">
+      <t>tai du</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ai mei</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bu cheng dan</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>yi wu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>de</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5762,10 +7642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B310"/>
+  <dimension ref="A1:B416"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A255" zoomScale="108" zoomScaleNormal="108" zoomScalePageLayoutView="108" workbookViewId="0">
-      <selection activeCell="B191" sqref="B191"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A369" zoomScale="108" zoomScaleNormal="108" zoomScalePageLayoutView="108" workbookViewId="0">
+      <selection activeCell="B417" sqref="B417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8212,8 +10092,838 @@
         <v>605</v>
       </c>
     </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>607</v>
+      </c>
+      <c r="B311" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>608</v>
+      </c>
+      <c r="B312" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>609</v>
+      </c>
+      <c r="B313" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>610</v>
+      </c>
+      <c r="B314" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>611</v>
+      </c>
+      <c r="B315" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>612</v>
+      </c>
+      <c r="B316" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>613</v>
+      </c>
+      <c r="B317" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>621</v>
+      </c>
+      <c r="B318" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>622</v>
+      </c>
+      <c r="B319" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>623</v>
+      </c>
+      <c r="B320" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>624</v>
+      </c>
+      <c r="B321" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>625</v>
+      </c>
+      <c r="B322" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>626</v>
+      </c>
+      <c r="B323" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>633</v>
+      </c>
+      <c r="B324" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>634</v>
+      </c>
+      <c r="B325" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>635</v>
+      </c>
+      <c r="B326" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>636</v>
+      </c>
+      <c r="B327" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>637</v>
+      </c>
+      <c r="B328" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>638</v>
+      </c>
+      <c r="B329" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>639</v>
+      </c>
+      <c r="B330" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A332" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B332" s="1"/>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>648</v>
+      </c>
+      <c r="B333" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>649</v>
+      </c>
+      <c r="B334" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>650</v>
+      </c>
+      <c r="B335" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>651</v>
+      </c>
+      <c r="B336" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>652</v>
+      </c>
+      <c r="B337" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>653</v>
+      </c>
+      <c r="B338" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>654</v>
+      </c>
+      <c r="B339" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>655</v>
+      </c>
+      <c r="B340" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>656</v>
+      </c>
+      <c r="B341" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>657</v>
+      </c>
+      <c r="B342" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>658</v>
+      </c>
+      <c r="B343" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>670</v>
+      </c>
+      <c r="B344" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>671</v>
+      </c>
+      <c r="B345" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>672</v>
+      </c>
+      <c r="B346" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>673</v>
+      </c>
+      <c r="B347" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>674</v>
+      </c>
+      <c r="B348" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>675</v>
+      </c>
+      <c r="B349" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>676</v>
+      </c>
+      <c r="B350" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>677</v>
+      </c>
+      <c r="B351" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>678</v>
+      </c>
+      <c r="B352" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>679</v>
+      </c>
+      <c r="B353" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>690</v>
+      </c>
+      <c r="B354" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>691</v>
+      </c>
+      <c r="B355" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>692</v>
+      </c>
+      <c r="B356" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>693</v>
+      </c>
+      <c r="B357" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>694</v>
+      </c>
+      <c r="B358" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>695</v>
+      </c>
+      <c r="B359" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>696</v>
+      </c>
+      <c r="B360" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>697</v>
+      </c>
+      <c r="B361" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>698</v>
+      </c>
+      <c r="B362" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>699</v>
+      </c>
+      <c r="B363" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>700</v>
+      </c>
+      <c r="B364" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>701</v>
+      </c>
+      <c r="B365" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>714</v>
+      </c>
+      <c r="B366" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>715</v>
+      </c>
+      <c r="B367" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>716</v>
+      </c>
+      <c r="B368" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>717</v>
+      </c>
+      <c r="B369" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>718</v>
+      </c>
+      <c r="B370" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>719</v>
+      </c>
+      <c r="B371" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>726</v>
+      </c>
+      <c r="B372" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>727</v>
+      </c>
+      <c r="B373" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>728</v>
+      </c>
+      <c r="B374" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>729</v>
+      </c>
+      <c r="B375" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>730</v>
+      </c>
+      <c r="B376" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>731</v>
+      </c>
+      <c r="B377" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>732</v>
+      </c>
+      <c r="B378" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>740</v>
+      </c>
+      <c r="B379" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>741</v>
+      </c>
+      <c r="B380" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>742</v>
+      </c>
+      <c r="B381" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>743</v>
+      </c>
+      <c r="B382" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>744</v>
+      </c>
+      <c r="B383" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>745</v>
+      </c>
+      <c r="B384" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>746</v>
+      </c>
+      <c r="B385" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>747</v>
+      </c>
+      <c r="B386" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>748</v>
+      </c>
+      <c r="B387" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>749</v>
+      </c>
+      <c r="B388" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>750</v>
+      </c>
+      <c r="B389" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>751</v>
+      </c>
+      <c r="B390" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>764</v>
+      </c>
+      <c r="B391" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>765</v>
+      </c>
+      <c r="B392" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>766</v>
+      </c>
+      <c r="B393" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>767</v>
+      </c>
+      <c r="B394" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>768</v>
+      </c>
+      <c r="B395" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>769</v>
+      </c>
+      <c r="B396" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A398" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="B398" s="1"/>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>777</v>
+      </c>
+      <c r="B399" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>778</v>
+      </c>
+      <c r="B400" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>779</v>
+      </c>
+      <c r="B401" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>780</v>
+      </c>
+      <c r="B402" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>781</v>
+      </c>
+      <c r="B403" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>782</v>
+      </c>
+      <c r="B404" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
+        <v>789</v>
+      </c>
+      <c r="B405" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
+        <v>790</v>
+      </c>
+      <c r="B406" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
+        <v>791</v>
+      </c>
+      <c r="B407" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>792</v>
+      </c>
+      <c r="B408" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
+        <v>793</v>
+      </c>
+      <c r="B409" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
+        <v>794</v>
+      </c>
+      <c r="B410" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
+        <v>795</v>
+      </c>
+      <c r="B411" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
+        <v>796</v>
+      </c>
+      <c r="B412" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
+        <v>797</v>
+      </c>
+      <c r="B413" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>798</v>
+      </c>
+      <c r="B414" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>799</v>
+      </c>
+      <c r="B415" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>800</v>
+      </c>
+      <c r="B416" t="s">
+        <v>812</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="A332:B332"/>
+    <mergeCell ref="A398:B398"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="A108:B108"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="1034">
   <si>
     <t>unit 22</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7146,10 +7146,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>caricatur</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>noncommittal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7315,6 +7311,2001 @@
     </rPh>
     <rPh sb="15" eb="16">
       <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>caricature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>respite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invigorate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endorse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>probity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>terrestrial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chromosome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regressive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fastidious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impetuous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.冲动的，鲁莽的</t>
+    <rPh sb="4" eb="5">
+      <t>chong dong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>lu mang de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.难取悦的，挑剔的</t>
+    <rPh sb="4" eb="5">
+      <t>nan qu yue</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>tiao ti de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.退步的，退化的</t>
+    <rPh sb="4" eb="5">
+      <t>tui bu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tui hua</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.阻塞；n.障碍</t>
+    <rPh sb="2" eb="3">
+      <t>zu se</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhang ai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.情节；阴谋；v.密谋，策划</t>
+    <rPh sb="2" eb="3">
+      <t>qing jie</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yin mou</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>mi mou</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ce hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.染色体</t>
+    <rPh sb="2" eb="3">
+      <t>ran se ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.地球的；陆地的</t>
+    <rPh sb="4" eb="5">
+      <t>di qiu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>lu di de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.刚直，正直</t>
+    <rPh sb="2" eb="3">
+      <t>gang zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zheng zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.赞同；背书</t>
+    <rPh sb="2" eb="3">
+      <t>zan tong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bei shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.鼓舞，使精力充沛</t>
+    <rPh sb="2" eb="3">
+      <t>gu wu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jing li chong pei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.休息；暂缓</t>
+    <rPh sb="2" eb="3">
+      <t>xiu xi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zan huan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commodious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>revere</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grumble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sterile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expeditiously</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clutter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auspices</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.支持，鼓舞</t>
+    <rPh sb="2" eb="3">
+      <t>zhi chi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gu wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.弄乱；n.凌乱</t>
+    <rPh sb="2" eb="3">
+      <t>nong luan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ling luan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adv.迅速地，敏捷地</t>
+    <rPh sb="4" eb="5">
+      <t>xun su</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>di</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>min jie</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.贫瘠且无植被的；无细菌的</t>
+    <rPh sb="4" eb="5">
+      <t>pin ji</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qie</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhi bei de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>wu xi jun de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.嘟囔，抱怨</t>
+    <rPh sb="2" eb="3">
+      <t>du nang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bao yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cosmopolitan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.世界性的，全球的；n.世界主义者，四海为家的人</t>
+    <rPh sb="4" eb="5">
+      <t>shi jie</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xing de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>quan qiu de</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>shi jie</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zhu yi zhe</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>si hai wei jia</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>de</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.尊敬</t>
+    <rPh sb="2" eb="3">
+      <t>zun jing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.寓言</t>
+    <rPh sb="2" eb="3">
+      <t>yu yan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.宽敞的</t>
+    <rPh sb="4" eb="5">
+      <t>kuan cahng de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>infirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scarlet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unstinting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perspective</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abysmal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postulate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nonviable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coordinate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calumny</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.诽谤，中伤</t>
+    <rPh sb="2" eb="3">
+      <t>fei bang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhong shang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使各部分协调；adj.同等的</t>
+    <rPh sb="6" eb="7">
+      <t>xie tiao</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>tong deng de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.无法生存的，不能成活的</t>
+    <rPh sb="4" eb="5">
+      <t>wu fa</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>sheng cun de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bu neng</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>cheng huo</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.要求；假定</t>
+    <rPh sb="2" eb="3">
+      <t>yao qiu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jia ding</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.极深的；糟透的</t>
+    <rPh sb="4" eb="5">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shen</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zao tou de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.思考方法；观点，看法</t>
+    <rPh sb="2" eb="3">
+      <t>si kao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fang fa</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>guan dian</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>kan fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.慷慨的，大方的</t>
+    <rPh sb="4" eb="5">
+      <t>kang kai de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>da fang de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.猩红的，鲜红的</t>
+    <rPh sb="4" eb="5">
+      <t>xing hong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xian hong de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.虚弱的</t>
+    <rPh sb="4" eb="5">
+      <t>xu ruo de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huddle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>placebo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>servile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accommodate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thatch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cliché</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.陈词滥调</t>
+    <rPh sb="2" eb="3">
+      <t>chen ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.以茅草覆盖；n.茅草屋顶；茅草</t>
+    <rPh sb="2" eb="3">
+      <t>yi mao cao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fu gai</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>mao cao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>wu ding</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>mao cao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.于……一致；提供住宿；顺应，使适应</t>
+    <rPh sb="2" eb="3">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yi zhi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ti gong</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhu su</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shun ying</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>shi ying</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.奴性的，百依百顺的</t>
+    <rPh sb="4" eb="5">
+      <t>nu xing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bai yi bai shun</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.安慰剂；起安慰剂作用的东西</t>
+    <rPh sb="2" eb="3">
+      <t>an wei ji</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>an wei ji</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zuo yong de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>dong xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.咽下，吞下</t>
+    <rPh sb="2" eb="3">
+      <t>yan xia</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tun xia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.挤成一团；n.一堆人</t>
+    <rPh sb="2" eb="3">
+      <t>ji cheng yi tuan</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yi dui ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>predispose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>copious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monotony</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exhaustiveness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passively</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.公开的，非秘密的</t>
+    <rPh sb="4" eb="5">
+      <t>gong kai de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fei mi mi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adv.被动地，顺从地</t>
+    <rPh sb="4" eb="5">
+      <t>bei dong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>di</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shun cong</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.全面，详尽，彻底</t>
+    <rPh sb="2" eb="3">
+      <t>quan mian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xiang jin</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>che di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.单调，千篇一律</t>
+    <rPh sb="2" eb="3">
+      <t>dan diao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qian pian yi lü</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.丰富的，多彩的</t>
+    <rPh sb="4" eb="5">
+      <t>feng fu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>duo cai</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使预先有倾向；(使)易受感染</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yu xian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>you</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qing xiang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>yi sho</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>gan ran</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faddish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>premature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>causal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perennial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ebb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.退潮；衰退</t>
+    <rPh sb="2" eb="3">
+      <t>tui chao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shuai tui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.终年的，全年的；永久的，持久的</t>
+    <rPh sb="4" eb="5">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>nian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>quan nian de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>yong jiu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>chi jiu de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.原因的，因果关系的</t>
+    <rPh sb="4" eb="5">
+      <t>yuan yin</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yin guo</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>guan xi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.早熟的，过早的</t>
+    <rPh sb="4" eb="5">
+      <t>zao shu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>guo zao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.流行一时的，时尚的</t>
+    <rPh sb="4" eb="5">
+      <t>liu xing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yi shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shi shang</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boastfulness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>infrared</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deprecatoty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quantum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preeminent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.出类拔萃的，杰出的</t>
+    <rPh sb="4" eb="5">
+      <t>chu lei ba cui</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jie chu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.卑鄙的</t>
+    <rPh sb="4" eb="5">
+      <t>bei bi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.量子；定量</t>
+    <rPh sb="2" eb="3">
+      <t>liang zi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ding liang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不赞成的，反对的</t>
+    <rPh sb="4" eb="5">
+      <t>bu zan cheng</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>fan dui de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.红外线的</t>
+    <rPh sb="4" eb="5">
+      <t>hong wai xian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.自吹自擂；浮夸</t>
+    <rPh sb="2" eb="3">
+      <t>zi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chui</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>lei</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fu kua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inimitable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>concomitant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tined</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalitarian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gush</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compendium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relieve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ambidextrous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.无法效仿的</t>
+    <rPh sb="4" eb="5">
+      <t>wu fa</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xiao fang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.伴随的</t>
+    <rPh sb="4" eb="5">
+      <t>ban sui de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.尖端的，叉尖的</t>
+    <rPh sb="4" eb="5">
+      <t>jian duan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>cha</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jian</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.极权主义的</t>
+    <rPh sb="4" eb="5">
+      <t>ji quan zhu yi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.涌出，迸出，滔滔不绝地说；n.涌出，迸出</t>
+    <rPh sb="2" eb="3">
+      <t>yong chu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>beng chu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tao tao bu jue</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>di</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shuo</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>yong chu</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>beng chu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.简要，概略</t>
+    <rPh sb="2" eb="3">
+      <t>jian yao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gai lue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.减轻，解除</t>
+    <rPh sb="2" eb="3">
+      <t>jian qing</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jie chu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.十分灵巧的</t>
+    <rPh sb="4" eb="5">
+      <t>shi fen</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ling qiao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aberration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shunt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instructive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unencumbered</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>edifice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>innermost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commiserate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>embelishment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spruce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crawl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>genetic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>topographical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.越轨</t>
+    <rPh sb="2" eb="3">
+      <t>yue gui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使(火车)转到另一轨道；改变(某物的)方向</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>huo c</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhuan dao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ling yi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>gui dao</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>gai bian</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>mou wu</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>de</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>fang xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.传授知识的，教育的；有益的</t>
+    <rPh sb="4" eb="5">
+      <t>chuan shou</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhi shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jiao yu de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>you yi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.无阻碍的</t>
+    <rPh sb="4" eb="5">
+      <t>wu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zu ai</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.宏伟的建筑</t>
+    <rPh sb="2" eb="3">
+      <t>hong wei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jian zhu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.最里面的</t>
+    <rPh sb="4" eb="5">
+      <t>zui</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>li mian de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.祸根</t>
+    <rPh sb="2" eb="3">
+      <t>huo gen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.同情，怜悯</t>
+    <rPh sb="2" eb="3">
+      <t>tong qing</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>lian min</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.装饰；装饰品</t>
+    <rPh sb="2" eb="3">
+      <t>zhuang shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhuang shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>pin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.云衫，adj.整洁的</t>
+    <rPh sb="2" eb="3">
+      <t>yun shan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shan</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zheng jie</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.爬，爬行</t>
+    <rPh sb="2" eb="3">
+      <t>pa</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pa xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.遗传的；起源的</t>
+    <rPh sb="4" eb="5">
+      <t>yi chuan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qi yuan de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.地形学的</t>
+    <rPh sb="4" eb="5">
+      <t>di xing xue</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dilate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grief</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>antiquarianism</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contravene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discreet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>esoteric</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reproach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insurmountable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使膨胀，使扩大</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>peng zhang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>kuo da</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.忧伤，悲伤</t>
+    <rPh sb="2" eb="3">
+      <t>you shagn</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bei shang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.古物研究，好古癖</t>
+    <rPh sb="2" eb="3">
+      <t>gu wu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yan jiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.违背(法规、习俗等)</t>
+    <rPh sb="2" eb="3">
+      <t>wei bei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fa gui</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xi su</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.小心的，言行谨慎的</t>
+    <rPh sb="4" eb="5">
+      <t>xiao xin de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yan xing</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jin shen</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.秘传的；机密的，隐秘的</t>
+    <rPh sb="4" eb="5">
+      <t>mi chuan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ji mi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>yin mi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.谴责，责骂</t>
+    <rPh sb="2" eb="3">
+      <t>qian ze</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ze ma</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不能克服的，不能超越的</t>
+    <rPh sb="4" eb="5">
+      <t>bu neng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ke fu de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bu neng</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>chao yue</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>patriarchal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>burning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rowdy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hitherto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sedulous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.锋利的；敏锐的，灵敏的；热心的</t>
+    <rPh sb="4" eb="5">
+      <t>feng li</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>min rui</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ling min</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>re xin de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.家长的，族长的；父权制的</t>
+    <rPh sb="4" eb="5">
+      <t>jia zhang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zu zhang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>fu quan zhi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.燃烧弹；强烈的</t>
+    <rPh sb="4" eb="5">
+      <t>ran shao d</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qinag lie</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.吵闹的；粗暴的</t>
+    <rPh sb="4" eb="5">
+      <t>chao nao de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>cu bao de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.驯服的，听话的</t>
+    <rPh sb="4" eb="5">
+      <t>xun fu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ting hua</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adv.到目前为止</t>
+    <rPh sb="4" eb="5">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mu qian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wei zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.聚精会神的；勉强的</t>
+    <rPh sb="4" eb="5">
+      <t>ju jing hui shen</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>mian qiang</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decorum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unenlightened</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>efficacy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>floral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arbiter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unheralded</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.礼节，礼貌</t>
+    <rPh sb="2" eb="3">
+      <t>li jie</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>li mao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.愚昧无知的，不文明的</t>
+    <rPh sb="4" eb="5">
+      <t>yu mei wu zhi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bu wen ming de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.功效，有效性</t>
+    <rPh sb="2" eb="3">
+      <t>gong xiao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>you xiao xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.花的，植物的</t>
+    <rPh sb="4" eb="5">
+      <t>hua</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhi wu de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.权威人士，泰斗</t>
+    <rPh sb="2" eb="3">
+      <t>quan wei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ren shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>tai dou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.未预先通知的，未预先警告过的</t>
+    <rPh sb="4" eb="5">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yu xian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>tong zhi de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>yu xian</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>jng gao guo</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>renegade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>irrepressible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>continental</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>immense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>presumptuous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.松果；圆锥体</t>
+    <rPh sb="2" eb="3">
+      <t>song guo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yuan zhui ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.叛教者，叛徒</t>
+    <rPh sb="2" eb="3">
+      <t>pan jiao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhe</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>pan tu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.抑制不住的，压制不住的</t>
+    <rPh sb="4" eb="5">
+      <t>yi zhi bu zhu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ya zhi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>bu zhu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.大陆的，大陆性的</t>
+    <rPh sb="4" eb="5">
+      <t>da lu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>da lu xing</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.极大的；无限的</t>
+    <rPh sb="4" eb="5">
+      <t>ji da</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wu xian</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.放肆的，过分的</t>
+    <rPh sb="4" eb="5">
+      <t>fang si</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>guo fen de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unimpeachable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fervid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>steadfast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prostrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>graze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seclude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appropriate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>antidote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plunge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.无可指责的，无可怀疑的</t>
+    <rPh sb="4" eb="5">
+      <t>wu ke</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhi ze</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wu ke</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>huai yi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.炙热的，热情的</t>
+    <rPh sb="4" eb="5">
+      <t>zhi re</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>d</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>re qing de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.忠实的，不动的，不变的</t>
+    <rPh sb="4" eb="5">
+      <t>zhong shi de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bu dogn de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>dong</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>bu bian de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.俯卧的；沮丧的；v.使下跪鞠躬，使拜服</t>
+    <rPh sb="4" eb="5">
+      <t>fu wo de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ju sang de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>xia gui</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ju gong</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>bai fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.放牧,(使动物)吃草</t>
+    <rPh sb="2" eb="3">
+      <t>fang mu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>dong wu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>chi cao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使隔离，使孤立</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ge li</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>gu li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.拨款；盗用</t>
+    <rPh sb="2" eb="3">
+      <t>bo kuan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dao yong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.解药</t>
+    <rPh sb="2" eb="3">
+      <t>jie yao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.跳入，陷入；俯冲</t>
+    <rPh sb="2" eb="3">
+      <t>tiao ru</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xian ru</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fu chong</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7642,10 +9633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B416"/>
+  <dimension ref="A1:B528"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A369" zoomScale="108" zoomScaleNormal="108" zoomScalePageLayoutView="108" workbookViewId="0">
-      <selection activeCell="B417" sqref="B417"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A511" zoomScale="136" zoomScaleNormal="108" zoomScalePageLayoutView="108" workbookViewId="0">
+      <selection activeCell="A517" sqref="A517"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10829,7 +12820,7 @@
         <v>789</v>
       </c>
       <c r="B405" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
@@ -10837,7 +12828,7 @@
         <v>790</v>
       </c>
       <c r="B406" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
@@ -10845,7 +12836,7 @@
         <v>791</v>
       </c>
       <c r="B407" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
@@ -10853,7 +12844,7 @@
         <v>792</v>
       </c>
       <c r="B408" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
@@ -10861,7 +12852,7 @@
         <v>793</v>
       </c>
       <c r="B409" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
@@ -10869,7 +12860,7 @@
         <v>794</v>
       </c>
       <c r="B410" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
@@ -10877,7 +12868,7 @@
         <v>795</v>
       </c>
       <c r="B411" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
@@ -10885,7 +12876,7 @@
         <v>796</v>
       </c>
       <c r="B412" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
@@ -10893,7 +12884,7 @@
         <v>797</v>
       </c>
       <c r="B413" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
@@ -10901,27 +12892,914 @@
         <v>798</v>
       </c>
       <c r="B414" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>799</v>
+        <v>812</v>
       </c>
       <c r="B415" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B416" t="s">
-        <v>812</v>
+        <v>811</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>813</v>
+      </c>
+      <c r="B417" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>814</v>
+      </c>
+      <c r="B418" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>815</v>
+      </c>
+      <c r="B419" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>816</v>
+      </c>
+      <c r="B420" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>817</v>
+      </c>
+      <c r="B421" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>818</v>
+      </c>
+      <c r="B422" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>819</v>
+      </c>
+      <c r="B423" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
+        <v>820</v>
+      </c>
+      <c r="B424" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A425" t="s">
+        <v>821</v>
+      </c>
+      <c r="B425" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
+        <v>822</v>
+      </c>
+      <c r="B426" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A427" t="s">
+        <v>823</v>
+      </c>
+      <c r="B427" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A428" t="s">
+        <v>835</v>
+      </c>
+      <c r="B428" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A429" t="s">
+        <v>836</v>
+      </c>
+      <c r="B429" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A430" t="s">
+        <v>837</v>
+      </c>
+      <c r="B430" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A431" t="s">
+        <v>848</v>
+      </c>
+      <c r="B431" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A432" t="s">
+        <v>838</v>
+      </c>
+      <c r="B432" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A433" t="s">
+        <v>839</v>
+      </c>
+      <c r="B433" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A434" t="s">
+        <v>840</v>
+      </c>
+      <c r="B434" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A435" t="s">
+        <v>841</v>
+      </c>
+      <c r="B435" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A436" t="s">
+        <v>842</v>
+      </c>
+      <c r="B436" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A437" t="s">
+        <v>853</v>
+      </c>
+      <c r="B437" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A438" t="s">
+        <v>854</v>
+      </c>
+      <c r="B438" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A439" t="s">
+        <v>855</v>
+      </c>
+      <c r="B439" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A440" t="s">
+        <v>856</v>
+      </c>
+      <c r="B440" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A441" t="s">
+        <v>857</v>
+      </c>
+      <c r="B441" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A442" t="s">
+        <v>858</v>
+      </c>
+      <c r="B442" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A443" t="s">
+        <v>859</v>
+      </c>
+      <c r="B443" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A444" t="s">
+        <v>860</v>
+      </c>
+      <c r="B444" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A445" t="s">
+        <v>861</v>
+      </c>
+      <c r="B445" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A446" t="s">
+        <v>871</v>
+      </c>
+      <c r="B446" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A447" t="s">
+        <v>872</v>
+      </c>
+      <c r="B447" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A448" t="s">
+        <v>873</v>
+      </c>
+      <c r="B448" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A449" t="s">
+        <v>874</v>
+      </c>
+      <c r="B449" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A450" t="s">
+        <v>875</v>
+      </c>
+      <c r="B450" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A451" t="s">
+        <v>876</v>
+      </c>
+      <c r="B451" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A452" t="s">
+        <v>877</v>
+      </c>
+      <c r="B452" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A453" t="s">
+        <v>885</v>
+      </c>
+      <c r="B453" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A454" t="s">
+        <v>886</v>
+      </c>
+      <c r="B454" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A455" t="s">
+        <v>887</v>
+      </c>
+      <c r="B455" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A456" t="s">
+        <v>888</v>
+      </c>
+      <c r="B456" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A457" t="s">
+        <v>889</v>
+      </c>
+      <c r="B457" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A458" t="s">
+        <v>890</v>
+      </c>
+      <c r="B458" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A459" t="s">
+        <v>897</v>
+      </c>
+      <c r="B459" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A460" t="s">
+        <v>898</v>
+      </c>
+      <c r="B460" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A461" t="s">
+        <v>899</v>
+      </c>
+      <c r="B461" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A462" t="s">
+        <v>900</v>
+      </c>
+      <c r="B462" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A463" t="s">
+        <v>901</v>
+      </c>
+      <c r="B463" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A464" t="s">
+        <v>907</v>
+      </c>
+      <c r="B464" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A465" t="s">
+        <v>908</v>
+      </c>
+      <c r="B465" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A466" t="s">
+        <v>909</v>
+      </c>
+      <c r="B466" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A467" t="s">
+        <v>910</v>
+      </c>
+      <c r="B467" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A468" t="s">
+        <v>911</v>
+      </c>
+      <c r="B468" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A469" t="s">
+        <v>912</v>
+      </c>
+      <c r="B469" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A470" t="s">
+        <v>919</v>
+      </c>
+      <c r="B470" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A471" t="s">
+        <v>920</v>
+      </c>
+      <c r="B471" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A472" t="s">
+        <v>921</v>
+      </c>
+      <c r="B472" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A473" t="s">
+        <v>922</v>
+      </c>
+      <c r="B473" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A474" t="s">
+        <v>923</v>
+      </c>
+      <c r="B474" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A475" t="s">
+        <v>924</v>
+      </c>
+      <c r="B475" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A476" t="s">
+        <v>925</v>
+      </c>
+      <c r="B476" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A477" t="s">
+        <v>926</v>
+      </c>
+      <c r="B477" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A479" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="B479" s="1"/>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A480" t="s">
+        <v>936</v>
+      </c>
+      <c r="B480" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A481" t="s">
+        <v>937</v>
+      </c>
+      <c r="B481" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A482" t="s">
+        <v>938</v>
+      </c>
+      <c r="B482" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A483" t="s">
+        <v>939</v>
+      </c>
+      <c r="B483" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A484" t="s">
+        <v>940</v>
+      </c>
+      <c r="B484" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A485" t="s">
+        <v>941</v>
+      </c>
+      <c r="B485" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A486" t="s">
+        <v>942</v>
+      </c>
+      <c r="B486" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A487" t="s">
+        <v>943</v>
+      </c>
+      <c r="B487" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A488" t="s">
+        <v>944</v>
+      </c>
+      <c r="B488" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A489" t="s">
+        <v>945</v>
+      </c>
+      <c r="B489" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A490" t="s">
+        <v>946</v>
+      </c>
+      <c r="B490" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A491" t="s">
+        <v>947</v>
+      </c>
+      <c r="B491" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A492" t="s">
+        <v>948</v>
+      </c>
+      <c r="B492" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A493" t="s">
+        <v>962</v>
+      </c>
+      <c r="B493" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A494" t="s">
+        <v>963</v>
+      </c>
+      <c r="B494" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A495" t="s">
+        <v>964</v>
+      </c>
+      <c r="B495" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A496" t="s">
+        <v>965</v>
+      </c>
+      <c r="B496" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A497" t="s">
+        <v>966</v>
+      </c>
+      <c r="B497" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A498" t="s">
+        <v>967</v>
+      </c>
+      <c r="B498" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A499" t="s">
+        <v>968</v>
+      </c>
+      <c r="B499" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A500" t="s">
+        <v>969</v>
+      </c>
+      <c r="B500" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A501" t="s">
+        <v>978</v>
+      </c>
+      <c r="B501" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A502" t="s">
+        <v>979</v>
+      </c>
+      <c r="B502" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A503" t="s">
+        <v>980</v>
+      </c>
+      <c r="B503" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A504" t="s">
+        <v>981</v>
+      </c>
+      <c r="B504" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A505" t="s">
+        <v>982</v>
+      </c>
+      <c r="B505" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A506" t="s">
+        <v>983</v>
+      </c>
+      <c r="B506" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A507" t="s">
+        <v>984</v>
+      </c>
+      <c r="B507" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A508" t="s">
+        <v>992</v>
+      </c>
+      <c r="B508" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A509" t="s">
+        <v>993</v>
+      </c>
+      <c r="B509" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A510" t="s">
+        <v>994</v>
+      </c>
+      <c r="B510" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A511" t="s">
+        <v>995</v>
+      </c>
+      <c r="B511" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A512" t="s">
+        <v>996</v>
+      </c>
+      <c r="B512" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A513" t="s">
+        <v>997</v>
+      </c>
+      <c r="B513" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A514" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B514" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A515" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B515" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A516" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B516" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A517" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B517" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A518" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B518" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A519" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B519" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A520" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B520" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A521" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B521" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A522" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B522" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A523" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B523" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A524" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B524" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A525" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B525" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A526" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B526" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A527" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B527" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A528" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B528" t="s">
+        <v>1033</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A479:B479"/>
     <mergeCell ref="A332:B332"/>
     <mergeCell ref="A398:B398"/>
     <mergeCell ref="A1:B1"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14160" tabRatio="500"/>
+    <workbookView xWindow="11100" yWindow="740" windowWidth="25600" windowHeight="14160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="1034">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="1287">
   <si>
     <t>unit 22</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -9306,6 +9306,2350 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>fu chong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>raciness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>retribution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>natty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>irreproachable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>renown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psyche</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ignoble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>painstakingly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>precarious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indenture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overtire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.生动活泼</t>
+    <rPh sb="2" eb="3">
+      <t>sheng dong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>huo po</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.报应，惩罚</t>
+    <rPh sb="2" eb="3">
+      <t>bao ying</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>cheng fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.整洁的；敏捷的；灵巧的</t>
+    <rPh sb="4" eb="5">
+      <t>zheng jie</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>min jie</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ling qiao</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.无可指责的</t>
+    <rPh sb="4" eb="5">
+      <t>wu ke</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhi ze</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.名望，声誉</t>
+    <rPh sb="2" eb="3">
+      <t>ming wang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>sheng yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.心智，精神</t>
+    <rPh sb="2" eb="3">
+      <t>xin zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jing shen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.卑鄙的</t>
+    <rPh sb="4" eb="5">
+      <t>bei bi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adv.辛苦地；细心地；专注地</t>
+    <rPh sb="4" eb="5">
+      <t>xin ku</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>di</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xi xin</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>di</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zhuan zhu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.根据不足的，未证实的；不稳固的；危险的</t>
+    <rPh sb="4" eb="5">
+      <t>gen ju</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bu zu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zheng shi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>bu wen gu</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>de</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>wei xian de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.充满；到处都是；(雨、水等)暴降，倾注</t>
+    <rPh sb="2" eb="3">
+      <t>chong man</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dao chu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>dou shi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shui</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>bao jiang</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>qing zhu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.契约，合同；v.以契约约束</t>
+    <rPh sb="2" eb="3">
+      <t>qi yue</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>he tong</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>qi yue</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>yue shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.漫游，漫步</t>
+    <rPh sb="2" eb="3">
+      <t>man you</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>man bu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使过度疲劳</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>guo du</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>pi lao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dietary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trendsetter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unalterable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>propitiate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.饮食的</t>
+    <rPh sb="4" eb="5">
+      <t>yin shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.引领新潮的人</t>
+    <rPh sb="2" eb="3">
+      <t>yin ling</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xin chao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不能改变的</t>
+    <rPh sb="4" eb="5">
+      <t>bu neng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gai bian de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.讨好；抚慰</t>
+    <rPh sb="2" eb="3">
+      <t>tao hao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fu wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>superstructure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fluorescent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recalcitrant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>succumb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sunlit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consecutive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.连续的</t>
+    <rPh sb="4" eb="5">
+      <t>lian xu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.平局 ；v.系，拴，绑</t>
+    <rPh sb="2" eb="3">
+      <t>ping ju</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shuan</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>bang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.阳光照射的</t>
+    <rPh sb="4" eb="5">
+      <t>yang guang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhao she</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.屈从；因……死亡</t>
+    <rPh sb="2" eb="3">
+      <t>qu cong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yin</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>si wang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.顽抗的</t>
+    <rPh sb="4" eb="5">
+      <t>wan kang de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.荧光的，发亮的</t>
+    <rPh sb="4" eb="5">
+      <t>ying guang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fa liang de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.上层建筑，上层构造</t>
+    <rPh sb="2" eb="3">
+      <t>shang ceng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jian zhu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shang ceng</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>gou zao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit 14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reparation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>circumscribe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impediment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indolent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slanderous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.赔偿，补偿</t>
+    <rPh sb="2" eb="3">
+      <t>pei chang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bu chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.划界线；限制</t>
+    <rPh sb="2" eb="3">
+      <t>hua jie xian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xian zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.妨碍，阻碍物</t>
+    <rPh sb="2" eb="3">
+      <t>fang ai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zu ai wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.懒惰的</t>
+    <rPh sb="4" eb="5">
+      <t>lan duo de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.诽谤的</t>
+    <rPh sb="4" eb="5">
+      <t>fei bang de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>morbid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>veracious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recourse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>salubrious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dampen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.强迫</t>
+    <rPh sb="2" eb="3">
+      <t>qiang po</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.病态的，不健康的</t>
+    <rPh sb="4" eb="5">
+      <t>bing tai de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bu jian kan a g</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jian kang de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.诚实的，说真话的</t>
+    <rPh sb="4" eb="5">
+      <t>cheng shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shuo zhen hua</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.求助，依靠</t>
+    <rPh sb="2" eb="3">
+      <t>qiu zhu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yi kao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使平衡；n.泰然自若</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ping heng</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tai ran zi ruo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.有益健康的</t>
+    <rPh sb="4" eb="5">
+      <t>you yi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jian kang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.(使)潮湿；使沮丧，泼凉水</t>
+    <rPh sb="3" eb="4">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chao shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ju sang</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>po liang hsui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>devious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impulse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>well-intentioned</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eclectic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forte</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preempt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uneventful</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>counterbalance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indefatigable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overrule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sloping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>archive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>irradicable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不坦诚的；弯曲的；迂回的</t>
+    <rPh sb="4" eb="5">
+      <t>bu tan cheng</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>wan qu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>yu hui</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.动力，刺激</t>
+    <rPh sb="2" eb="3">
+      <t>dong li</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ci ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.出于善意的</t>
+    <rPh sb="4" eb="5">
+      <t>chu yu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shan hi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.折衷的；兼容并蓄的</t>
+    <rPh sb="4" eb="5">
+      <t>zhe zhong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jian rong bing xu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.长处，特长；adj.(音乐)强音的</t>
+    <rPh sb="2" eb="3">
+      <t>chang chu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>te chang</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>yin yue</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>qiang yin</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.羊群；鸟群</t>
+    <rPh sb="2" eb="3">
+      <t>yang qun</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>niao qun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.以优先权获得；取代</t>
+    <rPh sb="2" eb="3">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>you xian quan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>huo de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>qu dai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.平凡的；平安无事的</t>
+    <rPh sb="4" eb="5">
+      <t>ping fan de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ping an wu shi de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.起平衡作用</t>
+    <rPh sb="2" eb="3">
+      <t>qi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ping heng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zuo yong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.厌恶，憎恨</t>
+    <rPh sb="2" eb="3">
+      <t>yan wu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zeng hen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不知疲倦的</t>
+    <rPh sb="4" eb="5">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>pi juan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.驳回，否决</t>
+    <rPh sb="2" eb="3">
+      <t>bo hui</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fou jue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.倾斜的，有坡度的</t>
+    <rPh sb="4" eb="5">
+      <t>qing xie</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>you</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>po du</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.档案室</t>
+    <rPh sb="2" eb="3">
+      <t>dang an</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.无法根除的，根深蒂固的</t>
+    <rPh sb="4" eb="5">
+      <t>wu fa</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fa</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gen chu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gen shen di gu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>concoction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>omnipotent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>countenance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protract</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adulatory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sanctum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flagging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insinuate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unobtrusive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>momentous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reprehensible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>potted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>provident</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.(古怪或少见的)混合(物)</t>
+    <rPh sb="3" eb="4">
+      <t>gu guai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shao jian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>hun he</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.全能的，万能的</t>
+    <rPh sb="4" eb="5">
+      <t>quan neng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wan neng</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.支持，赞成；n.表情</t>
+    <rPh sb="2" eb="3">
+      <t>zhi chi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zan cheng</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>biao qing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.绕道，迂回 ；n.弯路；绕行之路</t>
+    <rPh sb="2" eb="3">
+      <t>rao dao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yu hui</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>wan lu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>rao xing</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>zhi lu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.(文艺作品等的)主题，主旨</t>
+    <rPh sb="3" eb="4">
+      <t>wen yi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zuo pin</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhu ti</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zhu zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.延长，拖长</t>
+    <rPh sb="2" eb="3">
+      <t>yan chang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tuo chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.奉承的</t>
+    <rPh sb="4" eb="5">
+      <t>feng cheng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.(寺庙或教堂)圣所</t>
+    <rPh sb="3" eb="4">
+      <t>si miao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jiao tang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>sheng suo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.下垂的；衰弱的</t>
+    <rPh sb="4" eb="5">
+      <t>xia chui</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shuai ruo de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.暗指，暗示</t>
+    <rPh sb="2" eb="3">
+      <t>an zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>an shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.冷酷的，可怕的</t>
+    <rPh sb="4" eb="5">
+      <t>leng ku de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ke pa</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不引人注目的</t>
+    <rPh sb="4" eb="5">
+      <t>bu yin ren</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yin ren</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhu men</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>mu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.重大的，极为重要的</t>
+    <rPh sb="4" eb="5">
+      <t>zhong da</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ji wei</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhong yao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不健康的，不健全的；</t>
+    <rPh sb="4" eb="5">
+      <t>bu jian kang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bu jian quan de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不结实的，不坚固的；无根据的</t>
+    <rPh sb="11" eb="12">
+      <t>gen ju</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.应受谴责的</t>
+    <rPh sb="4" eb="5">
+      <t>ying</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shou</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qian ze</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.盆摘的；罐装的；</t>
+    <rPh sb="4" eb="5">
+      <t>pen zhai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>guan zhuang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.深谋远虑的；节俭的</t>
+    <rPh sb="4" eb="5">
+      <t>shen mou yuan lü</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jie jian</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flickering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exhilaration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rescind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>neolithic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rivet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insoluble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>raze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>belligerent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentimentalize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uninitiated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opprobrious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consummate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.闪烁的，摇曳的，忽隐忽现的</t>
+    <rPh sb="4" eb="5">
+      <t>shan shuo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yao ye</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>hu yin hu xian</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.高兴，兴奋</t>
+    <rPh sb="2" eb="3">
+      <t>gao xing</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xing fen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.废除，取消</t>
+    <rPh sb="2" eb="3">
+      <t>fei chu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qu xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.新石器时代的</t>
+    <rPh sb="4" eb="5">
+      <t>xin shi qi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi qi shi dai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.铆钉；v.吸引(注意力)</t>
+    <rPh sb="2" eb="3">
+      <t>mao ding</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xi yin</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhu yi li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不能溶解的；不能解决的</t>
+    <rPh sb="4" eb="5">
+      <t>bu neng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>rong jie de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bu neng</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>jie jue</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>facile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.易做到的；肤浅的</t>
+    <rPh sb="4" eb="5">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zuo dao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>fu qian de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.完善的；完全的；v.完成</t>
+    <rPh sb="4" eb="5">
+      <t>wan shan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wan quan de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>wan cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.侮辱的，辱骂的</t>
+    <rPh sb="4" eb="5">
+      <t>wu ru de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ru ma</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.外行的，缺乏经验的</t>
+    <rPh sb="4" eb="5">
+      <t>wai hang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>que fa</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jing yan de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.(使)感伤</t>
+    <rPh sb="3" eb="4">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gan shang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.发动战争的；好斗的，好挑衅的</t>
+    <rPh sb="4" eb="5">
+      <t>fa dong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhan zheng</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>hao dou</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>hao</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>tiao xin de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.夷为平地；彻底破坏</t>
+    <rPh sb="2" eb="3">
+      <t>yi wei oing di</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>che di</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>po huai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recuperate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proscribe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prudish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defecate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remorselessly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insolent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deplete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oust</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overawe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fecund</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.肥沃的，多产的；创造力旺盛的</t>
+    <rPh sb="4" eb="5">
+      <t>fei wo de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>duo chan de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>chuang zao li</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>wang sheng de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.威慑</t>
+    <rPh sb="2" eb="3">
+      <t>wei she</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.驱逐，把……赶走</t>
+    <rPh sb="2" eb="3">
+      <t>qu zhu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ba</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gan zou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.大量减少；耗尽，使枯竭</t>
+    <rPh sb="2" eb="3">
+      <t>da liang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jian shao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>hao jin</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ku jie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.粗野的，无礼的</t>
+    <rPh sb="4" eb="5">
+      <t>cu ye</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wu li</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adv.冷酷地，无悔意地</t>
+    <rPh sb="4" eb="5">
+      <t>leng ku</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>di</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.澄清；净化</t>
+    <rPh sb="2" eb="3">
+      <t>cheng qing</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jing hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.过分守礼的，假道学的</t>
+    <rPh sb="4" eb="5">
+      <t>guo fen</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shou li</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>dao xue</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.听得见的</t>
+    <rPh sb="4" eb="5">
+      <t>ting de jian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.禁止</t>
+    <rPh sb="2" eb="3">
+      <t>jin zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.恢复(健康、体力)，复原</t>
+    <rPh sb="2" eb="3">
+      <t>hui fu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jian kang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ti li</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>fu yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>viscous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>horrific</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flounder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sculpt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.黏滞的，黏性的，黏的</t>
+    <rPh sb="4" eb="5">
+      <t>nian zhi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>nian xing</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>nian</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.可怕的</t>
+    <rPh sb="4" eb="5">
+      <t>ke pa de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.挣扎；艰苦地移动；n.比目鱼</t>
+    <rPh sb="2" eb="3">
+      <t>zheng zha</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jian ku</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>di</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yi dong</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>bi mu yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.大量削减</t>
+    <rPh sb="2" eb="3">
+      <t>da liang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xue jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.雕刻；造型</t>
+    <rPh sb="2" eb="3">
+      <t>diao ke</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zao xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit 13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blissful</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recondite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>culpable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tactile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pomposity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.极幸福的</t>
+    <rPh sb="4" eb="5">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xing fu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.深奥的，晦涩的</t>
+    <rPh sb="4" eb="5">
+      <t>shen ao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>hui se</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.有罪的，该受谴责的</t>
+    <rPh sb="4" eb="5">
+      <t>you</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zui</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shou</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>qian ze</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.有触觉的</t>
+    <rPh sb="4" eb="5">
+      <t>you</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chu jue</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.自命清高者，道学先生</t>
+    <rPh sb="2" eb="3">
+      <t>zi ming</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>qing gao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhe</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>dao xue</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xian sheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.自大的行为或言论</t>
+    <rPh sb="2" eb="3">
+      <t>zi da</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xing wei</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yan lun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.污秽的，肮脏的；恶臭的；邪恶的</t>
+    <rPh sb="4" eb="5">
+      <t>wu hui</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ang zang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>e chou</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>xie e</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. (体育等)犯规</t>
+    <rPh sb="4" eb="5">
+      <t>ti yu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fan gui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equitable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discharge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hedonist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>justify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>domineer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>terse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glossy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transcendent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agony</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skimp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enthral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receptive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dogged</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reclaim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>demobilize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avocational</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rhapsodic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>definite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vindictive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.报复的</t>
+    <rPh sb="4" eb="5">
+      <t>bao fu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.清楚的，明确的</t>
+    <rPh sb="4" eb="5">
+      <t>qing chu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ming que</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.狂热的，狂喜的；狂想曲的</t>
+    <rPh sb="4" eb="5">
+      <t>kuang re</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>kuang xi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>kuang xinag qu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.副业的，嗜好的</t>
+    <rPh sb="4" eb="5">
+      <t>fu ye</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi hao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.遣散，使复员</t>
+    <rPh sb="2" eb="3">
+      <t>qian san</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fu yaun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.纠正，改造；开垦(土地)</t>
+    <rPh sb="2" eb="3">
+      <t>jiu zheng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gai zao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>kai ken</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>tu di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.顽强的</t>
+    <rPh sb="4" eb="5">
+      <t>wan qiang de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.善于接受的，能接纳的</t>
+    <rPh sb="4" eb="5">
+      <t>sahn yu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jie shou</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>neng</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>jie na</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.迷惑</t>
+    <rPh sb="2" eb="3">
+      <t>mi huo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.节省花费</t>
+    <rPh sb="2" eb="3">
+      <t>jie sheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>hua fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.极大的痛苦</t>
+    <rPh sb="2" eb="3">
+      <t>ji da</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tong ku</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.超越的，卓越的，出众的</t>
+    <rPh sb="4" eb="5">
+      <t>chao yue</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhuo yue</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>chu zhong</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.有光泽的，光滑的</t>
+    <rPh sb="4" eb="5">
+      <t>you guan ze</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>guang ze</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>guang hua</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.支点(阻止东西下滑)</t>
+    <rPh sb="2" eb="3">
+      <t>zhi dian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zu zhi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>dong xi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xia hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.简洁的，简明的</t>
+    <rPh sb="4" eb="5">
+      <t>jian jie</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jian ming de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.压制</t>
+    <rPh sb="2" eb="3">
+      <t>ya zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.证明……使正当或合理的</t>
+    <rPh sb="2" eb="3">
+      <t>zheng ming</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zheng dang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>he li</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.享乐主义者</t>
+    <rPh sb="2" eb="3">
+      <t>xiang le</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhu yi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.排出，流出；释放；</t>
+    <rPh sb="2" eb="3">
+      <t>pai chu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>liu chu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi fang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解雇；履行义务；放电</t>
+    <rPh sb="3" eb="4">
+      <t>lü xing yi wu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fang dian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.公正的，合理的</t>
+    <rPh sb="4" eb="5">
+      <t>gong zheng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>he li</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -9633,10 +11977,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B528"/>
+  <dimension ref="A1:B659"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A511" zoomScale="136" zoomScaleNormal="108" zoomScalePageLayoutView="108" workbookViewId="0">
-      <selection activeCell="A517" sqref="A517"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A641" zoomScale="136" zoomScaleNormal="108" zoomScalePageLayoutView="108" workbookViewId="0">
+      <selection activeCell="C653" sqref="C653"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13797,8 +16141,1029 @@
         <v>1033</v>
       </c>
     </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A529" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B529" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A530" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B530" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A531" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B531" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A532" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B532" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A533" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B533" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A534" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B534" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A535" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B535" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A536" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B536" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A537" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B537" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A538" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B538" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A539" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B539" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A540" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B540" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A541" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B541" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A542" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B542" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A543" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B543" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A544" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B544" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A545" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B545" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A546" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B546" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A547" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B547" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A548" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B548" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A549" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B549" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A550" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B550" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A551" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B551" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A552" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B552" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A554" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B554" s="1"/>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A555" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B555" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A556" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B556" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A557" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B557" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A558" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B558" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A559" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B559" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A560" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B560" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A561" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B561" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A562" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B562" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A563" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B563" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A564" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B564" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A565" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B565" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A566" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B566" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A567" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B567" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A568" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B568" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A569" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B569" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A570" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B570" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A571" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B571" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A572" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B572" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A573" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B573" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A574" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B574" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A575" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B575" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A576" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B576" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A577" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B577" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A578" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B578" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A579" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B579" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A580" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B580" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A581" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B581" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A582" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B582" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A583" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B583" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A584" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B584" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A585" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B585" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A586" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B586" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A587" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B587" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A588" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B588" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A589" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B589" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A590" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B590" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A591" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B591" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A592" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B592" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A593" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B593" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A594" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B594" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A595" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B595" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B596" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A597" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B597" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A598" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B598" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A599" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B599" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A600" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B600" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A601" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B601" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A602" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B602" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A603" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B603" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A604" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B604" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A605" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B605" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A606" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B606" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A607" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B607" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A608" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B608" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A609" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B609" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A610" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B610" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A611" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B611" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A612" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B612" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A613" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B613" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A614" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B614" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A615" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B615" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A616" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B616" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A617" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B617" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A618" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B618" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A619" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B619" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A620" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B620" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A621" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B621" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A622" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B622" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A623" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B623" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A624" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B624" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A625" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B625" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A626" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B626" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A627" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B627" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A628" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B628" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A630" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B630" s="1"/>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A631" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B631" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A632" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B632" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A633" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B633" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A634" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B634" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A635" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B635" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A636" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B636" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A637" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B637" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B638" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A639" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B639" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A640" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B640" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B641" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A642" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B642" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A643" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B643" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A644" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B644" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A645" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B645" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A646" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B646" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A647" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B647" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A648" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B648" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A649" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B649" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A650" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B650" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A651" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B651" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A652" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B652" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A653" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B653" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A654" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B654" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A655" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B655" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A656" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B656" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A657" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B657" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A658" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B658" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A659" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B659" t="s">
+        <v>1266</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="A554:B554"/>
+    <mergeCell ref="A630:B630"/>
     <mergeCell ref="A479:B479"/>
     <mergeCell ref="A332:B332"/>
     <mergeCell ref="A398:B398"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11100" yWindow="740" windowWidth="25600" windowHeight="14160" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="1287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="1452">
   <si>
     <t>unit 22</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -11650,6 +11650,1569 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>veer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stymie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timorous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supercilious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>florid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slipperiness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promptness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myraid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.转向，改变(话题等)</t>
+    <rPh sb="2" eb="3">
+      <t>zhuan xiang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gai bian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>hua ti</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>deng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.妨碍，阻挠</t>
+    <rPh sb="2" eb="3">
+      <t>fang ai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zu nao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.胆小的，胆怯的</t>
+    <rPh sb="4" eb="5">
+      <t>dan xiao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>dan qie</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.目中无人的</t>
+    <rPh sb="4" eb="5">
+      <t>mu zhong wu ren</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.华丽的；(脸)红润的</t>
+    <rPh sb="4" eb="5">
+      <t>hua li de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>lian</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>hong run</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.滑溜；防滑性</t>
+    <rPh sb="2" eb="3">
+      <t>hua liu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fang hua xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.敏捷，迅速；机敏</t>
+    <rPh sb="2" eb="3">
+      <t>min jie</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xun su</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ji min</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.许多的，无数的</t>
+    <rPh sb="4" eb="5">
+      <t>xu duo de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wu shu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incorruptible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.廉洁的，不腐败的</t>
+    <rPh sb="4" eb="5">
+      <t>lian jie</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>fu bai</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ranching</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>harsh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poignat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>convex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unfailing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paraphrase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>potable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.大牧场</t>
+    <rPh sb="2" eb="3">
+      <t>da mu chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.严厉的；粗糙的；刺耳的</t>
+    <rPh sb="4" eb="5">
+      <t>yan li</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>cu cao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ci er</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.令人痛苦的，伤心的；尖锐的，尖刻的</t>
+    <rPh sb="4" eb="5">
+      <t>ling ren</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>tong ku</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shang xin de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>jian rui</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>jian ke</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.突出的</t>
+    <rPh sb="4" eb="5">
+      <t>tu chu de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.无尽的，无穷的</t>
+    <rPh sb="4" eb="5">
+      <t>wu jin</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wu qiong</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.／v. 释义，解释，改写</t>
+    <rPh sb="6" eb="7">
+      <t>shi yi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jie shi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>gai xie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.适于饮用的</t>
+    <rPh sb="4" eb="5">
+      <t>shi yu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yin yong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>irascible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>caustic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abrasive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recurrent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unwarranted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>untenable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dissect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.易怒的</t>
+    <rPh sb="4" eb="5">
+      <t>yi nu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.腐蚀性的；刻薄的；n.腐蚀剂</t>
+    <rPh sb="4" eb="5">
+      <t>fu shi xing</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ke bo</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>fu shi ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.研磨的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.循环的；一再发生的</t>
+    <rPh sb="4" eb="5">
+      <t>xun huan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yi zai</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>fa sheng</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.没有根据的</t>
+    <rPh sb="4" eb="5">
+      <t>mei you</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gen ju</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.难以防守的；不能租赁的</t>
+    <rPh sb="4" eb="5">
+      <t>nan yi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fang shou</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bu neng</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zu lin</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.解剖；剖析</t>
+    <rPh sb="2" eb="3">
+      <t>jie pou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>pou xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inexhaustible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protozoan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periphery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recompose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>court</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replenish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jubilant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.用不完的，无穷无尽的</t>
+    <rPh sb="4" eb="5">
+      <t>yong bu wan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>wu qiong</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>wu jin</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.原生动物</t>
+    <rPh sb="2" eb="3">
+      <t>yuan sheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dong wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.质问；攻击</t>
+    <rPh sb="2" eb="3">
+      <t>zhi wen</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gong ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.次要部分；外围，周围；外表面</t>
+    <rPh sb="2" eb="3">
+      <t>ci yao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bu fen</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wai wei</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhou wei</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>wai biao mian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.重写；重新安排</t>
+    <rPh sb="2" eb="3">
+      <t>chong xie</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chong xin</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>an pai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.献殷勤；追求；n.法庭；宫廷</t>
+    <rPh sb="2" eb="3">
+      <t>xian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yin qin</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhui qiu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>fa ting</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>gong ting</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.补充，把……再备足</t>
+    <rPh sb="2" eb="3">
+      <t>bu chong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ba</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bei</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.欢呼的，喜气洋洋的</t>
+    <rPh sb="4" eb="5">
+      <t>huan hu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xi qi yang yang</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arbitrary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audacious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monolith</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disjunctive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fractious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sedimentary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fetid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aggrevate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.专横的，武断的</t>
+    <rPh sb="4" eb="5">
+      <t>zhuan heng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wu duan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.大胆的</t>
+    <rPh sb="4" eb="5">
+      <t>da dan de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.单块巨石；单一庞大的组织</t>
+    <rPh sb="2" eb="3">
+      <t>dan kuai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ju shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>dan hyi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>pang da</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zu zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.分离的；转折的，反意的</t>
+    <rPh sb="4" eb="5">
+      <t>fen li</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhuan zhe</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.(脾气)易怒的，好争吵的</t>
+    <rPh sb="5" eb="6">
+      <t>pi qi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yi nu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>hao zheng chao</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.沉积的，沉淀性的</t>
+    <rPh sb="4" eb="5">
+      <t>chen ji</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chen dian</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.有恶臭的</t>
+    <rPh sb="4" eb="5">
+      <t>you</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>e chou</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.加重，恶化；激怒，使恼火</t>
+    <rPh sb="2" eb="3">
+      <t>jia zhong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>e hua</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ji nu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>nao huo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resignation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mischievous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recital</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aspen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>farce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unwitting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.听从，顺从；辞职</t>
+    <rPh sb="2" eb="3">
+      <t>ting cong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shun cong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ci zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.淘气的；有害的</t>
+    <rPh sb="4" eb="5">
+      <t>tao qi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>you hai</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.独奏会，小型舞蹈表演会；吟诵</t>
+    <rPh sb="2" eb="3">
+      <t>du zou</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xiao xing</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wu dao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>biao yan hui</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>yin song</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.白杨</t>
+    <rPh sb="2" eb="3">
+      <t>bai yang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.闹剧，滑稽剧；可笑的行为，荒唐的事情</t>
+    <rPh sb="2" eb="3">
+      <t>nao ju</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hua ji ju</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ke xiao de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>xing wei</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>huang tang</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>de</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>shi qing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.无意的，不知不觉的</t>
+    <rPh sb="4" eb="5">
+      <t>wu yi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bu zhi bu jue</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>igneous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nonentity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reportorial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perpendicular</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prodigal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ill-paying</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arboreal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.火的，似火的</t>
+    <rPh sb="4" eb="5">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>si huo</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.无足轻重的人或事</t>
+    <rPh sb="2" eb="3">
+      <t>wu zu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>qing zhong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ren huo shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.记者的，报道的</t>
+    <rPh sb="4" eb="5">
+      <t>ji zhe</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bao dao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.垂直的，竖直的</t>
+    <rPh sb="4" eb="5">
+      <t>chui zhi de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shu zhi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.挥霍的；n.挥霍者</t>
+    <rPh sb="4" eb="5">
+      <t>hui huo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>hui huo</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.工资低廉的</t>
+    <rPh sb="4" eb="5">
+      <t>gong zi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>di lian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.树木的</t>
+    <rPh sb="4" eb="5">
+      <t>shu mu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inflamed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conciliatory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smother</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.发炎的，红肿的</t>
+    <rPh sb="4" eb="5">
+      <t>fa yan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>hong zhong</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.抚慰的，调和的</t>
+    <rPh sb="4" eb="5">
+      <t>fu wei</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tiao he</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.熄灭；覆盖；使窒息</t>
+    <rPh sb="2" eb="3">
+      <t>xi mie</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fu gai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhi xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.薄片，碎片；集成电路</t>
+    <rPh sb="2" eb="3">
+      <t>bo pian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>sui pian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ji cheng dian lu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>petulant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tangential</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ulterior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resurge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>antiseptic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>squirt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.暴躁的，易怒的</t>
+    <rPh sb="4" eb="5">
+      <t>bao zao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yi nu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.切线的；离题的</t>
+    <rPh sb="4" eb="5">
+      <t>qie xian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>li ti</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.较远的，将来的；隐秘的，别有用心的</t>
+    <rPh sb="4" eb="5">
+      <t>jiao yuan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jiang lai</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>yin mi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>bie you</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>yong xin de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.复活</t>
+    <rPh sb="2" eb="3">
+      <t>fu huo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.杀菌剂</t>
+    <rPh sb="2" eb="3">
+      <t>sha jun ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.喷出，溅出</t>
+    <rPh sb="2" eb="3">
+      <t>pen chu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>chu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spurious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soothe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sedative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pronounced</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sanctimonious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bland</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prospect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.假的；伪造的</t>
+    <rPh sb="4" eb="5">
+      <t>jia de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wei zao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.抚慰；减轻</t>
+    <rPh sb="2" eb="3">
+      <t>fu wei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jian qing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.(药物)镇静的；n.镇静剂</t>
+    <rPh sb="5" eb="6">
+      <t>yao wu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhen jing</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zhen jing ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.显著的，明确的</t>
+    <rPh sb="4" eb="5">
+      <t>xian zhu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ming que</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.假装虔诚的</t>
+    <rPh sb="4" eb="5">
+      <t>jia zhuang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qian cheng</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.(人)情绪平稳的；(食物)无味的</t>
+    <rPh sb="5" eb="6">
+      <t>ren</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>qing xu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ping wen</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>shi wu</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>wu wei</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.跨度；两个界限间的距离</t>
+    <rPh sb="2" eb="3">
+      <t>kua du</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>liang ge</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jie xian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jian</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ju li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.勘探；n.期望</t>
+    <rPh sb="2" eb="3">
+      <t>kan tan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>qi wang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diehard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perception</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blithe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>morose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.翱翔；(人)徘徊</t>
+    <rPh sb="2" eb="3">
+      <t>ao xiang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ren</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>pai huai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.违抗，藐视</t>
+    <rPh sb="2" eb="3">
+      <t>wei kang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>miao hsi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.顽固份子</t>
+    <rPh sb="2" eb="3">
+      <t>wan gu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fen zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.感知，知觉；洞察力</t>
+    <rPh sb="2" eb="3">
+      <t>gan zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhi jue</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>dong cha li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.快乐的，无忧无虑的</t>
+    <rPh sb="4" eb="5">
+      <t>kuai le de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wu you</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wu lü</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.郁闷的</t>
+    <rPh sb="4" eb="5">
+      <t>yu men</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>somber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bootless</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bastion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flaunt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.禁食，斋戒；adv.很快地，紧紧地，深沉地</t>
+    <rPh sb="2" eb="3">
+      <t>jin shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhai jie</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>hen kuai</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>di</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>jin jin</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>di</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>shen cchen</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.忧郁的；阴暗的</t>
+    <rPh sb="4" eb="5">
+      <t>you yu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yi nan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.无益处的；无用的</t>
+    <rPh sb="4" eb="5">
+      <t>wu yi chu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>wu yong</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.堡垒，防御工事</t>
+    <rPh sb="2" eb="3">
+      <t>bao lei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fang yu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>gong shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.委托；放弃；辞职</t>
+    <rPh sb="2" eb="3">
+      <t>wei tuo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fang qi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ci zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.炫耀，夸耀</t>
+    <rPh sb="2" eb="3">
+      <t>xuan yao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>kua yao</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -11977,10 +13540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B659"/>
+  <dimension ref="A1:B743"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A641" zoomScale="136" zoomScaleNormal="108" zoomScalePageLayoutView="108" workbookViewId="0">
-      <selection activeCell="C653" sqref="C653"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A627" zoomScale="136" zoomScaleNormal="108" zoomScalePageLayoutView="108" workbookViewId="0">
+      <selection activeCell="B631" sqref="B631"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17160,18 +18723,681 @@
         <v>1266</v>
       </c>
     </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A660" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B660" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A661" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B661" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A662" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B662" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A663" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B663" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A664" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B664" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A665" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B665" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A666" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B666" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A667" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B667" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A668" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B668" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A669" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B669" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A670" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B670" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A671" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B671" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A672" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B672" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A673" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B673" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A674" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B674" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A675" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B675" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A676" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B676" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A677" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B677" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A678" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B678" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A679" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B679" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A680" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B680" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A681" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B681" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A682" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B682" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A683" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B683" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A684" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B684" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A685" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B685" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A686" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B686" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A687" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B687" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A688" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B688" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A689" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B689" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A690" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B690" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A691" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B691" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A692" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B692" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A693" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B693" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A694" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B694" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A695" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B695" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A696" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B696" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A697" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B697" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A698" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B698" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A699" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B699" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A700" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B700" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A701" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B701" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A702" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B702" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A703" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B703" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A704" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B704" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A705" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B705" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A706" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B706" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A707" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B707" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A708" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B708" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A709" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B709" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A710" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B710" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A711" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B711" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A712" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B712" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A713" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B713" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A714" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B714" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A715" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B715" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A717" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B717" s="1"/>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A718" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B718" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A719" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B719" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A720" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B720" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A721" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B721" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A722" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B722" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A723" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B723" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A724" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B724" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A725" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B725" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A726" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B726" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A727" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B727" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A728" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B728" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A729" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B729" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A730" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B730" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A731" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B731" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A732" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B732" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A733" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B733" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A734" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B734" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A735" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B735" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A736" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B736" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A737" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B737" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A738" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B738" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A739" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B739" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A740" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B740" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A741" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B741" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A742" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B742" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A743" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B743" t="s">
+        <v>1451</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="A717:B717"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A259:B259"/>
     <mergeCell ref="A554:B554"/>
     <mergeCell ref="A630:B630"/>
     <mergeCell ref="A479:B479"/>
     <mergeCell ref="A332:B332"/>
     <mergeCell ref="A398:B398"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="A259:B259"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="1452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="1659">
   <si>
     <t>unit 22</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -11682,10 +11682,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>myraid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>v.转向，改变(话题等)</t>
     <rPh sb="2" eb="3">
       <t>zhuan xiang</t>
@@ -13213,6 +13209,2059 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>kua yao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shortrange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unbridgeable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imperturbable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cacophonous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quaint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>artless</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recapitulate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eulogistic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thrive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myriad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strenuous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iconoclastic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buoyant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>synoptic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>infiltrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prescient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.近程的</t>
+    <rPh sb="4" eb="5">
+      <t>jin</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>cheng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不能架桥的，不能逾越的</t>
+    <rPh sb="4" eb="5">
+      <t>bu neng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jia qiao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bu neng</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>yu yue</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.冷静的，沉着的</t>
+    <rPh sb="4" eb="5">
+      <t>leng jing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chen zhuo</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.发音不和谐的，不协调的</t>
+    <rPh sb="4" eb="5">
+      <t>fa yin</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bu hei e</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>he xie</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bu xie tiao</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.浅滩，浅水处；一群(鱼等);adj.浅的，薄的</t>
+    <rPh sb="2" eb="3">
+      <t>qian tan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shui</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>chu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yi qun</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>qian</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>de</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>bo</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.离奇有趣的；古色古香的</t>
+    <rPh sb="4" eb="5">
+      <t>li qi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>you qu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gu se gu xiang</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.朴实的，自然的；粗俗的</t>
+    <rPh sb="4" eb="5">
+      <t>pu shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zi ran</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>cu su</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.扼要重述</t>
+    <rPh sb="2" eb="3">
+      <t>e yao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>chong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.颂扬的，歌功颂德的</t>
+    <rPh sb="4" eb="5">
+      <t>song yang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ge gong</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>song de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.茁壮成长；繁荣，兴旺</t>
+    <rPh sb="2" eb="3">
+      <t>zhuo zhaung</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cheng zhang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fan rong</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xing wang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.奋发的；热烈的</t>
+    <rPh sb="4" eb="5">
+      <t>fen fa</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>re lie</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.偶像破坏的，打破旧习的</t>
+    <rPh sb="4" eb="5">
+      <t>ou xiang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>po huai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>da po</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>jiu xi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.有浮力的；快乐的</t>
+    <rPh sb="4" eb="5">
+      <t>you</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fu li</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>kuai le</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.摘要的</t>
+    <rPh sb="4" eb="5">
+      <t>zhai yao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.渗入，渗透</t>
+    <rPh sb="2" eb="3">
+      <t>shen ru</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shen tou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.有先见的，预知的</t>
+    <rPh sb="4" eb="5">
+      <t>you</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xian jian de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yu zhi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compelling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brusqueness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commensurate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contemplation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eccentric</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imperative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exalted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exhale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>munificence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unwieldy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coterie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appropos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taxing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perfidious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eviscerate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.引起兴趣的</t>
+    <rPh sb="4" eb="5">
+      <t>yin qi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xing qu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.唐突；直率</t>
+    <rPh sb="2" eb="3">
+      <t>tang tu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhi shuai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.同样大小的；相称的</t>
+    <rPh sb="4" eb="5">
+      <t>tong yang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>da xiao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xiang chen de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.注视；凝视；意图；期望</t>
+    <rPh sb="2" eb="3">
+      <t>zhu shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ning shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yi tu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>qi wang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.古怪的，反常的；</t>
+    <rPh sb="4" eb="5">
+      <t>gu guai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fan chang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.古怪的人</t>
+    <rPh sb="2" eb="3">
+      <t>gu guai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(指圆形)没有共同圆心的</t>
+    <rPh sb="1" eb="2">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yuan xing</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mei you</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>gong tong</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yuan xin</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.紧急的</t>
+    <rPh sb="4" eb="5">
+      <t>jin ji</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.崇高的，高贵的</t>
+    <rPh sb="4" eb="5">
+      <t>chong gao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gao gui</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.呼出；呼气；散发</t>
+    <rPh sb="2" eb="3">
+      <t>hu chu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hu qi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>san fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.慷慨给予，宽宏大量</t>
+    <rPh sb="2" eb="3">
+      <t>kang kai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ji yu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>kuan hong da liang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.难控制的；笨重的</t>
+    <rPh sb="4" eb="5">
+      <t>nan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>kong zhi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ben zhong</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.(有共同兴趣的)小团体</t>
+    <rPh sb="3" eb="4">
+      <t>you</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gong tong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xing qu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xiao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>tuan ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj./adv.适当的(地)；有关</t>
+    <rPh sb="9" eb="10">
+      <t>shi dang</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>di</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>you guan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.繁重的</t>
+    <rPh sb="4" eb="5">
+      <t>fan zhong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不忠的，背信弃义的</t>
+    <rPh sb="4" eb="5">
+      <t>bu zhong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bei xin qi yi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.取出内脏</t>
+    <rPh sb="2" eb="3">
+      <t>qu chu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>nei zang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>solicitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ill-will</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flamboyant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whimsical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gouge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jocular</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reticent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skew</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pliant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dismember</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rancid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temporal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>covet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tenable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compassion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fortuitous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.关怀，牵挂</t>
+    <rPh sb="2" eb="3">
+      <t>guan huai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qian gua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.敌意，仇视，恶感</t>
+    <rPh sb="2" eb="3">
+      <t>di yi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chou shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>e</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>gan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.艳丽的，显眼的，炫耀的</t>
+    <rPh sb="4" eb="5">
+      <t>yan li de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xian yan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>xuan yao</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.古怪的，异想天开的</t>
+    <rPh sb="4" eb="5">
+      <t>gu guai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yi xiang tian kai de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.挖出；敲竹杠；n.半圆凿</t>
+    <rPh sb="2" eb="3">
+      <t>wa chu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qiao zhu gang</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ban yuan</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.滑稽的，幽默的；爱开玩笑的</t>
+    <rPh sb="4" eb="5">
+      <t>hua ji de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>you mo de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ai kai wan xiao</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.沉默寡言的</t>
+    <rPh sb="4" eb="5">
+      <t>chen mo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gua yan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不直的，歪斜的</t>
+    <rPh sb="4" eb="5">
+      <t>bu zhi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wai xie</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.易受影响的；易弯的</t>
+    <rPh sb="4" eb="5">
+      <t>yi shou</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ying xiang de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yi wan</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.肢解；分割</t>
+    <rPh sb="2" eb="3">
+      <t>zhi jie</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fen ge</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不新鲜的，变味的</t>
+    <rPh sb="4" eb="5">
+      <t>bu xin xian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bian wei</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.时间的；世俗的</t>
+    <rPh sb="4" eb="5">
+      <t>shi jian fde</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi su</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.贪求，妄想</t>
+    <rPh sb="2" eb="3">
+      <t>tan qiu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wang xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.站得住脚的，合理的</t>
+    <rPh sb="4" eb="5">
+      <t>zhan de zhu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jiao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>he li de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.同情，怜悯</t>
+    <rPh sb="2" eb="3">
+      <t>tong qing</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>lian min</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.偶然发生的，偶然的</t>
+    <rPh sb="4" eb="5">
+      <t>ou ran</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fa sheng de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ou ran de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>profuse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tempting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inadvertent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>populous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.疏远的，冷淡的</t>
+    <rPh sb="4" eb="5">
+      <t>shu yuan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>leng dan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.丰富的；浪费的</t>
+    <rPh sb="4" eb="5">
+      <t>feng fu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>lang fei</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.诱惑人的</t>
+    <rPh sb="4" eb="5">
+      <t>you huo ren de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.疏忽的；不经意的，无心的</t>
+    <rPh sb="4" eb="5">
+      <t>shu hu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jing yi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>wu xin</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.叙述，描写</t>
+    <rPh sb="2" eb="3">
+      <t>xu shu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>miao xie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.人口稠密的</t>
+    <rPh sb="4" eb="5">
+      <t>ren kou</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>chou mi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crimson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reimburse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>squander</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jumble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coloration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.绯红色；adj.绯红色的</t>
+    <rPh sb="2" eb="3">
+      <t>fei hong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>se</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>fei hong se</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.偿还</t>
+    <rPh sb="2" eb="3">
+      <t>chang huan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.浪费，挥霍</t>
+    <rPh sb="2" eb="3">
+      <t>lang fei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hui huo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使混乱，混乱；n.混乱，杂乱</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>hun luan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>hun luan</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>hun luan</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>za luan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.着色法；颜色，色泽</t>
+    <rPh sb="2" eb="3">
+      <t>zhuo se fa</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yan se</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>se z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saturate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atrocity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unpalatable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mortify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contentious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nebulous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliberation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>renounce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subvert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>charlatan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disparate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bestow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dorsal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imminent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pharmaceutical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>untamed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negligibly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.浸湿，浸透；使大量吸收或充满</t>
+    <rPh sb="2" eb="3">
+      <t>jin shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jin tou</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>da liang</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xi shou</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>chong man</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.(峭壁的)边沿，边缘</t>
+    <rPh sb="3" eb="4">
+      <t>qiao bi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bian yan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bian yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.邪恶；暴行</t>
+    <rPh sb="2" eb="3">
+      <t>xie e</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bao xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.味道差的，不好吃的；令人不快的</t>
+    <rPh sb="4" eb="5">
+      <t>wei dao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>cha de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bu hao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>chi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ling ren</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>bu kuai</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使丢脸，侮辱</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>diu lian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wu ru</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.好争吵的；有争议的</t>
+    <rPh sb="4" eb="5">
+      <t>hao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zheng chao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>you</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zheng yi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.模糊的；云状的</t>
+    <rPh sb="4" eb="5">
+      <t>mo hu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yun zhuang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.健壮的，矍铄的</t>
+    <rPh sb="4" eb="5">
+      <t>jian zhuang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jue shuo</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.细想，考虑</t>
+    <rPh sb="2" eb="3">
+      <t>xi xiang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>kao lü</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.声明放弃；拒绝，否认</t>
+    <rPh sb="2" eb="3">
+      <t>sheng ming</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fang qi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ju jue</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>fou ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.合乎习俗的</t>
+    <rPh sb="4" eb="5">
+      <t>he hu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xi su</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.颠覆，推翻</t>
+    <rPh sb="2" eb="3">
+      <t>dian fu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tui fan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.江湖郎中，骗子</t>
+    <rPh sb="2" eb="3">
+      <t>jiang hu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>lang zhong</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>pian zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.迥然不同的</t>
+    <rPh sb="4" eb="5">
+      <t>jiong ran</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bu tong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.给予，赠送</t>
+    <rPh sb="2" eb="3">
+      <t>ji yu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zeng song</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.背部的，背脊的</t>
+    <rPh sb="4" eb="5">
+      <t>bei bu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bei ji</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.即将发生的，逼近的</t>
+    <rPh sb="4" eb="5">
+      <t>ji jiang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fa sheng</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bi jin</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.制药的，卖药的</t>
+    <rPh sb="4" eb="5">
+      <t>zhi yao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>mai yao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.未训服的</t>
+    <rPh sb="4" eb="5">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xun fu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adv.无足轻重地，不值一提地</t>
+    <rPh sb="4" eb="5">
+      <t>wu zu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qing zhong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>di</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bu zhi yi ti</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.鼓励，促进；养育，抚养</t>
+    <rPh sb="2" eb="3">
+      <t>gu li</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>cu jin</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yang yu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>fu yang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pedantry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stalwart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>banter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thwart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>implication</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>superfluous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shatter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assertive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>introvert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.迂腐</t>
+    <rPh sb="2" eb="3">
+      <t>yu fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.健壮的；坚定的</t>
+    <rPh sb="4" eb="5">
+      <t>jian zhuang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jian ding</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.打趣，玩笑</t>
+    <rPh sb="2" eb="3">
+      <t>da</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wan xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.阻挠，使受挫折，挫败</t>
+    <rPh sb="2" eb="3">
+      <t>zu nao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shou</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>cuo z</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>cuo bai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.香料；v.给……调味</t>
+    <rPh sb="2" eb="3">
+      <t>xiang liao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>gei</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>tiao wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.暗示</t>
+    <rPh sb="2" eb="3">
+      <t>an shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使高兴，使得意</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gao xing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.多余的，累赘的</t>
+    <rPh sb="4" eb="5">
+      <t>duo yu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>lei zhui</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.邻接，毗邻</t>
+    <rPh sb="2" eb="3">
+      <t>lin jie</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>pi lin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使落下，使散开</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>luo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xia</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>san kai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砸碎，粉碎</t>
+    <rPh sb="0" eb="1">
+      <t>za sui</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fen sui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破坏，毁坏</t>
+    <rPh sb="0" eb="1">
+      <t>po huai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>hui huai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.断言的，肯定的</t>
+    <rPh sb="4" eb="5">
+      <t>duan yan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ken ding</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.性格内向的人</t>
+    <rPh sb="2" eb="3">
+      <t>xing ge</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>nei xiang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inposing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>satiated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subside</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spectral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dispassionate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trample</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>euphoric</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>packed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>immaculate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chivalrous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.给人印象深刻的；壮丽的，雄伟的</t>
+    <rPh sb="4" eb="5">
+      <t>gei ren</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yin xiang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shen ke</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zhuang li</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>xiong wei</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.厌倦的，生腻的；充分满足的</t>
+    <rPh sb="4" eb="5">
+      <t>yan juan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>sheng</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ni</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>chong fen</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>man zu</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.(建筑物等)下陷；平息，减退</t>
+    <rPh sb="3" eb="4">
+      <t>jian zhu wu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ping xi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>jian tui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.幽灵的；谱的，光谱的</t>
+    <rPh sb="4" eb="5">
+      <t>you ling de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>pu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>guang pu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.平心静气的</t>
+    <rPh sb="4" eb="5">
+      <t>ping xin</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jing qi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.踩坏，践踏，蹂躏</t>
+    <rPh sb="2" eb="3">
+      <t>cai huai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jian ta</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>rou lin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.欢欣的</t>
+    <rPh sb="4" eb="5">
+      <t>huan xin</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.压紧的，压实的；充满人的，拥挤的</t>
+    <rPh sb="4" eb="5">
+      <t>ya jin</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ya shi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>chong man</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ren de</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>yong ji de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.洁净的，无瑕的</t>
+    <rPh sb="4" eb="5">
+      <t>jie jing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wu xia</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.骑士精神的；对女人彬彬有礼的</t>
+    <rPh sb="4" eb="5">
+      <t>qi shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jing shen</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>nü ren</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>bin bin</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>you li</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>de</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -13540,10 +15589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B743"/>
+  <dimension ref="A1:B850"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A627" zoomScale="136" zoomScaleNormal="108" zoomScalePageLayoutView="108" workbookViewId="0">
-      <selection activeCell="B631" sqref="B631"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A832" zoomScale="136" zoomScaleNormal="108" zoomScalePageLayoutView="108" workbookViewId="0">
+      <selection activeCell="B850" sqref="B850"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18728,7 +20777,7 @@
         <v>1287</v>
       </c>
       <c r="B660" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.2">
@@ -18736,7 +20785,7 @@
         <v>1288</v>
       </c>
       <c r="B661" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.2">
@@ -18744,7 +20793,7 @@
         <v>1289</v>
       </c>
       <c r="B662" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.2">
@@ -18752,7 +20801,7 @@
         <v>1290</v>
       </c>
       <c r="B663" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.2">
@@ -18760,7 +20809,7 @@
         <v>1291</v>
       </c>
       <c r="B664" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.2">
@@ -18768,7 +20817,7 @@
         <v>1292</v>
       </c>
       <c r="B665" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.2">
@@ -18776,617 +20825,1452 @@
         <v>1293</v>
       </c>
       <c r="B666" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
-        <v>1294</v>
+        <v>1461</v>
       </c>
       <c r="B667" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B668" t="s">
         <v>1303</v>
-      </c>
-      <c r="B668" t="s">
-        <v>1304</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="B669" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B670" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="B671" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="B672" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="B673" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="B674" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="B675" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B676" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="B677" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="B678" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="B679" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="B680" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="B681" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="B682" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B683" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B684" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="B685" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B686" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B687" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="B688" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="B689" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="B690" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B691" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="B692" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="B693" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="B694" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="B695" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B696" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="B697" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="B698" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="B699" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="B700" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="B701" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B702" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="B703" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="B704" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="B705" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B706" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="B707" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="B708" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B709" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B710" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B711" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="B712" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="B713" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="B714" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B715" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A717" s="1" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="B717" s="1"/>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B718" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B719" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B720" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B721" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="B722" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B723" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B724" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B725" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B726" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B727" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B728" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B729" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B730" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B731" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="B732" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="B733" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B734" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B735" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B736" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B737" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="B738" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="B739" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="B740" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="B741" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="B742" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="B743" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A744" t="s">
         <v>1451</v>
       </c>
+      <c r="B744" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A745" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B745" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A746" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B746" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A747" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B747" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A748" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B748" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A749" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B749" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A750" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B750" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A751" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B751" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A752" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B752" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A753" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B753" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A754" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B754" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A755" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B755" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A756" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B756" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A757" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B757" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A758" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B758" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A759" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B759" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A760" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B760" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A761" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B761" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A762" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B762" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A763" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B763" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A764" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B764" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B765" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B766" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A767" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B767" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A768" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B768" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A769" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B769" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A770" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B770" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A771" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B771" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A772" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B772" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A773" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B773" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A774" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B774" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A775" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B775" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A776" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B776" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A777" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B777" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A778" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B778" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A779" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B779" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A780" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B780" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A781" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B781" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A782" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B782" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A783" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B783" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A784" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B784" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A785" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B785" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A786" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B786" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A787" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B787" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A788" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B788" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A789" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B789" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A790" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B790" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A791" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B791" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A792" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B792" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A793" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B793" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A794" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B794" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A795" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B795" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A796" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B796" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A797" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B797" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A798" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B798" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A800" s="1" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B800" s="1"/>
+    </row>
+    <row r="801" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A801" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B801" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A802" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B802" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A803" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B803" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A804" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B804" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A805" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B805" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A806" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B806" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A807" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B807" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A808" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B808" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A809" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B809" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A810" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B810" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A811" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B811" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A812" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B812" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A813" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B813" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A814" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B814" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A815" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B815" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A816" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B816" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A817" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B817" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A818" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B818" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A819" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B819" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A820" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B820" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A821" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B821" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A822" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B822" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A823" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B823" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A824" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B824" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A825" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B825" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A826" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B826" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A827" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B827" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A828" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B828" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A829" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B829" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A830" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B830" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A831" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B831" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A832" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B832" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A833" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B833" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A834" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B834" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A835" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B835" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A836" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B836" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B837" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B838" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A839" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B839" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A840" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B840" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A841" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B841" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A842" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B842" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A843" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B843" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A844" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B844" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A845" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B845" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A846" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B846" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A847" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B847" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A848" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B848" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A849" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B849" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A850" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B850" t="s">
+        <v>1658</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A800:B800"/>
     <mergeCell ref="A717:B717"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A49:B49"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="1659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="1723">
   <si>
     <t>unit 22</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -15262,6 +15262,577 @@
     </rPh>
     <rPh sb="17" eb="18">
       <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itinerate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bibliomania</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>callous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>premonition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>untarnished</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stunning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>excess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>herbaceous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>penalize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obliterate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atonement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extrapolate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.巡回的</t>
+    <rPh sb="4" eb="5">
+      <t>xun hui</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.知足的，满意的</t>
+    <rPh sb="4" eb="5">
+      <t>zhi zu de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>man yi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.(使)满意，(使)知足</t>
+    <rPh sb="3" eb="4">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>man yi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zhi zu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.满意，内容</t>
+    <rPh sb="2" eb="3">
+      <t>man yi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>nei rong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.藏书癖</t>
+    <rPh sb="2" eb="3">
+      <t>cang shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.结硬块；无情的</t>
+    <rPh sb="4" eb="5">
+      <t>jie ying kuai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wu qing de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.预感，预兆</t>
+    <rPh sb="2" eb="3">
+      <t>yu gan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yu zhao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.未失去光泽的</t>
+    <rPh sb="4" eb="5">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi qu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>guang ze</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.极富魅力的</t>
+    <rPh sb="4" eb="5">
+      <t>ji fu mei li</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.取消；否认</t>
+    <rPh sb="2" eb="3">
+      <t>qu xiao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fou ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.过分，过度</t>
+    <rPh sb="2" eb="3">
+      <t>guo fen</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>guo du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.草本的</t>
+    <rPh sb="4" eb="5">
+      <t>cao ben</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.置……于不利地位</t>
+    <rPh sb="2" eb="3">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bu li</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>di wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.涂掉，擦掉</t>
+    <rPh sb="2" eb="3">
+      <t>tu diao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ca diao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.弥补</t>
+    <rPh sb="2" eb="3">
+      <t>mi bu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.预测，推测</t>
+    <rPh sb="2" eb="3">
+      <t>yu ce</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tui ce</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pretentious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impervious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>colloquial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ravage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forfeit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voluminous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exposition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>antique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interminable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>demolish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drastic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>definitive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huckster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orchestrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>averse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.夸耀的，炫耀的</t>
+    <rPh sb="4" eb="5">
+      <t>kua yao de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xuan yao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自命不凡的，狂妄的</t>
+    <rPh sb="0" eb="1">
+      <t>zi ming bu fan de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>kuang wang de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不能渗透的；不为所动的</t>
+    <rPh sb="4" eb="5">
+      <t>bu neng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shen tou</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bu wei suo dong</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.口语的，口头的</t>
+    <rPh sb="4" eb="5">
+      <t>kou yu de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>kou tou</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.摧毁，使荒废</t>
+    <rPh sb="2" eb="3">
+      <t>cui hui</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>huang fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.哄诱，巧言诱哄</t>
+    <rPh sb="2" eb="3">
+      <t>hong pian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>you</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qiao yan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>you</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>hong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.丧失，被罚没收</t>
+    <rPh sb="2" eb="3">
+      <t>sang shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bei</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fa</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>mo shou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.丧失的东西</t>
+    <rPh sb="2" eb="3">
+      <t>sang hsi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dong xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.长篇的；大量的</t>
+    <rPh sb="4" eb="5">
+      <t>chang pian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>da liang de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.阐释；博览会</t>
+    <rPh sb="2" eb="3">
+      <t>chan shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bo lan hui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.古老的，古时的；n.古物，古董</t>
+    <rPh sb="4" eb="5">
+      <t>gu lao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gu shi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>gu wu</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>gu dong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.无止境的，没完没了的</t>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>mei wan mei liao</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.破坏，摧毁；拆除</t>
+    <rPh sb="2" eb="3">
+      <t>po huai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>cui hui</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chai chu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.猛烈的，激烈的</t>
+    <rPh sb="4" eb="5">
+      <t>meng lie</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ji lie</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.明确的，有权威的</t>
+    <rPh sb="4" eb="5">
+      <t>ming que</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>you</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>quan wei</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.叫卖小贩，零售商</t>
+    <rPh sb="2" eb="3">
+      <t>jiao fan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>mai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiao fan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ling shou</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>sahng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.给……配管弦乐；精心安排，组织</t>
+    <rPh sb="2" eb="3">
+      <t>gei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>pei</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>guan xian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>le</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jing xin</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>an pai</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>zu zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.反对的，不愿意的</t>
+    <rPh sb="4" eb="5">
+      <t>fan dui de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bu yuan yi de</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -15589,10 +16160,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B850"/>
+  <dimension ref="A1:B884"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A832" zoomScale="136" zoomScaleNormal="108" zoomScalePageLayoutView="108" workbookViewId="0">
-      <selection activeCell="B850" sqref="B850"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A717" zoomScale="136" zoomScaleNormal="108" zoomScalePageLayoutView="108" workbookViewId="0">
+      <selection activeCell="B884" sqref="B884"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22266,6 +22837,266 @@
       </c>
       <c r="B850" t="s">
         <v>1658</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A851" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B851" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="852" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A852" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B852" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B853" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B854" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="855" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A855" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B855" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A856" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B856" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A857" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B857" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A858" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B858" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="859" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A859" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B859" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="860" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A860" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B860" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="861" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A861" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B861" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A862" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B862" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A863" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B863" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A864" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B864" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A865" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B865" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A866" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B866" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A867" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B867" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B868" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A869" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B869" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A870" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B870" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A871" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B871" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A872" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B872" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A873" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B873" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B874" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A875" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B875" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="876" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A876" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B876" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="877" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A877" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B877" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="878" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A878" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B878" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="879" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A879" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B879" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A880" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B880" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="881" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A881" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B881" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="882" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A882" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B882" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="883" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A883" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B883" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="884" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A884" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B884" t="s">
+        <v>1722</v>
       </c>
     </row>
   </sheetData>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="1723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="1813">
   <si>
     <t>unit 22</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -15030,10 +15030,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>inposing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>satiated</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -15833,6 +15829,850 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>bu yuan yi de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ignominious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imposing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snippet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>befriend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>furtive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flourish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consternation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mitigant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preservative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>genial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thousandfold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.可耻的；耻辱的</t>
+    <rPh sb="4" eb="5">
+      <t>ke chi de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chi ru de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.小片，片段</t>
+    <rPh sb="2" eb="3">
+      <t>xiao pian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>pian duan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.以朋友态度对待</t>
+    <rPh sb="2" eb="3">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>peng you</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tai du</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>dui dai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.偷偷的，秘密的</t>
+    <rPh sb="4" eb="5">
+      <t>tou tou de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>mi mi de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.紧张，焦虑；张力</t>
+    <rPh sb="2" eb="3">
+      <t>jin zhang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jiao lü</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhang li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.繁荣，兴旺；活跃而有影响力</t>
+    <rPh sb="2" eb="3">
+      <t>fan rong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xing wang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>huo yue</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>er</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>you</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ying xiang li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.大为吃惊，惊骇</t>
+    <rPh sb="2" eb="3">
+      <t>da wei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>chi jing</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jing hai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.缓和的，减轻的；n.缓和物</t>
+    <rPh sb="4" eb="5">
+      <t>huan he</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jian qing de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>huan he</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.保护的；防腐的</t>
+    <rPh sb="4" eb="5">
+      <t>bao hu de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fang fu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.友好的，和蔼的</t>
+    <rPh sb="4" eb="5">
+      <t>you hao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>he ai</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj./adv.千倍的(地)</t>
+    <rPh sb="9" eb="10">
+      <t>qian bei</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>armored</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>affection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outstrip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chubby</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>underhanded</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tantamount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shrivel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>containment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>premise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attrition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elapse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allegiance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whittle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dissimilar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crooked</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>durable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.批甲的，装甲的</t>
+    <rPh sb="4" eb="5">
+      <t>pi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhuang jia</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.喜爱</t>
+    <rPh sb="2" eb="3">
+      <t>xi ai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.超过，超越；比……跑得快</t>
+    <rPh sb="2" eb="3">
+      <t>chao guo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chao yue</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>pao de kuai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.丰满的，圆胖的</t>
+    <rPh sb="4" eb="5">
+      <t>feng man</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yuan pang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.秘密的，狡诈的</t>
+    <rPh sb="4" eb="5">
+      <t>mi mi de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jiao zha</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.同等的，相当于</t>
+    <rPh sb="4" eb="5">
+      <t>tong deng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xiang dang yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.(使)枯萎</t>
+    <rPh sb="3" eb="4">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ku wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.阻止，遏制</t>
+    <rPh sb="2" eb="3">
+      <t>zu zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>e zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.前提</t>
+    <rPh sb="2" eb="3">
+      <t>qian ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.摩擦，磨损</t>
+    <rPh sb="2" eb="3">
+      <t>mo c</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mo shun</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>sun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.消逝，过去；n.消逝</t>
+    <rPh sb="2" eb="3">
+      <t>xiao shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>guo qu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xiao shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.忠诚，拥护</t>
+    <rPh sb="2" eb="3">
+      <t>zhong cheng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yong hu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.削(木头)；削减</t>
+    <rPh sb="2" eb="3">
+      <t>xiao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mu tou</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xue jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.嗡嗡地响；单调地说；n.单调的低音</t>
+    <rPh sb="2" eb="3">
+      <t>weng weng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>di</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xiang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>dan diao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>di</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shuo</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>dan diao</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>di yin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不同的，不相似的</t>
+    <rPh sb="4" eb="5">
+      <t>bu tong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bu xiang si</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xaing si</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不诚实的；弯曲的</t>
+    <rPh sb="4" eb="5">
+      <t>bu cheng shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>wan qu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.切割成锯齿状</t>
+    <rPh sb="2" eb="3">
+      <t>qie ge cheng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ju chi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhuang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.持久的；耐用的</t>
+    <rPh sb="4" eb="5">
+      <t>chi jiu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>nai yong de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ferment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>solicit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pitfall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>euphonious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atrophy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mitigate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mundane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>constituent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slothful</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ribaldry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>despondent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perspicacious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.鬼怪，幽灵；缠绕心头的恐惧，凶兆</t>
+    <rPh sb="2" eb="3">
+      <t>gui guai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>you ling</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chan rao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xin tou</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>kong ju</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>xiong zhao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使发酵；(使)激动人心,(使动乱)</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fa jiao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ji dong</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ren xin</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>dong luan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.发酵；骚动</t>
+    <rPh sb="2" eb="3">
+      <t>fa jiao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>sao dong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.恳求；教唆</t>
+    <rPh sb="2" eb="3">
+      <t>ken qiu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jiao suo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.陷阱，隐患</t>
+    <rPh sb="2" eb="3">
+      <t>xian jing</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yin huan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.切入，切割</t>
+    <rPh sb="2" eb="3">
+      <t>qie ru</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qie ge</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.悦耳的</t>
+    <rPh sb="4" eb="5">
+      <t>yue er</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.萎缩，衰退</t>
+    <rPh sb="2" eb="3">
+      <t>wei suo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shuai tui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使缓和，使减轻</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>huan he</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jian qing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.现世的，世俗的</t>
+    <rPh sb="4" eb="5">
+      <t>xian shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi su</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.成分；选区内的选民</t>
+    <rPh sb="2" eb="3">
+      <t>cheng fen</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xuan qu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>nei</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xuan min</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.迟钝的，懒惰的</t>
+    <rPh sb="4" eb="5">
+      <t>chi dun</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>lan duo</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.下流的语言，粗鄙的幽默</t>
+    <rPh sb="2" eb="3">
+      <t>xia liu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yu yan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>cu bi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>you mo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.失望的，意气消沉的</t>
+    <rPh sb="4" eb="5">
+      <t>shi wang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yi qi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xiao chen</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.(声音)刺耳的；恼人的</t>
+    <rPh sb="5" eb="6">
+      <t>sheng yin</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ci er</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>nao ren de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.独具慧眼的，敏锐的</t>
+    <rPh sb="4" eb="5">
+      <t>du ju hui yan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>min rui</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -16160,10 +17000,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B884"/>
+  <dimension ref="A1:B931"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A717" zoomScale="136" zoomScaleNormal="108" zoomScalePageLayoutView="108" workbookViewId="0">
-      <selection activeCell="B884" sqref="B884"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A912" zoomScale="136" zoomScaleNormal="108" zoomScalePageLayoutView="108" workbookViewId="0">
+      <selection activeCell="B931" sqref="B931"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22761,346 +23601,710 @@
     </row>
     <row r="841" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A841" t="s">
-        <v>1639</v>
+        <v>1724</v>
       </c>
       <c r="B841" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="842" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A842" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="B842" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A843" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="B843" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="844" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A844" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="B844" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="845" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A845" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="B845" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A846" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="B846" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A847" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="B847" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="848" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A848" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="B848" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="849" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A849" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="B849" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="850" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A850" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="B850" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="851" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A851" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="B851" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A852" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B852" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="853" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B853" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="854" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B854" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="855" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A855" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="B855" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="856" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A856" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="B856" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="857" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A857" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="B857" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="858" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A858" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="B858" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="859" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A859" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="B859" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="860" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A860" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="B860" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="861" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A861" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="B861" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="862" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A862" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="B862" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="863" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A863" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="B863" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="864" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A864" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="B864" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="865" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A865" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="B865" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="866" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A866" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="B866" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="867" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A867" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="B867" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="868" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B868" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="869" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A869" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="B869" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="870" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A870" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="B870" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="871" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A871" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="B871" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="872" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A872" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="B872" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="873" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A873" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="B873" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="874" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B874" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="875" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A875" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="B875" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="876" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A876" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="B876" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="877" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A877" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="B877" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="878" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A878" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="B878" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="879" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A879" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="B879" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="880" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A880" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="B880" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="881" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A881" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="B881" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="882" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A882" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="B882" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="883" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A883" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="B883" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="884" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A884" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="B884" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="886" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A886" s="1" t="s">
         <v>1722</v>
       </c>
+      <c r="B886" s="1"/>
+    </row>
+    <row r="887" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A887" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B887" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="888" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A888" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B888" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="889" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A889" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B889" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="890" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A890" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B890" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="891" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A891" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B891" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="892" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A892" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B892" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="893" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A893" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B893" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="894" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A894" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B894" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="895" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A895" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B895" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="896" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A896" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B896" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="897" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A897" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B897" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="898" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A898" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B898" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="899" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A899" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B899" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="900" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A900" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B900" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="901" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A901" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B901" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="902" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A902" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B902" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="903" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A903" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B903" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="904" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A904" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B904" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="905" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A905" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B905" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="906" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A906" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B906" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="907" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A907" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B907" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="908" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A908" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B908" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="909" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A909" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B909" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="910" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A910" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B910" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="911" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A911" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B911" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="912" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A912" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B912" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="913" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A913" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B913" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="914" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A914" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B914" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="915" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A915" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B915" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="916" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A916" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B916" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="917" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A917" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B917" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="918" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B918" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="919" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A919" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B919" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="920" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A920" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B920" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="921" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A921" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B921" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="922" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A922" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B922" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="923" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A923" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B923" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="924" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A924" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B924" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="925" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A925" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B925" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="926" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A926" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B926" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="927" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A927" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B927" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="928" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A928" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B928" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="929" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A929" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B929" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="930" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A930" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B930" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="931" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A931" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B931" t="s">
+        <v>1812</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="A886:B886"/>
     <mergeCell ref="A800:B800"/>
     <mergeCell ref="A717:B717"/>
     <mergeCell ref="A1:B1"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="1813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="1943">
   <si>
     <t>unit 22</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -16673,6 +16673,1194 @@
     </rPh>
     <rPh sb="12" eb="13">
       <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enviable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contention</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>withstand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desecrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inconsolable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vaulted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overbear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disconsolate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interlocking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>affirmation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>banish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equestrian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shiftless</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acidic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stoic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>episodic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>friend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.令人羡慕的</t>
+    <rPh sb="4" eb="5">
+      <t>ling ren</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xian mu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.争论；论点</t>
+    <rPh sb="2" eb="3">
+      <t>zheng lun</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>lun dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.反抗；经受</t>
+    <rPh sb="2" eb="3">
+      <t>fan kang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jing shou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.玷辱，亵渎</t>
+    <rPh sb="2" eb="3">
+      <t>dian wu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ru</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xie du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.无法慰藉的，悲痛欲绝的</t>
+    <rPh sb="4" eb="5">
+      <t>wu fa</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wei jie</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bei tong yu jue</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.拱形的</t>
+    <rPh sb="4" eb="5">
+      <t>gong xing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.压倒；镇压；比……重要，超过</t>
+    <rPh sb="2" eb="3">
+      <t>ya dao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhen ya</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zhong yao</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>chao guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.闷闷不乐的，郁郁寡欢的</t>
+    <rPh sb="4" eb="5">
+      <t>men men</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yu yu gua huan</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.连锁的；关联的</t>
+    <rPh sb="4" eb="5">
+      <t>lian suo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>guan lian</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.肯定；断言</t>
+    <rPh sb="2" eb="3">
+      <t>ken ding</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>duan yan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.放逐</t>
+    <rPh sb="2" eb="3">
+      <t>fang zhu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.骑马的；骑士阶层</t>
+    <rPh sb="4" eb="5">
+      <t>qi ma</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qi shi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jie ceng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.没出息的，懒惰的；无能的</t>
+    <rPh sb="4" eb="5">
+      <t>mei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chu xi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>lan duo</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>wu neng de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.酸的，酸性的</t>
+    <rPh sb="4" eb="5">
+      <t>suan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>suan xing de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.坚忍克己之人</t>
+    <rPh sb="2" eb="3">
+      <t>jian ren</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ke ji</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhi ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.偶然发生的；分散的</t>
+    <rPh sb="4" eb="5">
+      <t>ou ran</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fa sheng de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>fen san</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.赞助者，支持者</t>
+    <rPh sb="2" eb="3">
+      <t>zan zhu zhe</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhi chi zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slimy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coarse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ragged</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>concentric</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>piousness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>virulence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aptitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>revoke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>garish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prosecute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>breach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>critic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equivoval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inexorable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>redeem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.黏滑的</t>
+    <rPh sb="4" eb="5">
+      <t>nian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hua</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.粗糙的；低劣的；粗俗的</t>
+    <rPh sb="4" eb="5">
+      <t>cu zai de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>cao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>di lie</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>d</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>cu su</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.褴褛的，破烂的</t>
+    <rPh sb="4" eb="5">
+      <t>lan lü</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>po lan de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.同心的(having a common center)</t>
+    <rPh sb="4" eb="5">
+      <t>tong xin</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.虔诚</t>
+    <rPh sb="2" eb="3">
+      <t>qian cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.恶意，毒性</t>
+    <rPh sb="2" eb="3">
+      <t>e yi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>du xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.适宜；才能，资质</t>
+    <rPh sb="2" eb="3">
+      <t>shi yi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>cai neng</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zi zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.撤销，废除；召回</t>
+    <rPh sb="2" eb="3">
+      <t>che xiao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fei chu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhao hui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.俗丽的，过于艳丽的</t>
+    <rPh sb="4" eb="5">
+      <t>su</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>li</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>guo yu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yan li</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.起诉；告发</t>
+    <rPh sb="2" eb="3">
+      <t>qi su</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gao fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.打破，突破；违背</t>
+    <rPh sb="2" eb="3">
+      <t>da po</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tu po</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wei bei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.裂缝，缺口</t>
+    <rPh sb="2" eb="3">
+      <t>lie feng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>que kou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.批评者</t>
+    <rPh sb="2" eb="3">
+      <t>pi ping z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.模棱两可的；不明确的；不确定的</t>
+    <rPh sb="4" eb="5">
+      <t>mo leng liang ke</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bu ming que</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>bu que ding</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不为所动的</t>
+    <rPh sb="4" eb="5">
+      <t>bu wei</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>suo dong de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.弥补，赎回，偿还</t>
+    <rPh sb="2" eb="3">
+      <t>mi bu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shu hui</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chang huan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>collateral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incapacitate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultrasonic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overpowering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>revert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confidently</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hamper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.平行的；附属的；旁系的</t>
+    <rPh sb="4" eb="5">
+      <t>ping xing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>d</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fu shu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>pang xi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.担保品</t>
+    <rPh sb="2" eb="3">
+      <t>dan bao pin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使无能力，使不适合</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wu neng li</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shi he</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.超音速的</t>
+    <rPh sb="4" eb="5">
+      <t>chao yin su</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.压倒性的，不可抗拒的</t>
+    <rPh sb="4" eb="5">
+      <t>ya dao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bu ke</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>kang ju</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.恢复，回复到；重新考虑</t>
+    <rPh sb="2" eb="3">
+      <t>hui fu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hui fu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>chong xin</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>kao lü</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adv.确信地；肯定地</t>
+    <rPh sb="4" eb="5">
+      <t>que xin</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>di</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ken ding</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.妨碍，阻挠；n.(有盖的)大篮子</t>
+    <rPh sb="2" eb="3">
+      <t>fang ai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zu nao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>you gai</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>da lan zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>axiom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>viable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>undistorted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exploit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duplicity</t>
+  </si>
+  <si>
+    <t>n.公理；定理</t>
+    <rPh sb="2" eb="3">
+      <t>gong li</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>li</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ding li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.赞美歌，颂歌</t>
+    <rPh sb="2" eb="3">
+      <t>zan mei ge</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>song ge</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.切实可行的；能活下去的</t>
+    <rPh sb="4" eb="5">
+      <t>qie shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ke xing</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>neng huo xia qu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.小缺点，小毛病</t>
+    <rPh sb="2" eb="3">
+      <t>xiao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>que dian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xiao mao bing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.未失真的</t>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.英勇行为</t>
+    <rPh sb="2" eb="3">
+      <t>ying yong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xing wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.剥削；充分利用</t>
+    <rPh sb="2" eb="3">
+      <t>bo xue</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chong fen</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>li yong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.欺骗，口是心非</t>
+    <rPh sb="2" eb="3">
+      <t>qi pian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>kou shi xin fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>surrogate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>narcotic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emphatic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>restore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>penetrating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vital</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decadence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aloof</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blatant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>braid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fraudulent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elementary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clamber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.代替品；代理人</t>
+    <rPh sb="2" eb="3">
+      <t>dai ti pin</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dai li ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.麻醉剂；adj.麻醉的，催眠的</t>
+    <rPh sb="2" eb="3">
+      <t>ma zui ji</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ma zui de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>cui mian de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.重视的，强调的</t>
+    <rPh sb="4" eb="5">
+      <t>zhong shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.短暂的，转瞬即逝的</t>
+    <rPh sb="4" eb="5">
+      <t>duan zan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhuan shun ji shi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.责难；贬低</t>
+    <rPh sb="2" eb="3">
+      <t>ze nan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bian di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使回复，恢复，修复，修补</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>hui fu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>hui fu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xiu fu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>xiu bu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.(声音)洪亮的，尖锐的</t>
+    <rPh sb="5" eb="6">
+      <t>sheng yin</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>hong liang de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>jian rui de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(气味)刺激的</t>
+    <rPh sb="1" eb="2">
+      <t>qi wei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ci ji de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(思想)敏锐的，有洞察力的</t>
+    <rPh sb="1" eb="2">
+      <t>si xiang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>you</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>dong cha li</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.极其重要的；充满活力的</t>
+    <rPh sb="4" eb="5">
+      <t>ji qi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhong yao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>chong man</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>huo li</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.衰落，颓废</t>
+    <rPh sb="2" eb="3">
+      <t>shuai luo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tui fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.远离的；冷淡的，冷漠的</t>
+    <rPh sb="4" eb="5">
+      <t>yuan li</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>leng dan de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>leng mo</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.厚颜无耻的；显眼的；炫耀的</t>
+    <rPh sb="4" eb="5">
+      <t>hou yan wu chi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xian yan</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>xuan yao</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.编织；n.穗子；发辫</t>
+    <rPh sb="2" eb="3">
+      <t>bian zhi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>sui</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>fa bian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.欺骗的，不诚实的</t>
+    <rPh sb="4" eb="5">
+      <t>qi pian de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bu cheng hsi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.初级的</t>
+    <rPh sb="4" eb="5">
+      <t>chu ji</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.干旱的；枯燥的</t>
+    <rPh sb="4" eb="5">
+      <t>gan han</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ku zao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.吃力地爬上，攀登</t>
+    <rPh sb="2" eb="3">
+      <t>chi li</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>di</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>pa shang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>pan deng</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -17000,10 +18188,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B931"/>
+  <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A912" zoomScale="136" zoomScaleNormal="108" zoomScalePageLayoutView="108" workbookViewId="0">
-      <selection activeCell="B931" sqref="B931"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A981" zoomScale="136" zoomScaleNormal="108" zoomScalePageLayoutView="108" workbookViewId="0">
+      <selection activeCell="B1001" sqref="B1001"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24302,8 +25490,536 @@
         <v>1812</v>
       </c>
     </row>
+    <row r="932" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A932" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B932" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="933" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A933" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B933" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="934" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A934" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B934" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="935" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A935" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B935" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="936" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A936" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B936" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="937" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A937" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B937" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="938" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A938" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B938" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="939" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A939" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B939" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="940" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A940" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B940" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="941" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A941" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B941" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="942" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A942" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B942" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="943" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A943" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B943" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="944" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A944" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B944" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="945" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A945" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B945" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="946" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A946" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B946" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="947" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A947" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B947" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="948" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A948" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B948" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="949" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A949" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B949" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="950" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A950" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B950" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="951" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A951" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B951" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="952" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A952" t="s">
+        <v>1850</v>
+      </c>
+      <c r="B952" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="953" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A953" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B953" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="954" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A954" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B954" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="955" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A955" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B955" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="956" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A956" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B956" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="957" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A957" t="s">
+        <v>1855</v>
+      </c>
+      <c r="B957" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="958" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A958" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B958" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="959" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A959" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B959" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="960" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B960" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="961" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A961" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B961" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="962" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A962" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B962" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="963" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A963" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B963" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="964" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A964" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B964" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="965" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A965" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B965" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="966" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B966" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="967" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A967" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B967" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="968" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A968" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B968" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="969" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A969" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B969" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="970" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A970" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B970" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="971" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A971" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B971" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="972" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A972" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B972" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="974" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A974" s="1" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B974" s="1"/>
+    </row>
+    <row r="975" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A975" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B975" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="976" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A976" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B976" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="977" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A977" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B977" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="978" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A978" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B978" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="979" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A979" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B979" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="980" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A980" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B980" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="981" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B981" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="982" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A982" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B982" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="983" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A983" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B983" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="984" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A984" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B984" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="985" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A985" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B985" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="986" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A986" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B986" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="987" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A987" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B987" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="988" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A988" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B988" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="989" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A989" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B989" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="990" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B990" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="991" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B991" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="992" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A992" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B992" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="993" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A993" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B993" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="994" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A994" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B994" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="995" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A995" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B995" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="996" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A996" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B996" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="997" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A997" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B997" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="998" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A998" t="s">
+        <v>1922</v>
+      </c>
+      <c r="B998" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="999" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A999" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B999" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1000" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>1942</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="A974:B974"/>
     <mergeCell ref="A886:B886"/>
     <mergeCell ref="A800:B800"/>
     <mergeCell ref="A717:B717"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14160" tabRatio="500"/>
+    <workbookView xWindow="400" yWindow="560" windowWidth="15400" windowHeight="14160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$A$1038</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="1943">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2073" uniqueCount="2073">
   <si>
     <t>unit 22</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -8159,10 +8162,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>deprecatoty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>quantum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -17018,10 +17017,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>breach</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>critic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -17408,10 +17403,6 @@
     <rPh sb="15" eb="16">
       <t>da lan zi</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unit 10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -17861,6 +17852,1279 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>pan deng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self-procession</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spiny</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>die</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intrigue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>generic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equilibrium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>courteous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fraught</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amalgam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recluse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hackneyed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monopolize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.自行队列</t>
+    <rPh sb="2" eb="3">
+      <t>zi xing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dui lie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.针状的；多刺的，棘手的</t>
+    <rPh sb="4" eb="5">
+      <t>zhen zhuang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>duo ci de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ci</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ji shou</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.金属模子，金属印模</t>
+    <rPh sb="2" eb="3">
+      <t>jin shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mu zi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jin shu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yin</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>mu ban</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.忘恩负义的人</t>
+    <rPh sb="2" eb="3">
+      <t>wang en fu yi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.密谋；引起……的兴趣</t>
+    <rPh sb="2" eb="3">
+      <t>mi mou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yin qi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xing qu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.种类的，类属的</t>
+    <rPh sb="4" eb="5">
+      <t>zhong lei</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>lei shu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.平衡</t>
+    <rPh sb="2" eb="3">
+      <t>ping heng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.有礼貌的</t>
+    <rPh sb="4" eb="5">
+      <t>you</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>li mao de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.陪伴；结交；n.配偶</t>
+    <rPh sb="2" eb="3">
+      <t>pei ban</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jie jiao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>pei ou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不鲜明的；迟钝的；乏味的</t>
+    <rPh sb="4" eb="5">
+      <t>bu xian ming</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>chi dun de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>fa wei</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.变迟钝</t>
+    <rPh sb="2" eb="3">
+      <t>bian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chi dun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.充满的</t>
+    <rPh sb="4" eb="5">
+      <t>chong man de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.混合物</t>
+    <rPh sb="2" eb="3">
+      <t>hun he wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.隐士；adj.隐居的</t>
+    <rPh sb="2" eb="3">
+      <t>yin shi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yin ju</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.求助，诉诸；n.度假胜地</t>
+    <rPh sb="2" eb="3">
+      <t>qiu zhu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>su zhu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>du jia</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>sheng di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.陈腐的，老一套的</t>
+    <rPh sb="8" eb="9">
+      <t>lao yi tao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.垄断，独占</t>
+    <rPh sb="2" eb="3">
+      <t>long duan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>du zhan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brazen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abbreviate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frantic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>synergic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subdued</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recessive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reconnaissance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>institute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abridge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>peevish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cater</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imbue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>astray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impassioned</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>restive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fictitious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>breach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deprecatory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.厚脸皮的</t>
+    <rPh sb="4" eb="5">
+      <t>hou lian pi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.缩短；缩写</t>
+    <rPh sb="2" eb="3">
+      <t>suo duan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>suo xie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.疯狂的，狂乱的</t>
+    <rPh sb="4" eb="5">
+      <t>feng kuang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>kuang luan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.协同作用的</t>
+    <rPh sb="4" eb="5">
+      <t>xie tong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zuo yong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(人)温和的</t>
+    <rPh sb="1" eb="2">
+      <t>ren</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wen he</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.(光和声)柔和的，缓和的</t>
+    <rPh sb="5" eb="6">
+      <t>guang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>he</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>sheng</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>rou he</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>huan he</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.隐性遗传的；后退的</t>
+    <rPh sb="4" eb="5">
+      <t>yin xing</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yi chuan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>hou tui</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.侦查，预先勘查</t>
+    <rPh sb="2" eb="3">
+      <t>zhen cha</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yu xian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>kan cha</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.设立，创立(社团等)；制定(政策等)</t>
+    <rPh sb="2" eb="3">
+      <t>she li</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chaung li</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>she tuan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zhi ding</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>zheng ce</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>deng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.学院，学会，协会</t>
+    <rPh sb="2" eb="3">
+      <t>xue yuan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xue hui</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xie hui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.删减；缩短</t>
+    <rPh sb="2" eb="3">
+      <t>shan jian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>suo duan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.自满的，自命不凡的</t>
+    <rPh sb="4" eb="5">
+      <t>zi man</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zi ming</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bu fan de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不满的，抱怨的</t>
+    <rPh sb="4" eb="5">
+      <t>bu man</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bao yuan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴躁的，坏脾气的，易怒的</t>
+    <rPh sb="0" eb="1">
+      <t>bao zao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>huai oi qi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yi nu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.迎合；提供饮食服务</t>
+    <rPh sb="2" eb="3">
+      <t>ying he</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ti gong</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yin shi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>fu wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.浸染，浸透；使充满</t>
+    <rPh sb="2" eb="3">
+      <t>jin ran</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jin tou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灌输，激发</t>
+    <rPh sb="0" eb="1">
+      <t>guan shu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ji fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.迷路的，误入歧途的</t>
+    <rPh sb="4" eb="5">
+      <t>mi lu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wu ru qi tu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.充满激情的，慷慨激昂的</t>
+    <rPh sb="4" eb="5">
+      <t>chong man</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ji qing</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>kang kai</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ji ang</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不安静的，不安宁的</t>
+    <rPh sb="4" eb="5">
+      <t>bu an</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jing</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bu an ning</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.假的；虚构的</t>
+    <rPh sb="4" eb="5">
+      <t>jia de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xu gou</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preoccupation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apparition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xenophobic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emulate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hot-tempered</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attenuation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perquisite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>haggle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>falter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>affable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flustered</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>peripatetic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indigence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>composed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.全神贯注，专注；使人专注的东西</t>
+    <rPh sb="2" eb="3">
+      <t>quan shen guan zhu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhuan zhu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shi ren</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zhuan zhu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>dong xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.幽灵；特异景象</t>
+    <rPh sb="2" eb="3">
+      <t>you lign</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>te yi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jing xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.恐外的，恐惧外国人的</t>
+    <rPh sb="4" eb="5">
+      <t>kong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>kong ju</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wai guo ren</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.用指轻弹；蹦蹦跳跳</t>
+    <rPh sb="2" eb="3">
+      <t>yong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>qing tan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>beng beng</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>tiao tiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.无礼的；冒失的；轻率的</t>
+    <rPh sb="4" eb="5">
+      <t>wu li</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>mao shi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>qing shuai</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.与……竞争，努力赶上</t>
+    <rPh sb="2" eb="3">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jing zheng</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>nu li</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gan shang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.性急的，易怒的，暴躁的</t>
+    <rPh sb="4" eb="5">
+      <t>xing ji</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yi nu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>bao zao</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.变瘦；减少；减弱</t>
+    <rPh sb="2" eb="3">
+      <t>bain shou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jian shao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jian ruo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.额外收入，津贴；小费</t>
+    <rPh sb="2" eb="3">
+      <t>e wai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shou ru</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jin tie</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.讨价还价</t>
+    <rPh sb="2" eb="3">
+      <t>tao jia huan jia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.蹒跚；支吾的说</t>
+    <rPh sb="2" eb="3">
+      <t>pan shan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhi wu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.和蔼的；友善的</t>
+    <rPh sb="4" eb="5">
+      <t>he ai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>you shan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.慌张的，激动不安的</t>
+    <rPh sb="4" eb="5">
+      <t>huang zhang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ji dong</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bu an</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.巡游的，流动的</t>
+    <rPh sb="4" eb="5">
+      <t>xun you</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>liu dong de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.贫穷，穷困</t>
+    <rPh sb="2" eb="3">
+      <t>pin qiong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qiong kun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.镇静的，沉着的；由……组成</t>
+    <rPh sb="4" eb="5">
+      <t>zhen jing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chen zhuo</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>you</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>zu cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inimical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apposite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>innocuous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>illicit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swampy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>persevere</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fortitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tenuous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>folklore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blighted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>banal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forestall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glutinous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contemplate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.敌意的，不友善的</t>
+    <rPh sb="4" eb="5">
+      <t>di yi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bu you shan</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.适当的，贴切的</t>
+    <rPh sb="4" eb="5">
+      <t>shi dang de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tie qie</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.(行为、言论等)无害的</t>
+    <rPh sb="5" eb="6">
+      <t>xing wei</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yan lun</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>wu hai</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.违法的</t>
+    <rPh sb="4" eb="5">
+      <t>wei fa</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.早泽的，湿地的</t>
+    <rPh sb="4" eb="5">
+      <t>zao ze</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi di</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.坚持不懈</t>
+    <rPh sb="2" eb="3">
+      <t>jian chi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bu xie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.坚毅，坚忍不拔</t>
+    <rPh sb="2" eb="3">
+      <t>jian yi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jian ren bu ba</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.纤细的；稀薄的；脆弱的，无力的</t>
+    <rPh sb="4" eb="5">
+      <t>xian xi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xi bo</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>cui ruo</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>wu li de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.民间传说；民俗学</t>
+    <rPh sb="2" eb="3">
+      <t>min jian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>chuan shuo</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>min su xue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.枯萎的</t>
+    <rPh sb="4" eb="5">
+      <t>ku wei</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.乏味的，陈腐的</t>
+    <rPh sb="4" eb="5">
+      <t>fa wei</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chen fu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.预先阻止，先发制人</t>
+    <rPh sb="2" eb="3">
+      <t>yu xian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zu zhi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xian fa zhi ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.黏的，胶状的</t>
+    <rPh sb="4" eb="5">
+      <t>nian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jiao zhuang de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.深思；凝视</t>
+    <rPh sb="2" eb="3">
+      <t>shen si</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>nign shi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -18188,15 +19452,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1000"/>
+  <dimension ref="A1:B1068"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A981" zoomScale="136" zoomScaleNormal="108" zoomScalePageLayoutView="108" workbookViewId="0">
-      <selection activeCell="B1001" sqref="B1001"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A1048" zoomScale="136" zoomScaleNormal="108" zoomScalePageLayoutView="108" workbookViewId="0">
+      <selection activeCell="B1061" sqref="B1061"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -21847,7 +23111,7 @@
         <v>907</v>
       </c>
       <c r="B464" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
@@ -21855,4166 +23119,4692 @@
         <v>908</v>
       </c>
       <c r="B465" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>909</v>
+        <v>1992</v>
       </c>
       <c r="B466" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B467" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B468" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
+        <v>911</v>
+      </c>
+      <c r="B469" t="s">
         <v>912</v>
-      </c>
-      <c r="B469" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B470" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B471" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B472" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B473" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B474" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B475" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B476" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B477" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B479" s="1"/>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B480" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B481" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B482" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B483" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B484" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B485" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B486" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B487" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B488" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B489" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B490" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B491" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B492" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B493" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B494" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B495" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B496" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B497" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B498" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B499" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B500" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B501" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B502" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B503" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B504" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B505" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B506" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B507" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B508" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B509" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B510" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B511" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B512" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B513" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B514" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B515" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B516" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B517" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B518" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B519" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B520" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B521" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B522" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B523" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B524" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B525" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B526" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B527" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B528" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B529" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B530" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B531" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B532" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B533" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B534" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B535" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B536" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B537" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B538" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B539" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B540" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B541" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B542" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B543" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B544" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B545" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B546" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B547" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B548" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B549" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B550" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B551" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B552" t="s">
         <v>1074</v>
-      </c>
-      <c r="B552" t="s">
-        <v>1075</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A554" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B554" s="1"/>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B555" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B556" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B557" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B558" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B559" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B560" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B561" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B562" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B563" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B564" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B565" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B566" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B567" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B568" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B569" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B570" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B571" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B572" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B573" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B574" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B575" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B576" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B577" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B578" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B579" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B580" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B581" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B582" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B583" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B584" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B585" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B586" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B587" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B588" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B589" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B590" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B591" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B592" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B593" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B594" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B595" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B596" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B597" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B598" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B599" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B600" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B601" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B602" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B603" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B604" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B605" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B606" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B607" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B608" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B609" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B610" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B611" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B612" t="s">
         <v>1190</v>
-      </c>
-      <c r="B612" t="s">
-        <v>1191</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B613" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B614" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B615" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B616" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B617" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B618" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B619" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B620" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B621" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B622" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B623" t="s">
         <v>1208</v>
-      </c>
-      <c r="B623" t="s">
-        <v>1209</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B624" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B625" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B626" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B627" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B628" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A630" s="1" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B630" s="1"/>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B631" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B632" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B633" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B634" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B635" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B636" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B637" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B638" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B639" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B640" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B641" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B642" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B643" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B644" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B645" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B646" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B647" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B648" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B649" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B650" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B651" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B652" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B653" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B654" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B655" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B656" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B657" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B658" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B659" t="s">
         <v>1265</v>
-      </c>
-      <c r="B659" t="s">
-        <v>1266</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="B660" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="B661" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B662" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B663" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B664" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B665" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="B666" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="B667" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B668" t="s">
         <v>1302</v>
-      </c>
-      <c r="B668" t="s">
-        <v>1303</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="B669" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="B670" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B671" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="B672" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="B673" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="B674" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="B675" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B676" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B677" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="B678" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="B679" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="B680" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="B681" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="B682" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B683" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B684" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B685" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="B686" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B687" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B688" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="B689" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="B690" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="B691" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B692" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="B693" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="B694" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="B695" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="B696" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B697" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="B698" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B699" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="B700" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="B701" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="B702" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B703" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="B704" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="B705" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="B706" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B707" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="B708" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="B709" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B710" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B711" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="B712" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="B713" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="B714" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="B715" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A717" s="1" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="B717" s="1"/>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="B718" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B719" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B720" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B721" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B722" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="B723" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B724" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B725" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B726" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B727" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B728" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B729" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B730" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B731" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B732" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="B733" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="B734" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B735" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B736" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B737" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="B738" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="B739" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="B740" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="B741" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="B742" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="B743" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="B744" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="B745" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="B746" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="B747" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="B748" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="B749" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="B750" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="B751" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="B752" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="B753" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="B754" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="B755" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B756" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="B757" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="B758" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="B759" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="B760" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="B761" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="B762" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="B763" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="B764" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B765" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B766" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="B767" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="B768" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A769" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="B769" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A770" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="B770" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A771" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="B771" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A772" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="B772" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A773" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="B773" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A774" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B774" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A775" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="B775" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A776" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="B776" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A777" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="B777" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A778" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="B778" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A779" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="B779" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A780" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="B780" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A781" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="B781" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A782" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="B782" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A783" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="B783" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A784" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="B784" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A785" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B785" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A786" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="B786" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A787" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="B787" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A788" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="B788" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A789" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B789" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A790" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="B790" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A791" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="B791" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A792" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="B792" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A793" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B793" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A794" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="B794" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A795" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="B795" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A796" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="B796" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A797" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="B797" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A798" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="B798" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A800" s="1" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="B800" s="1"/>
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A801" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="B801" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A802" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="B802" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A803" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="B803" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A804" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="B804" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A805" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="B805" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A806" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="B806" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A807" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="B807" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A808" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="B808" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A809" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="B809" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A810" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="B810" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A811" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="B811" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A812" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="B812" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A813" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B813" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A814" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="B814" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A815" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="B815" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A816" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="B816" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A817" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="B817" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A818" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="B818" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="819" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A819" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="B819" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="820" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A820" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="B820" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="821" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A821" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="B821" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="822" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A822" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="B822" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="823" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A823" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="B823" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="824" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A824" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="B824" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="825" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A825" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="B825" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="826" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A826" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="B826" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="827" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A827" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="B827" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="828" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A828" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="B828" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="829" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A829" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="B829" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="830" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A830" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="B830" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="831" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A831" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="B831" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="832" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A832" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="B832" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="833" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A833" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="B833" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="834" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A834" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B834" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="835" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A835" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="B835" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="836" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A836" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="B836" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="837" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B837" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="838" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B838" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="839" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A839" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="B839" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="840" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A840" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="B840" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="841" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A841" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="B841" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="842" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A842" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="B842" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A843" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="B843" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="844" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A844" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="B844" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="845" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A845" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="B845" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A846" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="B846" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A847" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="B847" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="848" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A848" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="B848" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="849" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A849" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="B849" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="850" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A850" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="B850" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="851" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A851" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="B851" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A852" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="B852" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="853" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B853" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="854" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B854" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="855" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A855" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B855" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="856" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A856" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="B856" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="857" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A857" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="B857" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="858" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A858" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="B858" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="859" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A859" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="B859" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="860" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A860" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="B860" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="861" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A861" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="B861" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="862" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A862" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="B862" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="863" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A863" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="B863" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="864" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A864" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="B864" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="865" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A865" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="B865" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="866" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A866" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="B866" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="867" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A867" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="B867" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="868" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B868" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="869" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A869" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="B869" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="870" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A870" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="B870" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="871" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A871" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="B871" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="872" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A872" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="B872" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="873" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A873" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="B873" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="874" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B874" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="875" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A875" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="B875" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="876" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A876" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="B876" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="877" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A877" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="B877" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="878" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A878" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="B878" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="879" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A879" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="B879" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="880" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A880" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="B880" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="881" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A881" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="B881" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="882" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A882" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="B882" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="883" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A883" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="B883" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="884" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A884" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="B884" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="886" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A886" s="1" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B886" s="1"/>
     </row>
     <row r="887" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A887" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="B887" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="888" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A888" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="B888" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="889" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A889" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="B889" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="890" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A890" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="B890" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="891" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A891" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="B891" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="892" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A892" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="B892" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="893" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A893" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="B893" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="894" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A894" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="B894" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="895" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A895" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="B895" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="896" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A896" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="B896" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="897" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A897" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="B897" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="898" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A898" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="B898" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="899" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A899" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="B899" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="900" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A900" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="B900" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="901" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A901" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="B901" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="902" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A902" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="B902" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="903" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A903" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="B903" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="904" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A904" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B904" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="905" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A905" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="B905" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="906" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A906" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="B906" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="907" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A907" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="B907" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="908" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A908" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B908" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="909" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A909" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="B909" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="910" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A910" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="B910" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="911" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A911" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="B911" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="912" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A912" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="B912" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="913" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A913" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="B913" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="914" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A914" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="B914" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="915" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A915" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="B915" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="916" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A916" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="B916" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="917" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A917" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="B917" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="918" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B918" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="919" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A919" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="B919" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="920" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A920" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="B920" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="921" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A921" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="B921" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="922" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A922" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="B922" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="923" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A923" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="B923" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="924" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A924" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="B924" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="925" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A925" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="B925" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="926" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A926" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="B926" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="927" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A927" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="B927" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="928" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A928" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="B928" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="929" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A929" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="B929" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="930" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A930" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="B930" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="931" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A931" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="B931" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="932" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A932" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="B932" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="933" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A933" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="B933" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="934" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A934" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="B934" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="935" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A935" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="B935" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="936" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A936" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="B936" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="937" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A937" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="B937" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="938" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A938" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="B938" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="939" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A939" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="B939" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="940" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A940" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="B940" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="941" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A941" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="B941" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="942" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A942" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="B942" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="943" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A943" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="B943" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="944" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A944" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="B944" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="945" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A945" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="B945" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="946" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A946" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="B946" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="947" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A947" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="B947" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="948" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A948" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="B948" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="949" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A949" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="B949" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="950" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A950" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="B950" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="951" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A951" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="B951" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="952" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A952" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="B952" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="953" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A953" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="B953" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="954" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A954" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="B954" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="955" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A955" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="B955" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="956" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A956" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="B956" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="957" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A957" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="B957" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="958" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A958" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="B958" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="959" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A959" t="s">
-        <v>1857</v>
+        <v>1991</v>
       </c>
       <c r="B959" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="960" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B960" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="961" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A961" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
       <c r="B961" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="962" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A962" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="B962" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="963" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A963" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
       <c r="B963" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="964" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A964" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
       <c r="B964" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="965" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A965" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="B965" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="966" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B966" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="967" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A967" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="B967" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="968" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A968" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="B968" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="969" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A969" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="B969" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="970" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A970" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
       <c r="B970" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="971" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A971" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="B971" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="972" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A972" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="B972" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="974" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A974" s="1" t="s">
-        <v>1893</v>
+        <v>1940</v>
       </c>
       <c r="B974" s="1"/>
     </row>
     <row r="975" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A975" t="s">
-        <v>1894</v>
+        <v>1891</v>
       </c>
       <c r="B975" t="s">
-        <v>1901</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="976" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A976" t="s">
-        <v>1895</v>
+        <v>1892</v>
       </c>
       <c r="B976" t="s">
-        <v>1902</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="977" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A977" t="s">
-        <v>1896</v>
+        <v>1893</v>
       </c>
       <c r="B977" t="s">
-        <v>1903</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="978" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A978" t="s">
-        <v>1897</v>
+        <v>1894</v>
       </c>
       <c r="B978" t="s">
-        <v>1904</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="979" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A979" t="s">
-        <v>1898</v>
+        <v>1895</v>
       </c>
       <c r="B979" t="s">
-        <v>1905</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="980" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A980" t="s">
-        <v>1899</v>
+        <v>1896</v>
       </c>
       <c r="B980" t="s">
-        <v>1906</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="981" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B981" t="s">
-        <v>1907</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="982" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A982" t="s">
-        <v>1900</v>
+        <v>1897</v>
       </c>
       <c r="B982" t="s">
-        <v>1908</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="983" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A983" t="s">
-        <v>1909</v>
+        <v>1906</v>
       </c>
       <c r="B983" t="s">
-        <v>1925</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="984" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A984" t="s">
-        <v>1910</v>
+        <v>1907</v>
       </c>
       <c r="B984" t="s">
-        <v>1926</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="985" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A985" t="s">
-        <v>1911</v>
+        <v>1908</v>
       </c>
       <c r="B985" t="s">
-        <v>1927</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="986" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A986" t="s">
-        <v>1912</v>
+        <v>1909</v>
       </c>
       <c r="B986" t="s">
-        <v>1928</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="987" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A987" t="s">
-        <v>1913</v>
+        <v>1910</v>
       </c>
       <c r="B987" t="s">
-        <v>1929</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="988" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A988" t="s">
-        <v>1914</v>
+        <v>1911</v>
       </c>
       <c r="B988" t="s">
-        <v>1930</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="989" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A989" t="s">
-        <v>1915</v>
+        <v>1912</v>
       </c>
       <c r="B989" t="s">
-        <v>1931</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="990" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B990" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="991" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B991" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="992" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A992" t="s">
-        <v>1916</v>
+        <v>1913</v>
       </c>
       <c r="B992" t="s">
-        <v>1934</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="993" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A993" t="s">
-        <v>1917</v>
+        <v>1914</v>
       </c>
       <c r="B993" t="s">
-        <v>1935</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="994" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A994" t="s">
-        <v>1918</v>
+        <v>1915</v>
       </c>
       <c r="B994" t="s">
-        <v>1936</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="995" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A995" t="s">
-        <v>1919</v>
+        <v>1916</v>
       </c>
       <c r="B995" t="s">
-        <v>1937</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="996" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A996" t="s">
-        <v>1920</v>
+        <v>1917</v>
       </c>
       <c r="B996" t="s">
-        <v>1938</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="997" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A997" t="s">
-        <v>1921</v>
+        <v>1918</v>
       </c>
       <c r="B997" t="s">
-        <v>1939</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="998" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A998" t="s">
-        <v>1922</v>
+        <v>1919</v>
       </c>
       <c r="B998" t="s">
-        <v>1940</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="999" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A999" t="s">
-        <v>1923</v>
+        <v>1920</v>
       </c>
       <c r="B999" t="s">
-        <v>1941</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1000" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1000" t="s">
-        <v>1924</v>
+        <v>1921</v>
       </c>
       <c r="B1000" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1001" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1002" t="s">
         <v>1942</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1003" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1004" t="s">
+        <v>1944</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1005" t="s">
+        <v>1945</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1006" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1007" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1008" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1009" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1010" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1011" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1012" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1013" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1014" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1015" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1016" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1017" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B1017" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1018" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B1018" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1019" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B1019" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1020" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B1020" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1021" t="s">
+        <v>1977</v>
+      </c>
+      <c r="B1021" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1022" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B1022" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1023" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1024" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B1024" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1025" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B1025" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1026" t="s">
+        <v>1981</v>
+      </c>
+      <c r="B1026" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1027" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1028" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B1028" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1029" t="s">
+        <v>1983</v>
+      </c>
+      <c r="B1029" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1030" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B1030" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1031" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1032" t="s">
+        <v>1985</v>
+      </c>
+      <c r="B1032" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1033" t="s">
+        <v>1986</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1034" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1035" t="s">
+        <v>1987</v>
+      </c>
+      <c r="B1035" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1036" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1037" t="s">
+        <v>1989</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1038" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1039" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1040" t="s">
+        <v>2015</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1041" t="s">
+        <v>2016</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1042" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1043" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1044" t="s">
+        <v>2018</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1045" t="s">
+        <v>2019</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1046" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1047" t="s">
+        <v>2021</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1048" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1049" t="s">
+        <v>2023</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1050" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1051" t="s">
+        <v>2025</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1052" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1053" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1054" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1055" t="s">
+        <v>2045</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1056" t="s">
+        <v>2046</v>
+      </c>
+      <c r="B1056" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1057" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B1057" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1058" t="s">
+        <v>2048</v>
+      </c>
+      <c r="B1058" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1059" t="s">
+        <v>2049</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1060" t="s">
+        <v>2050</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1061" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B1061" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1062" t="s">
+        <v>2052</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1063" t="s">
+        <v>2053</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1064" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B1064" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1065" t="s">
+        <v>2055</v>
+      </c>
+      <c r="B1065" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1066" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B1066" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1067" t="s">
+        <v>2057</v>
+      </c>
+      <c r="B1067" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1068" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B1068" t="s">
+        <v>2072</v>
       </c>
     </row>
   </sheetData>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="400" yWindow="560" windowWidth="15400" windowHeight="14160" tabRatio="500"/>
+    <workbookView xWindow="400" yWindow="460" windowWidth="15400" windowHeight="14160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2073" uniqueCount="2073">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2075" uniqueCount="2075">
   <si>
     <t>unit 22</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -19125,6 +19125,32 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>nign shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stately</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.庄严的，堂皇的；宏伟的</t>
+    <rPh sb="4" eb="5">
+      <t>zhuang yan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tang huang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>hong wei</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -19452,10 +19478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1068"/>
+  <dimension ref="A1:B1069"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A1048" zoomScale="136" zoomScaleNormal="108" zoomScalePageLayoutView="108" workbookViewId="0">
-      <selection activeCell="B1061" sqref="B1061"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A1055" zoomScale="136" zoomScaleNormal="108" zoomScalePageLayoutView="108" workbookViewId="0">
+      <selection activeCell="A1070" sqref="A1070"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27805,6 +27831,14 @@
       </c>
       <c r="B1068" t="s">
         <v>2072</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1069" t="s">
+        <v>2073</v>
+      </c>
+      <c r="B1069" t="s">
+        <v>2074</v>
       </c>
     </row>
   </sheetData>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="400" yWindow="460" windowWidth="15400" windowHeight="14160" tabRatio="500"/>
+    <workbookView xWindow="2360" yWindow="460" windowWidth="22440" windowHeight="14160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2075" uniqueCount="2075">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2221" uniqueCount="2221">
   <si>
     <t>unit 22</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -19150,6 +19150,1334 @@
       <t>hong wei</t>
     </rPh>
     <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assuming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drowsy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>critique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impromptu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>penal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sycophant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bowlegged</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>founder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rugged</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>affront</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.傲慢的，自负的</t>
+    <rPh sb="4" eb="5">
+      <t>ao man</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zi fu de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.昏昏欲睡的</t>
+    <rPh sb="4" eb="5">
+      <t>hun hun yu shui</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.批评性的分析</t>
+    <rPh sb="2" eb="3">
+      <t>pi ping xing</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fen xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speculate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.沉思，思索；投机</t>
+    <rPh sb="2" eb="3">
+      <t>chen si</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>si suo</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tou ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.即席的，即兴的</t>
+    <rPh sb="4" eb="5">
+      <t>ji xi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ji xing</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.惩罚的，刑罚的</t>
+    <rPh sb="4" eb="5">
+      <t>cheng fa</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xing fa</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.马屁精</t>
+    <rPh sb="2" eb="3">
+      <t>ma pi jing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.弯脚的，弓型腿的</t>
+    <rPh sb="4" eb="5">
+      <t>wan jiao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jiao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gong xing tui</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.(船)沉没；(计划)失败</t>
+    <rPh sb="3" eb="4">
+      <t>chuan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chen mo</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ji hua</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>shi bai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.高低不平的；崎岖的</t>
+    <rPh sb="4" eb="5">
+      <t>gao di</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bu ping</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>qi qu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.侮辱，冒犯</t>
+    <rPh sb="2" eb="3">
+      <t>wu ru</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mao fan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>truculence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glucose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>herald</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incommensurate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dissident</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apprehensive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seminal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decorous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nibble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perfervid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>truculent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.野蛮，残酷</t>
+    <rPh sb="2" eb="3">
+      <t>ye man</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>can ku</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.威慑，吓住；组织</t>
+    <rPh sb="2" eb="3">
+      <t>wei she</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zu zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.(科学实验)对照标准，对照物</t>
+    <rPh sb="3" eb="4">
+      <t>ke xue shi yan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>dui zhoa</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>biao zhun</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>dui zhao</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.葡萄糖</t>
+    <rPh sb="2" eb="3">
+      <t>pu tao tang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.宣布……的消息；</t>
+    <rPh sb="2" eb="3">
+      <t>xuan bu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xiao xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预示……的到来</t>
+    <rPh sb="0" eb="1">
+      <t>yu shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dao lai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.传令官；信使；先驱</t>
+    <rPh sb="2" eb="3">
+      <t>chuan ling guan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xin shi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xian qu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不成比例的，不相称的</t>
+    <rPh sb="4" eb="5">
+      <t>bu cheng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bi li</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bu xiang chen</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.唱反调者</t>
+    <rPh sb="2" eb="3">
+      <t>chang fan diao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.害怕的；敏悟的</t>
+    <rPh sb="4" eb="5">
+      <t>hai pa</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>min</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>wu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.有创意的</t>
+    <rPh sb="4" eb="5">
+      <t>you</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chuang yi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.合宜的，高雅的</t>
+    <rPh sb="4" eb="5">
+      <t>he yi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gao ya</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.一点一点滴地咬，慢慢啃</t>
+    <rPh sb="2" eb="3">
+      <t>yi dian yi dian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>di</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>di</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>man man ken</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.过于热心的</t>
+    <rPh sb="4" eb="5">
+      <t>guo yu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>re xin de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.残暴的，凶狠的</t>
+    <rPh sb="4" eb="5">
+      <t>can bao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xiong hen</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.通过，改变，运输</t>
+    <rPh sb="2" eb="3">
+      <t>tong guo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gai bian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yun shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.通过</t>
+    <rPh sb="2" eb="3">
+      <t>tong guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pottery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eventful</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moratorium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aseptic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delimit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>solder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impersonate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.制陶；制陶工艺；陶器</t>
+    <rPh sb="2" eb="3">
+      <t>zhi tao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhi tao gong yi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>tao qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.浓缩</t>
+    <rPh sb="2" eb="3">
+      <t>nong suo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.赤道</t>
+    <rPh sb="2" eb="3">
+      <t>chi dao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.多事的；重要的</t>
+    <rPh sb="4" eb="5">
+      <t>duo shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhong yao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.延缓偿付；活动终止</t>
+    <rPh sb="2" eb="3">
+      <t>yan huan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>chang fu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>huo dong</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhong zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.净化的；无菌的</t>
+    <rPh sb="4" eb="5">
+      <t>jing hua</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wu jun de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.定界，化界</t>
+    <rPh sb="2" eb="3">
+      <t>ding</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jie</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hua</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.焊接</t>
+    <rPh sb="2" eb="3">
+      <t>han jie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.模仿；扮演</t>
+    <rPh sb="2" eb="3">
+      <t>mo fang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ban yan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glaze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>successively</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serrated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>barbarous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obfuscate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exquisite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dilapidated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fallible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>substantiate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paradigm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>antithetical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intrepid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.上釉于；使光滑；n.釉</t>
+    <rPh sb="2" eb="3">
+      <t>shang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>you</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>guang hua</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>you</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adv.接连地，继续地</t>
+    <rPh sb="4" eb="5">
+      <t>jie lian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>di</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ji xu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.锯齿状的</t>
+    <rPh sb="4" eb="5">
+      <t>ju chi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhuang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.野蛮的；残暴的</t>
+    <rPh sb="4" eb="5">
+      <t>ye man</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>can bao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使困惑，使迷惑</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>kun huo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.精致的；近乎完美的</t>
+    <rPh sb="4" eb="5">
+      <t>jing zhi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jin hu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wan mei</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.破旧的，毁坏的</t>
+    <rPh sb="4" eb="5">
+      <t>po jiu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>hui huai</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.易犯错的</t>
+    <rPh sb="4" eb="5">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fan cuo</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.证实，确证</t>
+    <rPh sb="2" eb="3">
+      <t>zheng shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>que zheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.范例，示范</t>
+    <rPh sb="2" eb="3">
+      <t>fan li</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi fan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.相反的；对立的</t>
+    <rPh sb="4" eb="5">
+      <t>xiang fan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>dui li</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.勇敢的，刚毅的</t>
+    <rPh sb="4" eb="5">
+      <t>yong gan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gang yi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gravity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cavity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nutrient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unscented</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quixotic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opalescent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ferocity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>denounce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>garble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serendipity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snobbery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>venial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.庄严，庄重</t>
+    <rPh sb="2" eb="3">
+      <t>zhuang yan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhuang zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.蔑视；违抗</t>
+    <rPh sb="2" eb="3">
+      <t>mie shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wei kang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.(牙齿等的)洞，腔</t>
+    <rPh sb="3" eb="4">
+      <t>ya chi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>dong</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>qiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.营养品，滋养品</t>
+    <rPh sb="2" eb="3">
+      <t>ying yang pin</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zi yang pin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.无气味的</t>
+    <rPh sb="4" eb="5">
+      <t>wu qi wei</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不切实际的，空想的</t>
+    <rPh sb="4" eb="5">
+      <t>bu qie</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi ji</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>kong xiang</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.发乳白色光的</t>
+    <rPh sb="4" eb="5">
+      <t>fa</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ru bai se</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>guang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.弯曲，变歪；n.弯曲，歪斜</t>
+    <rPh sb="2" eb="3">
+      <t>wan qu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wan qu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>wai xie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.凶猛，残暴</t>
+    <rPh sb="2" eb="3">
+      <t>xiong meng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>can bao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.指责</t>
+    <rPh sb="2" eb="3">
+      <t>zhi ze</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.曲解，串改</t>
+    <rPh sb="2" eb="3">
+      <t>qu jie</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chuan gai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.暗指，影射，间接提到</t>
+    <rPh sb="2" eb="3">
+      <t>an zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ying she</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jian jie</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ti dao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.意外发现新奇事物的才能或现象</t>
+    <rPh sb="2" eb="3">
+      <t>yi wai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fa xian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xin qi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi wu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>cai neng</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>xian xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.势力</t>
+    <rPh sb="2" eb="3">
+      <t>shi li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.(错误等)轻微的，可原谅的</t>
+    <rPh sb="5" eb="6">
+      <t>cuo wu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>qing wei</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>yuan liang</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>override</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>patronize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prescribe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volatile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gratuitous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>histrionic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>demagnetize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disseminate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imperious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n./adj.野兽(的)；残忍的(人)</t>
+    <rPh sb="7" eb="8">
+      <t>ye shou</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>can ren</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>de</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.驳回；蹂躏；践踏</t>
+    <rPh sb="2" eb="3">
+      <t>bo hui</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>rou lin</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jian ta</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.屈尊俯就；光顾，惠顾</t>
+    <rPh sb="2" eb="3">
+      <t>qu zun</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fu jiu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>guang gu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>hui gu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.开处方，规定</t>
+    <rPh sb="2" eb="3">
+      <t>kai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chu fang yao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gui ding</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.反复无常的；易挥发的</t>
+    <rPh sb="4" eb="5">
+      <t>fan fu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wu chang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>hui fa</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.无缘无故的；免费的</t>
+    <rPh sb="4" eb="5">
+      <t>wu yuan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wu gu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>gu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>mian fei</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.做作的；戏剧的</t>
+    <rPh sb="4" eb="5">
+      <t>zuo zuo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zuo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xi ju</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.消磁，使退磁</t>
+    <rPh sb="2" eb="3">
+      <t>xiao ci</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>tui</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.传播，宣传</t>
+    <rPh sb="2" eb="3">
+      <t>chuan bo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xuan chuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.傲慢的，专横的</t>
+    <rPh sb="4" eb="5">
+      <t>ao man</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhuan heng</t>
+    </rPh>
+    <rPh sb="10" eb="11">
       <t>de</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -19478,10 +20806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1069"/>
+  <dimension ref="A1:B1145"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A1055" zoomScale="136" zoomScaleNormal="108" zoomScalePageLayoutView="108" workbookViewId="0">
-      <selection activeCell="A1070" sqref="A1070"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A1128" zoomScale="136" zoomScaleNormal="108" zoomScalePageLayoutView="108" workbookViewId="0">
+      <selection activeCell="B1145" sqref="B1145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27841,8 +29169,598 @@
         <v>2074</v>
       </c>
     </row>
+    <row r="1071" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1071" s="1" t="s">
+        <v>2075</v>
+      </c>
+      <c r="B1071" s="1"/>
+    </row>
+    <row r="1072" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1072" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B1072" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1073" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B1073" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1074" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B1074" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1075" t="s">
+        <v>2079</v>
+      </c>
+      <c r="B1075" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1076" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B1076" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1077" t="s">
+        <v>2081</v>
+      </c>
+      <c r="B1077" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1078" t="s">
+        <v>2082</v>
+      </c>
+      <c r="B1078" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1079" t="s">
+        <v>2083</v>
+      </c>
+      <c r="B1079" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1080" t="s">
+        <v>2084</v>
+      </c>
+      <c r="B1080" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1081" t="s">
+        <v>2085</v>
+      </c>
+      <c r="B1081" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1082" t="s">
+        <v>2089</v>
+      </c>
+      <c r="B1082" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1083" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B1083" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1084" t="s">
+        <v>2099</v>
+      </c>
+      <c r="B1084" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1085" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B1085" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1086" t="s">
+        <v>2101</v>
+      </c>
+      <c r="B1086" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1087" t="s">
+        <v>2102</v>
+      </c>
+      <c r="B1087" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1088" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1089" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1090" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B1090" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1091" t="s">
+        <v>2104</v>
+      </c>
+      <c r="B1091" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1092" t="s">
+        <v>2105</v>
+      </c>
+      <c r="B1092" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1093" t="s">
+        <v>2106</v>
+      </c>
+      <c r="B1093" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1094" t="s">
+        <v>2107</v>
+      </c>
+      <c r="B1094" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1095" t="s">
+        <v>2108</v>
+      </c>
+      <c r="B1095" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1096" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B1096" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1097" t="s">
+        <v>2110</v>
+      </c>
+      <c r="B1097" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1098" t="s">
+        <v>2111</v>
+      </c>
+      <c r="B1098" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1099" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1100" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B1100" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1101" t="s">
+        <v>2130</v>
+      </c>
+      <c r="B1101" t="s">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1102" t="s">
+        <v>2131</v>
+      </c>
+      <c r="B1102" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1103" t="s">
+        <v>2132</v>
+      </c>
+      <c r="B1103" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1104" t="s">
+        <v>2133</v>
+      </c>
+      <c r="B1104" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1105" t="s">
+        <v>2134</v>
+      </c>
+      <c r="B1105" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1106" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B1106" t="s">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1107" t="s">
+        <v>2136</v>
+      </c>
+      <c r="B1107" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1108" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B1108" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1109" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B1109" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1110" t="s">
+        <v>2148</v>
+      </c>
+      <c r="B1110" t="s">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1111" t="s">
+        <v>2149</v>
+      </c>
+      <c r="B1111" t="s">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1112" t="s">
+        <v>2150</v>
+      </c>
+      <c r="B1112" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1113" t="s">
+        <v>2151</v>
+      </c>
+      <c r="B1113" t="s">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1114" t="s">
+        <v>2152</v>
+      </c>
+      <c r="B1114" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1115" t="s">
+        <v>2153</v>
+      </c>
+      <c r="B1115" t="s">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1116" t="s">
+        <v>2154</v>
+      </c>
+      <c r="B1116" t="s">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1117" t="s">
+        <v>2155</v>
+      </c>
+      <c r="B1117" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1118" t="s">
+        <v>2156</v>
+      </c>
+      <c r="B1118" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1119" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B1119" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1120" t="s">
+        <v>2158</v>
+      </c>
+      <c r="B1120" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1121" t="s">
+        <v>2171</v>
+      </c>
+      <c r="B1121" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1122" t="s">
+        <v>2172</v>
+      </c>
+      <c r="B1122" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1123" t="s">
+        <v>2173</v>
+      </c>
+      <c r="B1123" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1124" t="s">
+        <v>2174</v>
+      </c>
+      <c r="B1124" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1125" t="s">
+        <v>2175</v>
+      </c>
+      <c r="B1125" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1126" t="s">
+        <v>2176</v>
+      </c>
+      <c r="B1126" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1127" t="s">
+        <v>2177</v>
+      </c>
+      <c r="B1127" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1128" t="s">
+        <v>2178</v>
+      </c>
+      <c r="B1128" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1129" t="s">
+        <v>2179</v>
+      </c>
+      <c r="B1129" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1130" t="s">
+        <v>2180</v>
+      </c>
+      <c r="B1130" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1131" t="s">
+        <v>2181</v>
+      </c>
+      <c r="B1131" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1132" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B1132" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1133" t="s">
+        <v>2183</v>
+      </c>
+      <c r="B1133" t="s">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1134" t="s">
+        <v>2184</v>
+      </c>
+      <c r="B1134" t="s">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1135" t="s">
+        <v>2185</v>
+      </c>
+      <c r="B1135" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1136" t="s">
+        <v>2201</v>
+      </c>
+      <c r="B1136" t="s">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1137" t="s">
+        <v>2202</v>
+      </c>
+      <c r="B1137" t="s">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1138" t="s">
+        <v>2203</v>
+      </c>
+      <c r="B1138" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1139" t="s">
+        <v>2204</v>
+      </c>
+      <c r="B1139" t="s">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1140" t="s">
+        <v>2205</v>
+      </c>
+      <c r="B1140" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1141" t="s">
+        <v>2206</v>
+      </c>
+      <c r="B1141" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1142" t="s">
+        <v>2207</v>
+      </c>
+      <c r="B1142" t="s">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1143" t="s">
+        <v>2208</v>
+      </c>
+      <c r="B1143" t="s">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1144" t="s">
+        <v>2209</v>
+      </c>
+      <c r="B1144" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1145" t="s">
+        <v>2210</v>
+      </c>
+      <c r="B1145" t="s">
+        <v>2220</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="A1071:B1071"/>
     <mergeCell ref="A974:B974"/>
     <mergeCell ref="A886:B886"/>
     <mergeCell ref="A800:B800"/>
@@ -27860,5 +29778,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2360" yWindow="460" windowWidth="22440" windowHeight="14160" tabRatio="500"/>
+    <workbookView xWindow="5120" yWindow="460" windowWidth="22440" windowHeight="14160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2221" uniqueCount="2221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2520" uniqueCount="2520">
   <si>
     <t>unit 22</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -20479,6 +20479,2891 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vertebrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>derogatory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crumple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>demur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>solitary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adumbrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conjure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trenchant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spineless</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>converse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overinflated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopworn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>retain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n./adj.脊椎动物(的)</t>
+    <rPh sb="7" eb="8">
+      <t>ji zhui</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>dong wu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不敬的，贬损的</t>
+    <rPh sb="4" eb="5">
+      <t>bu jing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bian sun</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.把……弄皱；起皱；破裂</t>
+    <rPh sb="2" eb="3">
+      <t>ba</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>nong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhou</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qi zhou</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>po lie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.表示异议，反对</t>
+    <rPh sb="2" eb="3">
+      <t>biao shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yi yi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fan dui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.孤独的；n.隐士</t>
+    <rPh sb="4" eb="5">
+      <t>gu du</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yin shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.预示</t>
+    <rPh sb="2" eb="3">
+      <t>yu shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.召唤，想起；变魔术，变戏法</t>
+    <rPh sb="2" eb="3">
+      <t>zhao huan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xiang qi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bian mo shu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>bian xi fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.犀利的，尖锐的</t>
+    <rPh sb="4" eb="5">
+      <t>xi li</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jian rui</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.没骨气的，懦弱的</t>
+    <rPh sb="4" eb="5">
+      <t>mei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gu qi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>nuo ruo</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.谈话，交谈</t>
+    <rPh sb="2" eb="3">
+      <t>tan hua</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jiao tan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.逆向的</t>
+    <rPh sb="4" eb="5">
+      <t>ni xiang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.相反的事物</t>
+    <rPh sb="2" eb="3">
+      <t>xiang fan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.绒毛；软毛</t>
+    <rPh sb="2" eb="3">
+      <t>rong mao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ruan mao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.过度充气的</t>
+    <rPh sb="4" eb="5">
+      <t>guo du</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>chong qi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.在商店中陈列久了的</t>
+    <rPh sb="4" eb="5">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shang dian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chen lie</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jiu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>le</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈旧的，磨损的</t>
+    <rPh sb="0" eb="1">
+      <t>chen jiu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mo sun</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.保留，保持；留住，止住</t>
+    <rPh sb="2" eb="3">
+      <t>bao liu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bao chi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>liu zhu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zhi zhu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hazard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adhesive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contrite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self-deprecation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prominence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chorale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overcast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subsist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iniquitous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grieve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prevail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hallow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.危险</t>
+    <rPh sb="2" eb="3">
+      <t>wei xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.认为，以为；n.名声，名誉</t>
+    <rPh sb="2" eb="3">
+      <t>ren wei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yi wei</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ming sheng</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ming yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.黏着的，带粘性的</t>
+    <rPh sb="4" eb="5">
+      <t>nian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhe</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>dai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>nian xing</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.悔罪的，痛悔的</t>
+    <rPh sb="4" eb="5">
+      <t>hui zui</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tong hui</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.自嘲</t>
+    <rPh sb="2" eb="3">
+      <t>zi chao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.突出物；突出，显著</t>
+    <rPh sb="2" eb="3">
+      <t>tu chu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>tu chu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xian zhu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.赞美诗；合唱队</t>
+    <rPh sb="2" eb="3">
+      <t>zan mei shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>he chang dui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.阴天的，阴暗的</t>
+    <rPh sb="4" eb="5">
+      <t>yin tian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yin an</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.生存下去；继续存在；维持生活</t>
+    <rPh sb="2" eb="3">
+      <t>sheng cun</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xia qu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ji xu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>cun zai</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>wei chi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>sheng huo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.邪恶的，不公正的</t>
+    <rPh sb="4" eb="5">
+      <t>xie e</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>gong zheng</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使某人极为悲伤</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>mou ren</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bei shang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.战胜；流行，盛行</t>
+    <rPh sb="2" eb="3">
+      <t>zhan sheng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>liu xing</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>sheng xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.把……视为神圣；尊敬，敬畏</t>
+    <rPh sb="2" eb="3">
+      <t>ba</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi wei</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shen sheng</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zun jing</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>jing wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>world-beater</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>substantive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vagueness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>irresolute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>irreverent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unexceptionable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>corroborate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apathetic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flimsy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>akin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eminent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assorted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bashfulness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>halting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>halt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.举世无双的人</t>
+    <rPh sb="2" eb="3">
+      <t>ju shi wu shuang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.根本的；独立存在的</t>
+    <rPh sb="4" eb="5">
+      <t>gen ben</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>du li</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>cun zai</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.含糊</t>
+    <rPh sb="2" eb="3">
+      <t>han hu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.未决定的；犹豫不决的</t>
+    <rPh sb="4" eb="5">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jue ding de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>you yu bu jue</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不尊敬人的</t>
+    <rPh sb="4" eb="5">
+      <t>bu zun jing</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ren</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.无可挑剔的</t>
+    <rPh sb="4" eb="5">
+      <t>wu ke</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>tiao ti</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.支持或证实；强化</t>
+    <rPh sb="2" eb="3">
+      <t>zhi chi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zheng shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qiang hau</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.无感情的；无兴趣的</t>
+    <rPh sb="4" eb="5">
+      <t>wu gan qing</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>wu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xing qu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.轻而薄的；易损坏的</t>
+    <rPh sb="4" eb="5">
+      <t>qing</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>er</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bo</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>sun huai</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.同族的；类似的</t>
+    <rPh sb="4" eb="5">
+      <t>tong zu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>lei si</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.显赫的，杰出的</t>
+    <rPh sb="4" eb="5">
+      <t>xian he</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jie chu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.各式各样的；混杂的</t>
+    <rPh sb="4" eb="5">
+      <t>ge shi ge yang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>hun za</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.羞怯</t>
+    <rPh sb="2" eb="3">
+      <t>xiu qie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.踌躇的，迟疑不决的</t>
+    <rPh sb="4" eb="5">
+      <t>chou chu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chi yi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bu jue</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>jue</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.停住，停顿</t>
+    <rPh sb="2" eb="3">
+      <t>ting zhu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ting dun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voluble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reprimand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grope</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bluff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>climate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pantomime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soporific</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forthright</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>salvage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transitory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>propriety</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elegiac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adorn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>didactic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equivalent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>celibate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>breed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>also-ran</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fraud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.健谈的；易旋转的</t>
+    <rPh sb="4" eb="5">
+      <t>jian tan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xuan zhuan</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.／v. 训诫，谴责</t>
+    <rPh sb="6" eb="7">
+      <t>xun jie</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>qian ze</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.顶点，最高点</t>
+    <rPh sb="2" eb="3">
+      <t>ding dian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zui gao dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.摸索，探索</t>
+    <rPh sb="2" eb="3">
+      <t>mo suo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tan suo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.虚张声势，悬崖峭壁</t>
+    <rPh sb="2" eb="3">
+      <t>xu zhang sheng shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xuan ya qiao bi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.气候；风气</t>
+    <rPh sb="2" eb="3">
+      <t>qi hou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>feng qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.哑剧</t>
+    <rPh sb="2" eb="3">
+      <t>ya ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.催眠的；n.安眠药</t>
+    <rPh sb="4" eb="5">
+      <t>cui mian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>an mian yao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.直率的</t>
+    <rPh sb="4" eb="5">
+      <t>zhi shuai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.(从灾难中)抢救，海上救援</t>
+    <rPh sb="3" eb="4">
+      <t>cong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zai nan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qiang jiu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>hai shang</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>jiu yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.海上救援</t>
+    <rPh sb="2" eb="3">
+      <t>hai shang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jiu yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.短暂的</t>
+    <rPh sb="4" eb="5">
+      <t>duan zan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.礼节；适当；得体</t>
+    <rPh sb="2" eb="3">
+      <t>li jie</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi dang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.哀歌的，挽歌的</t>
+    <rPh sb="4" eb="5">
+      <t>ai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wan ge</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.哀歌，挽歌</t>
+    <rPh sb="2" eb="3">
+      <t>ai ge</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wan ge</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.装饰</t>
+    <rPh sb="2" eb="3">
+      <t>zhuang shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.教诲的；说教的</t>
+    <rPh sb="4" eb="5">
+      <t>jiao hui</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shuo jiao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.相等的，等值的</t>
+    <rPh sb="4" eb="5">
+      <t>xiang deng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>deng zhi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.独身者；adj.不结婚的</t>
+    <rPh sb="2" eb="3">
+      <t>du shen zhe</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bu jie hun</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.繁殖；教养；n.品种，种类</t>
+    <rPh sb="2" eb="3">
+      <t>fan zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jiao yang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>pin zhong</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zhong lwi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.落选者；不重要的参与者</t>
+    <rPh sb="2" eb="3">
+      <t>luo xuan zhe</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bu zhong yao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>can yu zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.欺诈，欺骗；骗子</t>
+    <rPh sb="2" eb="3">
+      <t>qi zha</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qqi pian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>pian zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accustom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hypochondriac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subtractive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inconclusive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proclamation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>giddy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disingenuous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iconographic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ablaze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elucidate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boisterous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultimatum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interrogation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sarcastic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apportion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ignorance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stringent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idiomatic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使习惯</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xi guan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.忧郁症患者；adj.忧郁症的</t>
+    <rPh sb="2" eb="3">
+      <t>you yu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zheng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>huan ze</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhe</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>you yu zheng</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.减法的；负的</t>
+    <rPh sb="4" eb="5">
+      <t>jian fa</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.非据定性的，无定论的</t>
+    <rPh sb="4" eb="5">
+      <t>fei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ju ding</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wu ding lun</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.宣布，公布</t>
+    <rPh sb="2" eb="3">
+      <t>xuan bu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gong bu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.轻浮的，轻率的</t>
+    <rPh sb="4" eb="5">
+      <t>qing fu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qing shuai</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不坦率的</t>
+    <rPh sb="4" eb="5">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tan shuai</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.肖像的，肖像学的；图解的</t>
+    <rPh sb="4" eb="5">
+      <t>xaio xiang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xiao xiang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xue</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>tu jie</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.着火的，燃烧的；闪耀的</t>
+    <rPh sb="4" eb="5">
+      <t>zhao huo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ran shao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>shan yao</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.阐明，说明</t>
+    <rPh sb="2" eb="3">
+      <t>chan ming</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shuo ming</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.喧闹的；猛烈的</t>
+    <rPh sb="4" eb="5">
+      <t>xuan nao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>meng lie</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.最后通牒</t>
+    <rPh sb="2" eb="3">
+      <t>zui hou</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tong die</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.审问，质问；疑问句</t>
+    <rPh sb="2" eb="3">
+      <t>shen wen</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhi wen</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yi wen ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.讽刺的</t>
+    <rPh sb="4" eb="5">
+      <t>feng ci</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.(按比例或计划)分配</t>
+    <rPh sb="3" eb="4">
+      <t>an</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bi li</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ji hua</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>fen pei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.无知，愚昧</t>
+    <rPh sb="2" eb="3">
+      <t>wu zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yu mei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.(规定)严格的，苛刻的；缺钱的</t>
+    <rPh sb="5" eb="6">
+      <t>gui ding</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yan ge</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ke ke</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>que qian de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.符合语言习惯的；惯用的</t>
+    <rPh sb="4" eb="5">
+      <t>fu he</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yu yan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xi guan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>guan yong</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>antipathy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monochromatic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.传授，赋予；传递；告知；透露</t>
+    <rPh sb="2" eb="3">
+      <t>chuan shou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fu yu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chuan di</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>gao zhi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>tou lu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.反感，厌恶</t>
+    <rPh sb="2" eb="3">
+      <t>fan gan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yan wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.单色的</t>
+    <rPh sb="4" eb="5">
+      <t>dn se</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>claustrophobic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subservient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>solvent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>austere</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abstain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.(患)幽闭恐惧症的，导致幽闭恐惧症的</t>
+    <rPh sb="5" eb="6">
+      <t>huan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>you bi kong ju</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zheng</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>dao zhi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>you bi kong ju zheng</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.踏，践踏；行走</t>
+    <rPh sb="2" eb="3">
+      <t>ta</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jian ta</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xing zou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.步态；车轮胎面</t>
+    <rPh sb="5" eb="6">
+      <t>che lun</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>tai mian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.次要的，从属的；恭顺的</t>
+    <rPh sb="4" eb="5">
+      <t>ci yao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>cong shu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>gong shun</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.有偿债能力的；n.溶剂</t>
+    <rPh sb="4" eb="5">
+      <t>you</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhai</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>neng li</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>rong ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.朴素的</t>
+    <rPh sb="4" eb="5">
+      <t>pu su</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.禁绝，放弃</t>
+    <rPh sb="2" eb="3">
+      <t>jin jue</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fang qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brassy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abolition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeliness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nonconformist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repugnant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overdraw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quantifiable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expertise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rancor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pounce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flagrant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.厚脸皮的，无礼的</t>
+    <rPh sb="4" eb="5">
+      <t>hou lian pi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>wu li</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.废除，废止</t>
+    <rPh sb="2" eb="3">
+      <t>fei chu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fei zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.及时，适时</t>
+    <rPh sb="2" eb="3">
+      <t>ji shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不墨守成规的；n.不墨守成规的人</t>
+    <rPh sb="4" eb="5">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mo shou</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>cheng gui</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>mo shou cheng gui</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>de</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.令人厌恶的</t>
+    <rPh sb="4" eb="5">
+      <t>ling ren</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yan wu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.透支；夸大</t>
+    <rPh sb="2" eb="3">
+      <t>tou zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>kua da</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.膨胀的；扩张的</t>
+    <rPh sb="4" eb="5">
+      <t>peng zhang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>kuo zhang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.可以计量的；可量化的</t>
+    <rPh sb="4" eb="5">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ji liang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>liang hua</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.专门技术，专业知识</t>
+    <rPh sb="2" eb="3">
+      <t>zhuan men</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ji shu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhuan ye</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhi shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.深仇，怨恨</t>
+    <rPh sb="2" eb="3">
+      <t>shen chou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yuan hen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.(猛禽的)爪；猛扑</t>
+    <rPh sb="3" eb="4">
+      <t>meng qin</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhua</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>meng pu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.猛扑；突然袭击</t>
+    <rPh sb="2" eb="3">
+      <t>meng pu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tu ran</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xi ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.罪恶昭彰的；公然的</t>
+    <rPh sb="4" eb="5">
+      <t>zui e</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhao zhang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gong ran</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>septic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>potent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unseemly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>falsify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>canny</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remorse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unwonted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scavenge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rebuke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.腐败的；脓毒性的</t>
+    <rPh sb="4" eb="5">
+      <t>fu bai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.强有力的，有影响力的</t>
+    <rPh sb="4" eb="5">
+      <t>qiang you li</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>you</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ying xiang</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>li</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有权利的，有效力的，有效能的</t>
+    <rPh sb="0" eb="1">
+      <t>you</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>quan li</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>you</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xiao li</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>you</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xiao neng</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不适宜的，不得体的</t>
+    <rPh sb="4" eb="5">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi yi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bu de ti</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.篡改；说谎</t>
+    <rPh sb="2" eb="3">
+      <t>cuan gai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shuo huang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.精明仔细的</t>
+    <rPh sb="4" eb="5">
+      <t>jing ming</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zi xi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.懊悔，悔恨</t>
+    <rPh sb="2" eb="3">
+      <t>ao hui</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hui hen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不寻常的，不习惯的</t>
+    <rPh sb="4" eb="5">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xun chang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bu xi guan</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.清除；从废物中提取有用物质</t>
+    <rPh sb="2" eb="3">
+      <t>qing chu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>cong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fei wu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ti qu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>you yong</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>wu zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.指责，谴责</t>
+    <rPh sb="2" eb="3">
+      <t>zhi ze</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qian ze</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>infuriate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>irate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clannish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stilted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diminish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allusive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ephemeral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>restoration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vehement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promulgate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dearth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tarnish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tardy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transitional</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使恼怒，激怒</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>nao nu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ji nu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.发怒的</t>
+    <rPh sb="4" eb="5">
+      <t>fa nu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.排他的，门户之见的</t>
+    <rPh sb="4" eb="5">
+      <t>pai ta</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>men hu zhi jian</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.(文章、谈话)不自然的；夸张的</t>
+    <rPh sb="5" eb="6">
+      <t>wen zhang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tan hua</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bu zi ran</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>kua zhang de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.(使)减少，缩小</t>
+    <rPh sb="3" eb="4">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jian shao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>suo xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.暗指的，间接提到的</t>
+    <rPh sb="4" eb="5">
+      <t>an zhi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jian jie</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.朝生暮死的；生命短暂的</t>
+    <rPh sb="4" eb="5">
+      <t>zhao sheng mu si</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>sheng ming</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>duan zan</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.恢复，复原</t>
+    <rPh sb="2" eb="3">
+      <t>hui fu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fu yuan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.猛烈的，热烈的</t>
+    <rPh sb="4" eb="5">
+      <t>meng lie</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>re lie</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.颁布(法令)；宣传，传播</t>
+    <rPh sb="2" eb="3">
+      <t>ban bu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fa ling</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xuan chuan</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>chuan b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.缺乏，短缺</t>
+    <rPh sb="2" eb="3">
+      <t>que fa</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>duan que</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.失去光泽，晦暗</t>
+    <rPh sb="2" eb="3">
+      <t>shi qu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>guang z</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>hui an</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.晦暗，无光泽</t>
+    <rPh sb="2" eb="3">
+      <t>hui an</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wu guan ze</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>guang ze</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.迟延，迟到的；缓慢的；迟钝的</t>
+    <rPh sb="4" eb="5">
+      <t>chi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>chi dao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>huan man</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>chi dun de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.转变的，变迁的</t>
+    <rPh sb="4" eb="5">
+      <t>zhuan bian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bian qian</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>muddle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perfunctory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eminence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cleave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>submission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>irreversible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bewilder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.迷惑，困惑，混乱</t>
+    <rPh sb="2" eb="3">
+      <t>mi huo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>kun huo</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>hun luan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.冲刷；擦掉；四处搜索</t>
+    <rPh sb="2" eb="3">
+      <t>chong shua</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ca diao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>si chu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>sou suo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.乐章</t>
+    <rPh sb="2" eb="3">
+      <t>yue zhang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.例行公事般的，敷衍的</t>
+    <rPh sb="4" eb="5">
+      <t>li xing gong shi ban</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>fu yan</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.卓越，显赫，杰出</t>
+    <rPh sb="2" eb="3">
+      <t>zhuo yue</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xian he</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jie chu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.劈开；分裂</t>
+    <rPh sb="2" eb="3">
+      <t>pi kai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fen lie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.从属，服从</t>
+    <rPh sb="2" eb="3">
+      <t>cong shu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fu cong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不能撤回的，不能取消的</t>
+    <rPh sb="4" eb="5">
+      <t>bu neng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>che hui</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bu neng</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>qu xiao</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使迷惑，混乱</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>mi huo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>hun luan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compassionate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>culinary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sagacious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inordinate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>congenial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atheist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unspotted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aspiring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paltry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reprisal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.委托；佣金</t>
+    <rPh sb="2" eb="3">
+      <t>wei tuo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yong jin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.有同情心的</t>
+    <rPh sb="4" eb="5">
+      <t>you</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tong qing xin</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.厨房的；烹调的</t>
+    <rPh sb="4" eb="5">
+      <t>chu fang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>peng tiao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.聪明的，睿智的</t>
+    <rPh sb="4" eb="5">
+      <t>cong ming</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>rui zhi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.过度的，过分的</t>
+    <rPh sb="4" eb="5">
+      <t>guo du</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>guo fen</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.意气相投的，趣味相投的</t>
+    <rPh sb="4" eb="5">
+      <t>yi qi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xiang tou</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>qu wei</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>xiang tou</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.无神论者</t>
+    <rPh sb="2" eb="3">
+      <t>wu shen lun</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.清白的，无污点的</t>
+    <rPh sb="4" eb="5">
+      <t>qing bai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>wu dian</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.有抱负的，有理想的</t>
+    <rPh sb="4" eb="5">
+      <t>you</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bao fu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>you</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>li xiang</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.无价值的，微不足道的</t>
+    <rPh sb="4" eb="5">
+      <t>wu jia zhi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>wei bu zu dao</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.抱复，报复行动</t>
+    <rPh sb="2" eb="3">
+      <t>bao fu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bao fu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xing dong</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -20806,10 +23691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1145"/>
+  <dimension ref="A1:B1302"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A1128" zoomScale="136" zoomScaleNormal="108" zoomScalePageLayoutView="108" workbookViewId="0">
-      <selection activeCell="B1145" sqref="B1145"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A1286" zoomScale="136" zoomScaleNormal="108" zoomScalePageLayoutView="108" workbookViewId="0">
+      <selection activeCell="B1302" sqref="B1302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29758,23 +32643,1234 @@
         <v>2220</v>
       </c>
     </row>
+    <row r="1147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1147" s="1" t="s">
+        <v>2221</v>
+      </c>
+      <c r="B1147" s="1"/>
+    </row>
+    <row r="1148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1148" t="s">
+        <v>2222</v>
+      </c>
+      <c r="B1148" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1149" t="s">
+        <v>2223</v>
+      </c>
+      <c r="B1149" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1150" t="s">
+        <v>2224</v>
+      </c>
+      <c r="B1150" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1151" t="s">
+        <v>2225</v>
+      </c>
+      <c r="B1151" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1152" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B1152" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1153" t="s">
+        <v>2227</v>
+      </c>
+      <c r="B1153" t="s">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1154" t="s">
+        <v>2228</v>
+      </c>
+      <c r="B1154" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1155" t="s">
+        <v>2229</v>
+      </c>
+      <c r="B1155" t="s">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1156" t="s">
+        <v>2230</v>
+      </c>
+      <c r="B1156" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1157" t="s">
+        <v>2231</v>
+      </c>
+      <c r="B1157" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1158" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1159" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1160" t="s">
+        <v>2232</v>
+      </c>
+      <c r="B1160" t="s">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1161" t="s">
+        <v>2233</v>
+      </c>
+      <c r="B1161" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1162" t="s">
+        <v>2234</v>
+      </c>
+      <c r="B1162" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1163" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1164" t="s">
+        <v>2235</v>
+      </c>
+      <c r="B1164" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1165" t="s">
+        <v>2253</v>
+      </c>
+      <c r="B1165" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1166" t="s">
+        <v>2254</v>
+      </c>
+      <c r="B1166" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1167" t="s">
+        <v>2255</v>
+      </c>
+      <c r="B1167" t="s">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1168" t="s">
+        <v>2256</v>
+      </c>
+      <c r="B1168" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1169" t="s">
+        <v>2257</v>
+      </c>
+      <c r="B1169" t="s">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1170" t="s">
+        <v>2258</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1171" t="s">
+        <v>2259</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1172" t="s">
+        <v>2260</v>
+      </c>
+      <c r="B1172" t="s">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1173" t="s">
+        <v>2261</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1174" t="s">
+        <v>2262</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1175" t="s">
+        <v>2263</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1176" t="s">
+        <v>2264</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1177" t="s">
+        <v>2265</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1178" t="s">
+        <v>2279</v>
+      </c>
+      <c r="B1178" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1179" t="s">
+        <v>2280</v>
+      </c>
+      <c r="B1179" t="s">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1180" t="s">
+        <v>2281</v>
+      </c>
+      <c r="B1180" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1181" t="s">
+        <v>2282</v>
+      </c>
+      <c r="B1181" t="s">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1182" t="s">
+        <v>2283</v>
+      </c>
+      <c r="B1182" t="s">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1183" t="s">
+        <v>2284</v>
+      </c>
+      <c r="B1183" t="s">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1184" t="s">
+        <v>2285</v>
+      </c>
+      <c r="B1184" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1185" t="s">
+        <v>2286</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1186" t="s">
+        <v>2287</v>
+      </c>
+      <c r="B1186" t="s">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1187" t="s">
+        <v>2288</v>
+      </c>
+      <c r="B1187" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1188" t="s">
+        <v>2289</v>
+      </c>
+      <c r="B1188" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1189" t="s">
+        <v>2290</v>
+      </c>
+      <c r="B1189" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1190" t="s">
+        <v>2291</v>
+      </c>
+      <c r="B1190" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1191" t="s">
+        <v>2292</v>
+      </c>
+      <c r="B1191" t="s">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1192" t="s">
+        <v>2293</v>
+      </c>
+      <c r="B1192" t="s">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1193" t="s">
+        <v>2309</v>
+      </c>
+      <c r="B1193" t="s">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1194" t="s">
+        <v>2310</v>
+      </c>
+      <c r="B1194" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1195" t="s">
+        <v>2311</v>
+      </c>
+      <c r="B1195" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1196" t="s">
+        <v>2312</v>
+      </c>
+      <c r="B1196" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1197" t="s">
+        <v>2313</v>
+      </c>
+      <c r="B1197" t="s">
+        <v>2333</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1198" t="s">
+        <v>2314</v>
+      </c>
+      <c r="B1198" t="s">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1199" t="s">
+        <v>2315</v>
+      </c>
+      <c r="B1199" t="s">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1200" t="s">
+        <v>2316</v>
+      </c>
+      <c r="B1200" t="s">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1201" t="s">
+        <v>2317</v>
+      </c>
+      <c r="B1201" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1202" t="s">
+        <v>2318</v>
+      </c>
+      <c r="B1202" t="s">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1203" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1204" t="s">
+        <v>2319</v>
+      </c>
+      <c r="B1204" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1205" t="s">
+        <v>2320</v>
+      </c>
+      <c r="B1205" t="s">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1206" t="s">
+        <v>2321</v>
+      </c>
+      <c r="B1206" t="s">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1207" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1208" t="s">
+        <v>2322</v>
+      </c>
+      <c r="B1208" t="s">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1209" t="s">
+        <v>2323</v>
+      </c>
+      <c r="B1209" t="s">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1210" t="s">
+        <v>2324</v>
+      </c>
+      <c r="B1210" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1211" t="s">
+        <v>2325</v>
+      </c>
+      <c r="B1211" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1212" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B1212" t="s">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1213" t="s">
+        <v>2327</v>
+      </c>
+      <c r="B1213" t="s">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1214" t="s">
+        <v>2328</v>
+      </c>
+      <c r="B1214" t="s">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1215" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B1215" t="s">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1216" t="s">
+        <v>2352</v>
+      </c>
+      <c r="B1216" t="s">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1217" t="s">
+        <v>2353</v>
+      </c>
+      <c r="B1217" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1218" t="s">
+        <v>2354</v>
+      </c>
+      <c r="B1218" t="s">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1219" t="s">
+        <v>2355</v>
+      </c>
+      <c r="B1219" t="s">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1220" t="s">
+        <v>2356</v>
+      </c>
+      <c r="B1220" t="s">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1221" t="s">
+        <v>2357</v>
+      </c>
+      <c r="B1221" t="s">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1222" t="s">
+        <v>2358</v>
+      </c>
+      <c r="B1222" t="s">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1223" t="s">
+        <v>2359</v>
+      </c>
+      <c r="B1223" t="s">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1224" t="s">
+        <v>2360</v>
+      </c>
+      <c r="B1224" t="s">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1225" t="s">
+        <v>2361</v>
+      </c>
+      <c r="B1225" t="s">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1226" t="s">
+        <v>2362</v>
+      </c>
+      <c r="B1226" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1227" t="s">
+        <v>2363</v>
+      </c>
+      <c r="B1227" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1228" t="s">
+        <v>2364</v>
+      </c>
+      <c r="B1228" t="s">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1229" t="s">
+        <v>2365</v>
+      </c>
+      <c r="B1229" t="s">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1230" t="s">
+        <v>2366</v>
+      </c>
+      <c r="B1230" t="s">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1231" t="s">
+        <v>2367</v>
+      </c>
+      <c r="B1231" t="s">
+        <v>2385</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1232" t="s">
+        <v>2368</v>
+      </c>
+      <c r="B1232" t="s">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1233" t="s">
+        <v>2387</v>
+      </c>
+      <c r="B1233" t="s">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1234" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B1234" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1235" t="s">
+        <v>2389</v>
+      </c>
+      <c r="B1235" t="s">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1237" s="1" t="s">
+        <v>2393</v>
+      </c>
+      <c r="B1237" s="1"/>
+    </row>
+    <row r="1238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1238" t="s">
+        <v>2394</v>
+      </c>
+      <c r="B1238" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1239" t="s">
+        <v>2395</v>
+      </c>
+      <c r="B1239" t="s">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1240" t="s">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1241" t="s">
+        <v>2396</v>
+      </c>
+      <c r="B1241" t="s">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1242" t="s">
+        <v>2397</v>
+      </c>
+      <c r="B1242" t="s">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1243" t="s">
+        <v>2398</v>
+      </c>
+      <c r="B1243" t="s">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1244" t="s">
+        <v>2399</v>
+      </c>
+      <c r="B1244" t="s">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1245" t="s">
+        <v>2407</v>
+      </c>
+      <c r="B1245" t="s">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1246" t="s">
+        <v>2408</v>
+      </c>
+      <c r="B1246" t="s">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1247" t="s">
+        <v>2409</v>
+      </c>
+      <c r="B1247" t="s">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1248" t="s">
+        <v>2410</v>
+      </c>
+      <c r="B1248" t="s">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1249" t="s">
+        <v>2411</v>
+      </c>
+      <c r="B1249" t="s">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1250" t="s">
+        <v>2412</v>
+      </c>
+      <c r="B1250" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1251" t="s">
+        <v>2413</v>
+      </c>
+      <c r="B1251" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1252" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B1252" t="s">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1253" t="s">
+        <v>2415</v>
+      </c>
+      <c r="B1253" t="s">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1254" t="s">
+        <v>2416</v>
+      </c>
+      <c r="B1254" t="s">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1255" t="s">
+        <v>2417</v>
+      </c>
+      <c r="B1255" t="s">
+        <v>2429</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1256" t="s">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1257" t="s">
+        <v>2418</v>
+      </c>
+      <c r="B1257" t="s">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1258" t="s">
+        <v>2432</v>
+      </c>
+      <c r="B1258" t="s">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1259" t="s">
+        <v>2433</v>
+      </c>
+      <c r="B1259" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1260" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1261" t="s">
+        <v>2434</v>
+      </c>
+      <c r="B1261" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1262" t="s">
+        <v>2435</v>
+      </c>
+      <c r="B1262" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1263" t="s">
+        <v>2436</v>
+      </c>
+      <c r="B1263" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1264" t="s">
+        <v>2437</v>
+      </c>
+      <c r="B1264" t="s">
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1265" t="s">
+        <v>2438</v>
+      </c>
+      <c r="B1265" t="s">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1266" t="s">
+        <v>2439</v>
+      </c>
+      <c r="B1266" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1267" t="s">
+        <v>2440</v>
+      </c>
+      <c r="B1267" t="s">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1268" t="s">
+        <v>2451</v>
+      </c>
+      <c r="B1268" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1269" t="s">
+        <v>2452</v>
+      </c>
+      <c r="B1269" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1270" t="s">
+        <v>2453</v>
+      </c>
+      <c r="B1270" t="s">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1271" t="s">
+        <v>2454</v>
+      </c>
+      <c r="B1271" t="s">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1272" t="s">
+        <v>2455</v>
+      </c>
+      <c r="B1272" t="s">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1273" t="s">
+        <v>2456</v>
+      </c>
+      <c r="B1273" t="s">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1274" t="s">
+        <v>2457</v>
+      </c>
+      <c r="B1274" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1275" t="s">
+        <v>2458</v>
+      </c>
+      <c r="B1275" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1276" t="s">
+        <v>2459</v>
+      </c>
+      <c r="B1276" t="s">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1277" t="s">
+        <v>2460</v>
+      </c>
+      <c r="B1277" t="s">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1278" t="s">
+        <v>2461</v>
+      </c>
+      <c r="B1278" t="s">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1279" t="s">
+        <v>2462</v>
+      </c>
+      <c r="B1279" t="s">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1280" t="s">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1281" t="s">
+        <v>2463</v>
+      </c>
+      <c r="B1281" t="s">
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1282" t="s">
+        <v>2464</v>
+      </c>
+      <c r="B1282" t="s">
+        <v>2479</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1283" t="s">
+        <v>2480</v>
+      </c>
+      <c r="B1283" t="s">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1284" t="s">
+        <v>2481</v>
+      </c>
+      <c r="B1284" t="s">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1285" t="s">
+        <v>2482</v>
+      </c>
+      <c r="B1285" t="s">
+        <v>2491</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1286" t="s">
+        <v>2483</v>
+      </c>
+      <c r="B1286" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1287" t="s">
+        <v>2484</v>
+      </c>
+      <c r="B1287" t="s">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1288" t="s">
+        <v>2485</v>
+      </c>
+      <c r="B1288" t="s">
+        <v>2494</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1289" t="s">
+        <v>2486</v>
+      </c>
+      <c r="B1289" t="s">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1290" t="s">
+        <v>2487</v>
+      </c>
+      <c r="B1290" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1291" t="s">
+        <v>2488</v>
+      </c>
+      <c r="B1291" t="s">
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1292" t="s">
+        <v>2498</v>
+      </c>
+      <c r="B1292" t="s">
+        <v>2509</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1293" t="s">
+        <v>2499</v>
+      </c>
+      <c r="B1293" t="s">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1294" t="s">
+        <v>2500</v>
+      </c>
+      <c r="B1294" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1295" t="s">
+        <v>2501</v>
+      </c>
+      <c r="B1295" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1296" t="s">
+        <v>2502</v>
+      </c>
+      <c r="B1296" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1297" t="s">
+        <v>2503</v>
+      </c>
+      <c r="B1297" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1298" t="s">
+        <v>2504</v>
+      </c>
+      <c r="B1298" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1299" t="s">
+        <v>2505</v>
+      </c>
+      <c r="B1299" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1300" t="s">
+        <v>2506</v>
+      </c>
+      <c r="B1300" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1301" t="s">
+        <v>2507</v>
+      </c>
+      <c r="B1301" t="s">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1302" t="s">
+        <v>2508</v>
+      </c>
+      <c r="B1302" t="s">
+        <v>2519</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="17">
+    <mergeCell ref="A1147:B1147"/>
+    <mergeCell ref="A1237:B1237"/>
+    <mergeCell ref="A554:B554"/>
+    <mergeCell ref="A630:B630"/>
+    <mergeCell ref="A479:B479"/>
+    <mergeCell ref="A332:B332"/>
+    <mergeCell ref="A398:B398"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A259:B259"/>
     <mergeCell ref="A1071:B1071"/>
     <mergeCell ref="A974:B974"/>
     <mergeCell ref="A886:B886"/>
     <mergeCell ref="A800:B800"/>
     <mergeCell ref="A717:B717"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="A259:B259"/>
-    <mergeCell ref="A554:B554"/>
-    <mergeCell ref="A630:B630"/>
-    <mergeCell ref="A479:B479"/>
-    <mergeCell ref="A332:B332"/>
-    <mergeCell ref="A398:B398"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5120" yWindow="460" windowWidth="22440" windowHeight="14160" tabRatio="500"/>
+    <workbookView xWindow="3160" yWindow="460" windowWidth="22440" windowHeight="14160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2520" uniqueCount="2520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2651" uniqueCount="2651">
   <si>
     <t>unit 22</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -23364,6 +23364,1229 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>xing dong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exempt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>downplay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>genus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discomfited</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preliminary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obese</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elicit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uncommunicative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.被免除的，被豁免的</t>
+    <rPh sb="4" eb="5">
+      <t>bei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mian chu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bei huo mian</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.免除，豁免</t>
+    <rPh sb="2" eb="3">
+      <t>mian chu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>huo mian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.贬低，不予重视</t>
+    <rPh sb="2" eb="3">
+      <t>bian di</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bu yu zhong shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.(动植物的)属，类</t>
+    <rPh sb="3" eb="4">
+      <t>dong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhi wu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>lei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.困惑的，尴尬的</t>
+    <rPh sb="4" eb="5">
+      <t>kun huo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gan ga</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.预备的，初步的，开始的</t>
+    <rPh sb="4" eb="5">
+      <t>yu bei de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chu bu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>kai shi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.极胖的</t>
+    <rPh sb="4" eb="5">
+      <t>ji pang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.得出，引出</t>
+    <rPh sb="2" eb="3">
+      <t>de chu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yin chu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不爱说话的，拘谨的</t>
+    <rPh sb="4" eb="5">
+      <t>bu ai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shuo hua</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ju jin</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.增加，提高；促进；往上推</t>
+    <rPh sb="2" eb="3">
+      <t>zeng jia</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ti gao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>cu jin</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>wang shang tui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>titular</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>predestine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forlorn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rampant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quarantine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trepidation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>verse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suspense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tranquil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inducible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>habituate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.有名无实的，名义上的</t>
+    <rPh sb="4" eb="5">
+      <t>you ming wu shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ming yi sahng</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.预先注定</t>
+    <rPh sb="2" eb="3">
+      <t>yu xian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhu ding</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.孤独的；凄凉的</t>
+    <rPh sb="4" eb="5">
+      <t>gu du</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qi liang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.猖獗的，蔓生的</t>
+    <rPh sb="4" eb="5">
+      <t>chang jue</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>man sheng</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.隔离检疫期，隔离</t>
+    <rPh sb="2" eb="3">
+      <t>ge li</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jian yi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ge li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.恐惧，惶恐</t>
+    <rPh sb="2" eb="3">
+      <t>kong ju</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>huang kong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.诗歌</t>
+    <rPh sb="2" eb="3">
+      <t>shi ge</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.悬念；挂念</t>
+    <rPh sb="2" eb="3">
+      <t>xuan nian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gua nian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.小河</t>
+    <rPh sb="2" eb="3">
+      <t>xiao he</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.平静的</t>
+    <rPh sb="4" eb="5">
+      <t>ping jing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.可诱导的</t>
+    <rPh sb="4" eb="5">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>you dao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使习惯于</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xi guan yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>efface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dilettante</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interpolate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>camaraderie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>improvident</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>streak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feckless</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reclusive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insidious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>colossal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>connotation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gripping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self-righteousness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.擦掉，抹去</t>
+    <rPh sb="2" eb="3">
+      <t>ca</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>diao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mo qu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.一知半解者，业余爱好者</t>
+    <rPh sb="2" eb="3">
+      <t>yi zhi ban jie</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhe</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ye yu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ai hao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.插入；(通过插入新语句)篡改</t>
+    <rPh sb="2" eb="3">
+      <t>cha ru</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>tong guo</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>cha ru yu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xin</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yu ju</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>cuan gai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.同志之情，友情</t>
+    <rPh sb="2" eb="3">
+      <t>tong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhi qing</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>you qing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.无生产力的；虚弱的</t>
+    <rPh sb="4" eb="5">
+      <t>wu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>sheng chan li</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xu ruo</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.无远见的，不节俭的</t>
+    <rPh sb="4" eb="5">
+      <t>wu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yuan jian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bu jie jian</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.条纹；v.加线条</t>
+    <rPh sb="2" eb="3">
+      <t>tiao wen</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xian tiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.无效的，效率低的；不负责任的</t>
+    <rPh sb="4" eb="5">
+      <t>wu xi o a</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xiao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xiao lü</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>di</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>bu fu ze ren</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.隐遁的，隐居的</t>
+    <rPh sb="4" eb="5">
+      <t>yin dun</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yin ju</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.暗中危害的，阴险的</t>
+    <rPh sb="4" eb="5">
+      <t>an zhong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wei hai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yin xian</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.巨大的，庞大的</t>
+    <rPh sb="4" eb="5">
+      <t>ju da</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>pang da</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.言外之意，内涵</t>
+    <rPh sb="2" eb="3">
+      <t>yan wai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhi yi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>nei han</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.吸引注意力的，扣人心弦的</t>
+    <rPh sb="4" eb="5">
+      <t>xi yin</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhu yi li</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>kou ren xin xian</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.自以为是</t>
+    <rPh sb="2" eb="3">
+      <t>zi yi wei shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.光秃秃的；荒凉的</t>
+    <rPh sb="4" eb="5">
+      <t>guang tu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>tu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>huang liang</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(外表)僵硬的；完全的</t>
+    <rPh sb="1" eb="2">
+      <t>wai biao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jiang ying</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wan quan de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>placid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dappled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>realm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obtainable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evince</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>antecedent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expository</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tenet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.安静的，平和的</t>
+    <rPh sb="4" eb="5">
+      <t>an jing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ping he</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.有斑点的，斑驳的</t>
+    <rPh sb="4" eb="5">
+      <t>you</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ban dian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ban bo</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.王国；领域，范围</t>
+    <rPh sb="2" eb="3">
+      <t>wang guo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ling yu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fan wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.能做到的</t>
+    <rPh sb="4" eb="5">
+      <t>neng zuo dao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.表明，表示</t>
+    <rPh sb="2" eb="3">
+      <t>biao ming</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>biao shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.前事；祖先；adj.先行的</t>
+    <rPh sb="2" eb="3">
+      <t>qian shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zu xian</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>xian xing</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.说明的</t>
+    <rPh sb="4" eb="5">
+      <t>shuo ming</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.信条；教义</t>
+    <rPh sb="2" eb="3">
+      <t>xin tiao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jiao yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disenfranchise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disrupt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>petroleum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inhabit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hoard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interpaly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.混杂的；多色的，杂色的</t>
+    <rPh sb="4" eb="5">
+      <t>hun za</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>duo se</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>za se</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.剥夺……的权利</t>
+    <rPh sb="2" eb="3">
+      <t>bo duo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>quan li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使混乱；使中断</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>hun luan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhong duan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.石油</t>
+    <rPh sb="2" eb="3">
+      <t>shi you</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.居住于；占据</t>
+    <rPh sb="2" eb="3">
+      <t>ju zhu yu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhan ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.充满的，供应充足的</t>
+    <rPh sb="4" eb="5">
+      <t>chong man</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gong ying</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>chong zu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.／n.贮藏，秘藏</t>
+    <rPh sb="5" eb="6">
+      <t>zhu cang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>mi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v./n.相互影响</t>
+    <rPh sb="5" eb="6">
+      <t>xiang hu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ying xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inquisitive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hibernate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hypnotic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gallant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>synonymous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valiant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hurl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sectarianism</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reverberate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.好奇的，好问的；爱打听的</t>
+    <rPh sb="4" eb="5">
+      <t>hao qi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>hao wen</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>wen</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ai da ting de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.冬眠</t>
+    <rPh sb="2" eb="3">
+      <t>dong mian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.催眠的；n.催眠药</t>
+    <rPh sb="4" eb="5">
+      <t>cui mian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>cui mian yao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.勇敢的，英勇的；</t>
+    <rPh sb="4" eb="5">
+      <t>yong gan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ying yong</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(对女人)献殷勤的</t>
+    <rPh sb="1" eb="2">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>nü r</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xian yin qin</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.同义的</t>
+    <rPh sb="4" eb="5">
+      <t>tong yi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.勇敢的，英勇的</t>
+    <rPh sb="4" eb="5">
+      <t>yong gan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ying yong</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.用力投掷；大声叫骂</t>
+    <rPh sb="2" eb="3">
+      <t>yong li</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tou zhi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>da sheng</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jiao ma</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.宗派主义；教派意识</t>
+    <rPh sb="2" eb="3">
+      <t>zong pai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhu yi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jiao pai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yi shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.对……有影响；使活跃</t>
+    <rPh sb="2" eb="3">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>you</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ying xiang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>huo yue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>告诉，告知</t>
+    <rPh sb="0" eb="1">
+      <t>gao su</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gao zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不充足的，缺乏的</t>
+    <rPh sb="4" eb="5">
+      <t>bu chong zu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>que fa</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.发出回声，回想</t>
+    <rPh sb="2" eb="3">
+      <t>fa chu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>hui sheng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>sheng</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>hui xiang</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -23691,10 +24914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1302"/>
+  <dimension ref="A1:B1371"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A1286" zoomScale="136" zoomScaleNormal="108" zoomScalePageLayoutView="108" workbookViewId="0">
-      <selection activeCell="B1302" sqref="B1302"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A1364" zoomScale="136" zoomScaleNormal="108" zoomScalePageLayoutView="108" workbookViewId="0">
+      <selection activeCell="B1371" sqref="B1371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33852,13 +35075,539 @@
         <v>2519</v>
       </c>
     </row>
+    <row r="1304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1304" s="1" t="s">
+        <v>2520</v>
+      </c>
+      <c r="B1304" s="1"/>
+    </row>
+    <row r="1305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1305" t="s">
+        <v>2521</v>
+      </c>
+      <c r="B1305" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1306" t="s">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1307" t="s">
+        <v>2522</v>
+      </c>
+      <c r="B1307" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1308" t="s">
+        <v>2523</v>
+      </c>
+      <c r="B1308" t="s">
+        <v>2533</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1309" t="s">
+        <v>2524</v>
+      </c>
+      <c r="B1309" t="s">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1310" t="s">
+        <v>2525</v>
+      </c>
+      <c r="B1310" t="s">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1311" t="s">
+        <v>2526</v>
+      </c>
+      <c r="B1311" t="s">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1312" t="s">
+        <v>2527</v>
+      </c>
+      <c r="B1312" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1313" t="s">
+        <v>2528</v>
+      </c>
+      <c r="B1313" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1314" t="s">
+        <v>2529</v>
+      </c>
+      <c r="B1314" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1315" t="s">
+        <v>2540</v>
+      </c>
+      <c r="B1315" t="s">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1316" t="s">
+        <v>2541</v>
+      </c>
+      <c r="B1316" t="s">
+        <v>2553</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1317" t="s">
+        <v>2542</v>
+      </c>
+      <c r="B1317" t="s">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1318" t="s">
+        <v>2543</v>
+      </c>
+      <c r="B1318" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1319" t="s">
+        <v>2544</v>
+      </c>
+      <c r="B1319" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1320" t="s">
+        <v>2545</v>
+      </c>
+      <c r="B1320" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1321" t="s">
+        <v>2546</v>
+      </c>
+      <c r="B1321" t="s">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1322" t="s">
+        <v>2547</v>
+      </c>
+      <c r="B1322" t="s">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1323" t="s">
+        <v>2548</v>
+      </c>
+      <c r="B1323" t="s">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1324" t="s">
+        <v>2549</v>
+      </c>
+      <c r="B1324" t="s">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1325" t="s">
+        <v>2550</v>
+      </c>
+      <c r="B1325" t="s">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1326" t="s">
+        <v>2551</v>
+      </c>
+      <c r="B1326" t="s">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1327" t="s">
+        <v>2564</v>
+      </c>
+      <c r="B1327" t="s">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1328" t="s">
+        <v>2565</v>
+      </c>
+      <c r="B1328" t="s">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1329" t="s">
+        <v>2566</v>
+      </c>
+      <c r="B1329" t="s">
+        <v>2581</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1330" t="s">
+        <v>2567</v>
+      </c>
+      <c r="B1330" t="s">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1331" t="s">
+        <v>2568</v>
+      </c>
+      <c r="B1331" t="s">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1332" t="s">
+        <v>2569</v>
+      </c>
+      <c r="B1332" t="s">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1333" t="s">
+        <v>2570</v>
+      </c>
+      <c r="B1333" t="s">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1334" t="s">
+        <v>2571</v>
+      </c>
+      <c r="B1334" t="s">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1335" t="s">
+        <v>2572</v>
+      </c>
+      <c r="B1335" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1336" t="s">
+        <v>2573</v>
+      </c>
+      <c r="B1336" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1337" t="s">
+        <v>2574</v>
+      </c>
+      <c r="B1337" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1338" t="s">
+        <v>2575</v>
+      </c>
+      <c r="B1338" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1339" t="s">
+        <v>2576</v>
+      </c>
+      <c r="B1339" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1340" t="s">
+        <v>2577</v>
+      </c>
+      <c r="B1340" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1341" t="s">
+        <v>2578</v>
+      </c>
+      <c r="B1341" t="s">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1342" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1343" t="s">
+        <v>2595</v>
+      </c>
+      <c r="B1343" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1344" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B1344" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1345" t="s">
+        <v>2597</v>
+      </c>
+      <c r="B1345" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1346" t="s">
+        <v>2598</v>
+      </c>
+      <c r="B1346" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1347" t="s">
+        <v>2599</v>
+      </c>
+      <c r="B1347" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1348" t="s">
+        <v>2600</v>
+      </c>
+      <c r="B1348" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1349" t="s">
+        <v>2601</v>
+      </c>
+      <c r="B1349" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1350" t="s">
+        <v>2602</v>
+      </c>
+      <c r="B1350" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1351" t="s">
+        <v>2611</v>
+      </c>
+      <c r="B1351" t="s">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1352" t="s">
+        <v>2612</v>
+      </c>
+      <c r="B1352" t="s">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1353" t="s">
+        <v>2613</v>
+      </c>
+      <c r="B1353" t="s">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1354" t="s">
+        <v>2614</v>
+      </c>
+      <c r="B1354" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1355" t="s">
+        <v>2615</v>
+      </c>
+      <c r="B1355" t="s">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1356" t="s">
+        <v>2616</v>
+      </c>
+      <c r="B1356" t="s">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1357" t="s">
+        <v>2617</v>
+      </c>
+      <c r="B1357" t="s">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1358" t="s">
+        <v>2618</v>
+      </c>
+      <c r="B1358" t="s">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1359" t="s">
+        <v>2627</v>
+      </c>
+      <c r="B1359" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1360" t="s">
+        <v>2628</v>
+      </c>
+      <c r="B1360" t="s">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1361" t="s">
+        <v>2629</v>
+      </c>
+      <c r="B1361" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1362" t="s">
+        <v>2630</v>
+      </c>
+      <c r="B1362" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1363" t="s">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1364" t="s">
+        <v>2631</v>
+      </c>
+      <c r="B1364" t="s">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1365" t="s">
+        <v>2632</v>
+      </c>
+      <c r="B1365" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1366" t="s">
+        <v>2633</v>
+      </c>
+      <c r="B1366" t="s">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1367" t="s">
+        <v>2634</v>
+      </c>
+      <c r="B1367" t="s">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1368" t="s">
+        <v>2635</v>
+      </c>
+      <c r="B1368" t="s">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1369" t="s">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1370" t="s">
+        <v>2636</v>
+      </c>
+      <c r="B1370" t="s">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1371" t="s">
+        <v>2637</v>
+      </c>
+      <c r="B1371" t="s">
+        <v>2650</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A1147:B1147"/>
-    <mergeCell ref="A1237:B1237"/>
-    <mergeCell ref="A554:B554"/>
-    <mergeCell ref="A630:B630"/>
-    <mergeCell ref="A479:B479"/>
+  <mergeCells count="18">
+    <mergeCell ref="A1304:B1304"/>
     <mergeCell ref="A332:B332"/>
     <mergeCell ref="A398:B398"/>
     <mergeCell ref="A1:B1"/>
@@ -33866,6 +35615,11 @@
     <mergeCell ref="A108:B108"/>
     <mergeCell ref="A188:B188"/>
     <mergeCell ref="A259:B259"/>
+    <mergeCell ref="A1147:B1147"/>
+    <mergeCell ref="A1237:B1237"/>
+    <mergeCell ref="A554:B554"/>
+    <mergeCell ref="A630:B630"/>
+    <mergeCell ref="A479:B479"/>
     <mergeCell ref="A1071:B1071"/>
     <mergeCell ref="A974:B974"/>
     <mergeCell ref="A886:B886"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2651" uniqueCount="2651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2737" uniqueCount="2737">
   <si>
     <t>unit 22</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -24587,6 +24587,838 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>hui xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abstruse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>surreptitious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bulky</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relentless</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>topple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perishable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>symbolic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prodigious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.难懂的，深奥的</t>
+    <rPh sb="4" eb="5">
+      <t>nan dong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shen ao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.卵形的，椭圆形的</t>
+    <rPh sb="4" eb="5">
+      <t>luan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tuo yuan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.鬼鬼祟祟的</t>
+    <rPh sb="4" eb="5">
+      <t>gui gui sui sui</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.庞大的；笨重的</t>
+    <rPh sb="4" eb="5">
+      <t>pang da</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ben zhong</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.无情的，残酷的</t>
+    <rPh sb="4" eb="5">
+      <t>wu qing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>can ku</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.倾覆，推倒</t>
+    <rPh sb="2" eb="3">
+      <t>qing fu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tui dao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.易腐烂的，易变质的</t>
+    <rPh sb="4" eb="5">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fu lan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bian zhi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.易腐烂的东西</t>
+    <rPh sb="2" eb="3">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fu lan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dong xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.符号的；象征的</t>
+    <rPh sb="4" eb="5">
+      <t>fu hao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xiang zheng</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.巨大的；惊人的，奇异的</t>
+    <rPh sb="4" eb="5">
+      <t>ju da</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jing ren</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>qi yi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controversy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hatch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rustic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>veracity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tenacious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>facetious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>archetypally</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>domesticated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>captivating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>graft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benevolent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>castigate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>custodian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>juncture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.公开辩论，论战</t>
+    <rPh sb="2" eb="3">
+      <t>gong kai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bian lun</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>lun zhan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.船舱盖；v.孵化，策划</t>
+    <rPh sb="2" eb="3">
+      <t>chuan cang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fu hua</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ce hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.预兆，预示</t>
+    <rPh sb="2" eb="3">
+      <t>yu zhao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yu shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.乡土的，乡土气的</t>
+    <rPh sb="4" eb="5">
+      <t>xiang tu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xiang tu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>qi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.真实；诚实</t>
+    <rPh sb="2" eb="3">
+      <t>zhen shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>cheng hsi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.坚韧的，顽强的</t>
+    <rPh sb="4" eb="5">
+      <t>jian ren</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wan qiang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.滑稽的，好开玩笑的</t>
+    <rPh sb="4" eb="5">
+      <t>hua ji</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>hao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>kai wan xi o a</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xiao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adv.典型地</t>
+    <rPh sb="4" eb="5">
+      <t>dian xing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.驯养的，家养的</t>
+    <rPh sb="4" eb="5">
+      <t>xun yang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jia yang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.吸引人的</t>
+    <rPh sb="4" eb="5">
+      <t>xi yin ren</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.／n. 嫁接，结合，贪污</t>
+    <rPh sb="6" eb="7">
+      <t>jia jie</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jie he</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>tan wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.善心的，仁心的</t>
+    <rPh sb="4" eb="5">
+      <t>shan xin</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ren xin</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.惩治，严责</t>
+    <rPh sb="2" eb="3">
+      <t>cheng zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yan ze</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.管理员，监护人</t>
+    <rPh sb="2" eb="3">
+      <t>guan li</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yuan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jian hu ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.关键时刻，危急关头；</t>
+    <rPh sb="2" eb="3">
+      <t>guan jian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi ke</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wei ji</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>guan tou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结合处，接合点</t>
+  </si>
+  <si>
+    <t>rave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hazardous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>engage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flaunty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>procurement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arduous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idyllic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sinuous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sprawling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compliment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>humane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>torpor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>superannuate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>untimely</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valorous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aberrant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>piercing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.热切赞扬；v.胡言乱语，说疯话</t>
+    <rPh sb="2" eb="3">
+      <t>re qie</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zan yang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>hu yan luan yu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>shuo</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>feng hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.危险的，冒险的</t>
+    <rPh sb="4" eb="5">
+      <t>wei xian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>mao xian de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.从事，参加；雇佣，聘用</t>
+    <rPh sb="2" eb="3">
+      <t>cong shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>can jia</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gu yong</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>pin yong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使参与；引起……注意</t>
+    <rPh sb="0" eb="1">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>can yu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yin qi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhu yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.炫耀的，虚华的</t>
+    <rPh sb="4" eb="5">
+      <t>xuan yao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xu hua</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.取得，获得；采购</t>
+    <rPh sb="2" eb="3">
+      <t>qu de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>huo de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>cai gou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.费力的，艰难的</t>
+    <rPh sb="4" eb="5">
+      <t>fei li</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jian nan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.田园诗的</t>
+    <rPh sb="4" eb="5">
+      <t>tian yuan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.蜿蜒的，迂回的</t>
+    <rPh sb="4" eb="5">
+      <t>wan yan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yu hui</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.植物蔓生的，(城市)无计划扩展的</t>
+    <rPh sb="4" eb="5">
+      <t>zhi wu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>man sheng</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>cheng shi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>wu ji hua</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>kuo zhan</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n./v.恭维，称赞</t>
+    <rPh sb="5" eb="6">
+      <t>gong wei</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>cheng zan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.人道的，慈悲的；人文主义的</t>
+    <rPh sb="4" eb="5">
+      <t>ren doa</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ci bei</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ren wen</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zhu yi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.死气沉沉</t>
+    <rPh sb="2" eb="3">
+      <t>si qi chen chen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使退休领养老金</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>tui xiu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ling</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yang lao jin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.过早的；不合时宜的</t>
+    <rPh sb="4" eb="5">
+      <t>guo zao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bu he shi yi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.勇敢的</t>
+    <rPh sb="4" eb="5">
+      <t>yong gan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.越轨的；异常的</t>
+    <rPh sb="4" eb="5">
+      <t>yue gui</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yi chang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.冷的刺骨的；敏锐的</t>
+    <rPh sb="4" eb="5">
+      <t>leng de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ci gu o</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>min rui de</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -24914,10 +25746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1371"/>
+  <dimension ref="A1:B1417"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A1364" zoomScale="136" zoomScaleNormal="108" zoomScalePageLayoutView="108" workbookViewId="0">
-      <selection activeCell="B1371" sqref="B1371"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A1399" zoomScale="136" zoomScaleNormal="108" zoomScalePageLayoutView="108" workbookViewId="0">
+      <selection activeCell="B1417" sqref="B1417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -35605,8 +36437,360 @@
         <v>2650</v>
       </c>
     </row>
+    <row r="1373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1373" s="1" t="s">
+        <v>2651</v>
+      </c>
+      <c r="B1373" s="1"/>
+    </row>
+    <row r="1374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1374" t="s">
+        <v>2652</v>
+      </c>
+      <c r="B1374" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1375" t="s">
+        <v>2653</v>
+      </c>
+      <c r="B1375" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1376" t="s">
+        <v>2654</v>
+      </c>
+      <c r="B1376" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1377" t="s">
+        <v>2655</v>
+      </c>
+      <c r="B1377" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1378" t="s">
+        <v>2656</v>
+      </c>
+      <c r="B1378" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1379" t="s">
+        <v>2657</v>
+      </c>
+      <c r="B1379" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1380" t="s">
+        <v>2658</v>
+      </c>
+      <c r="B1380" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1381" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1382" t="s">
+        <v>2659</v>
+      </c>
+      <c r="B1382" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1383" t="s">
+        <v>2660</v>
+      </c>
+      <c r="B1383" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1384" t="s">
+        <v>2671</v>
+      </c>
+      <c r="B1384" t="s">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1385" t="s">
+        <v>2672</v>
+      </c>
+      <c r="B1385" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1386" t="s">
+        <v>2673</v>
+      </c>
+      <c r="B1386" t="s">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1387" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B1387" t="s">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1388" t="s">
+        <v>2675</v>
+      </c>
+      <c r="B1388" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1389" t="s">
+        <v>2676</v>
+      </c>
+      <c r="B1389" t="s">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1390" t="s">
+        <v>2677</v>
+      </c>
+      <c r="B1390" t="s">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1391" t="s">
+        <v>2678</v>
+      </c>
+      <c r="B1391" t="s">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1392" t="s">
+        <v>2679</v>
+      </c>
+      <c r="B1392" t="s">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1393" t="s">
+        <v>2680</v>
+      </c>
+      <c r="B1393" t="s">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1394" t="s">
+        <v>2681</v>
+      </c>
+      <c r="B1394" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1395" t="s">
+        <v>2682</v>
+      </c>
+      <c r="B1395" t="s">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1396" t="s">
+        <v>2683</v>
+      </c>
+      <c r="B1396" t="s">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1397" t="s">
+        <v>2684</v>
+      </c>
+      <c r="B1397" t="s">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1398" t="s">
+        <v>2685</v>
+      </c>
+      <c r="B1398" t="s">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1399" t="s">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1400" t="s">
+        <v>2702</v>
+      </c>
+      <c r="B1400" t="s">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1401" t="s">
+        <v>2703</v>
+      </c>
+      <c r="B1401" t="s">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1402" t="s">
+        <v>2704</v>
+      </c>
+      <c r="B1402" t="s">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1403" t="s">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1404" t="s">
+        <v>2705</v>
+      </c>
+      <c r="B1404" t="s">
+        <v>2723</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1405" t="s">
+        <v>2706</v>
+      </c>
+      <c r="B1405" t="s">
+        <v>2724</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1406" t="s">
+        <v>2707</v>
+      </c>
+      <c r="B1406" t="s">
+        <v>2725</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1407" t="s">
+        <v>2708</v>
+      </c>
+      <c r="B1407" t="s">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1408" t="s">
+        <v>2709</v>
+      </c>
+      <c r="B1408" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1409" t="s">
+        <v>2710</v>
+      </c>
+      <c r="B1409" t="s">
+        <v>2728</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1410" t="s">
+        <v>2711</v>
+      </c>
+      <c r="B1410" t="s">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1411" t="s">
+        <v>2712</v>
+      </c>
+      <c r="B1411" t="s">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1412" t="s">
+        <v>2713</v>
+      </c>
+      <c r="B1412" t="s">
+        <v>2731</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1413" t="s">
+        <v>2714</v>
+      </c>
+      <c r="B1413" t="s">
+        <v>2732</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1414" t="s">
+        <v>2715</v>
+      </c>
+      <c r="B1414" t="s">
+        <v>2733</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1415" t="s">
+        <v>2716</v>
+      </c>
+      <c r="B1415" t="s">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1416" t="s">
+        <v>2717</v>
+      </c>
+      <c r="B1416" t="s">
+        <v>2735</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1417" t="s">
+        <v>2718</v>
+      </c>
+      <c r="B1417" t="s">
+        <v>2736</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
+    <mergeCell ref="A800:B800"/>
+    <mergeCell ref="A717:B717"/>
+    <mergeCell ref="A1373:B1373"/>
     <mergeCell ref="A1304:B1304"/>
     <mergeCell ref="A332:B332"/>
     <mergeCell ref="A398:B398"/>
@@ -35623,8 +36807,6 @@
     <mergeCell ref="A1071:B1071"/>
     <mergeCell ref="A974:B974"/>
     <mergeCell ref="A886:B886"/>
-    <mergeCell ref="A800:B800"/>
-    <mergeCell ref="A717:B717"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2737" uniqueCount="2737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2827" uniqueCount="2827">
   <si>
     <t>unit 22</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -25419,6 +25419,888 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>min rui de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingenuously</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arcane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>peerless</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proofread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amenable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forested</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>succor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cavil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rhetoric</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commitment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iridescent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plaintive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insular</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>penitent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adv.纯真地；坦率地</t>
+    <rPh sb="4" eb="5">
+      <t>chun zhen</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>di</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tan shuai</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.神秘的，秘密的</t>
+    <rPh sb="4" eb="5">
+      <t>shen mi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>mi mi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.出类拔萃的，无可匹敌的</t>
+    <rPh sb="4" eb="5">
+      <t>chu lei ba cui</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wu ke pi di</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.校正，校对</t>
+    <rPh sb="2" eb="3">
+      <t>jiao zheng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jiao dui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.顺从的；愿接受的</t>
+    <rPh sb="4" eb="5">
+      <t>shun cong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yuan yi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jie shou</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.限制；依法没收 ，扣押</t>
+    <rPh sb="2" eb="3">
+      <t>xian zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yi fa</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>mo shou</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>kou ya</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.树木丛生的</t>
+    <rPh sb="4" eb="5">
+      <t>shu mu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>cong sheng</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.救助，援助</t>
+    <rPh sb="2" eb="3">
+      <t>jiu zhu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yuan zhu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.挑毛病，吹毛求疵</t>
+    <rPh sb="2" eb="3">
+      <t>tiao mao bing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>chui mao qiu c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.熟练的，擅长的</t>
+    <rPh sb="4" eb="5">
+      <t>shu lian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shan chang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.修辞，修辞学；浮夸的言辞</t>
+    <rPh sb="2" eb="3">
+      <t>xiu ci</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xiu ci xue</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>fu kua</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>yan ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.承诺，许诺</t>
+    <rPh sb="2" eb="3">
+      <t>cheng nuo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xu nuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.色彩斑斓的</t>
+    <rPh sb="4" eb="5">
+      <t>se cai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ban lan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.哀伤的，悲伤的</t>
+    <rPh sb="4" eb="5">
+      <t>ai shang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bei sahng</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.岛屿的；心胸狭窄的</t>
+    <rPh sb="4" eb="5">
+      <t>dao yu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xin xiong xia zai</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xia z</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.悔过的，忏悔的</t>
+    <rPh sb="4" eb="5">
+      <t>hui guo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chan hui</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.(病)良性的；亲切和蔼的；慈祥的</t>
+    <rPh sb="5" eb="6">
+      <t>bing</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>liang xing</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>qin qie</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>he ai</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>de</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ci xiang</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uncommitted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tantalize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prolific</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depreciate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>redundant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zenith</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sluggish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>retract</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obliging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>surmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choppy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relinquish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不受约束的，不承担责任的</t>
+    <rPh sb="4" eb="5">
+      <t>bu shou</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yue shu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bu cheng dan</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ze ren</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.笑话，俏皮话；v.说笑，开玩笑</t>
+    <rPh sb="2" eb="3">
+      <t>xiao hua</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qiao pi hua</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shuo xiao</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>kai wan xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.挑逗，挑惹</t>
+    <rPh sb="2" eb="3">
+      <t>tiao dou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.多产的，多果实的</t>
+    <rPh sb="4" eb="5">
+      <t>duo chan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>duo</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>guo shi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.轻视；贬值</t>
+    <rPh sb="2" eb="3">
+      <t>qing shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bian zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.招徕顾客；极力赞扬</t>
+    <rPh sb="2" eb="3">
+      <t>zhao lai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gu ke</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ji li zan yang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.累赘的，多余的</t>
+    <rPh sb="4" eb="5">
+      <t>lei zhui</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>duo yu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.天顶；极点</t>
+    <rPh sb="2" eb="3">
+      <t>tian ding</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ding</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ji dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.缓慢的，行动迟缓的；反应慢的</t>
+    <rPh sb="4" eb="5">
+      <t>huan man</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xing dong</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>chi huan</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>fan ying man</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.撤回，取消；缩回，拉回</t>
+    <rPh sb="2" eb="3">
+      <t>che hui</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qu xiao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>suo hui</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>la hui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.乐于助人的</t>
+    <rPh sb="4" eb="5">
+      <t>le yu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhu ren</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.克服，战胜；登上</t>
+    <rPh sb="2" eb="3">
+      <t>ke fu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhan sheng</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>deng shnag</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使平静，安抚</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ping jing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>an fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.波浪起伏的；(风)不断改变方向的</t>
+    <rPh sb="4" eb="5">
+      <t>bo lang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qi fu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>feng</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>bu duan</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>gai bian</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>fang xiang</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.放弃，让出</t>
+    <rPh sb="2" eb="3">
+      <t>fang qi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>rang chu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>briny</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hypothetical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incarnate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>torpid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>daunt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>syllable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slovenly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingenuous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aesthetic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>penchant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>surly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.流出(眼泪等);脱落，蜕，落</t>
+    <rPh sb="2" eb="3">
+      <t>liu chu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yan lei deng</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>tuo luo</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>tui</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>luo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.盐水的，咸的</t>
+    <rPh sb="4" eb="5">
+      <t>yan shui</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.假设的</t>
+    <rPh sb="4" eb="5">
+      <t>jia she</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.具有人体的；化身的，拟人的</t>
+    <rPh sb="4" eb="5">
+      <t>ju you</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ren ti</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>hua shen</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ni ren</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.懒散的；迟钝的</t>
+    <rPh sb="4" eb="5">
+      <t>lan san de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chi dun de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使胆怯，使畏缩</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>dan qie</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wei suo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.音节；v.分成音节</t>
+    <rPh sb="2" eb="3">
+      <t>yin jie</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fen cheng</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yin jie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不整洁的，邋遢的</t>
+    <rPh sb="4" eb="5">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zheng jie</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>la ta</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.纯真的，纯朴的；坦率的</t>
+    <rPh sb="4" eb="5">
+      <t>chun zhen</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chun pu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>tan shuai</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.减弱，衰退；枯萎</t>
+    <rPh sb="2" eb="3">
+      <t>jian ruo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shuai tui</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ku wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.审美的，美学的</t>
+    <rPh sb="4" eb="5">
+      <t>shen mei</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>mei xue de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.爱好，嗜好</t>
+    <rPh sb="2" eb="3">
+      <t>ai hao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.脾气暴躁的；阴沉的</t>
+    <rPh sb="4" eb="5">
+      <t>pi qi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bao zao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yin chen</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -25746,10 +26628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1417"/>
+  <dimension ref="A1:B1462"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A1399" zoomScale="136" zoomScaleNormal="108" zoomScalePageLayoutView="108" workbookViewId="0">
-      <selection activeCell="B1417" sqref="B1417"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A1448" zoomScale="136" zoomScaleNormal="108" zoomScalePageLayoutView="108" workbookViewId="0">
+      <selection activeCell="B1463" sqref="B1463"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -36786,19 +37668,379 @@
         <v>2736</v>
       </c>
     </row>
+    <row r="1418" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1418" t="s">
+        <v>2737</v>
+      </c>
+      <c r="B1418" t="s">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1419" t="s">
+        <v>2738</v>
+      </c>
+      <c r="B1419" t="s">
+        <v>2755</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1420" t="s">
+        <v>2739</v>
+      </c>
+      <c r="B1420" t="s">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1421" t="s">
+        <v>2740</v>
+      </c>
+      <c r="B1421" t="s">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1422" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B1422" t="s">
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1423" t="s">
+        <v>2742</v>
+      </c>
+      <c r="B1423" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1424" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B1424" t="s">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1425" t="s">
+        <v>2744</v>
+      </c>
+      <c r="B1425" t="s">
+        <v>2761</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1426" t="s">
+        <v>2745</v>
+      </c>
+      <c r="B1426" t="s">
+        <v>2762</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1427" t="s">
+        <v>2746</v>
+      </c>
+      <c r="B1427" t="s">
+        <v>2763</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1428" t="s">
+        <v>2747</v>
+      </c>
+      <c r="B1428" t="s">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1429" t="s">
+        <v>2748</v>
+      </c>
+      <c r="B1429" t="s">
+        <v>2765</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1430" t="s">
+        <v>2749</v>
+      </c>
+      <c r="B1430" t="s">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1431" t="s">
+        <v>2750</v>
+      </c>
+      <c r="B1431" t="s">
+        <v>2767</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1432" t="s">
+        <v>2751</v>
+      </c>
+      <c r="B1432" t="s">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1433" t="s">
+        <v>2752</v>
+      </c>
+      <c r="B1433" t="s">
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1434" t="s">
+        <v>2753</v>
+      </c>
+      <c r="B1434" t="s">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1435" t="s">
+        <v>2771</v>
+      </c>
+      <c r="B1435" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1436" t="s">
+        <v>2772</v>
+      </c>
+      <c r="B1436" t="s">
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1437" t="s">
+        <v>2773</v>
+      </c>
+      <c r="B1437" t="s">
+        <v>2788</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1438" t="s">
+        <v>2774</v>
+      </c>
+      <c r="B1438" t="s">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1439" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B1439" t="s">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1440" t="s">
+        <v>2776</v>
+      </c>
+      <c r="B1440" t="s">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1441" t="s">
+        <v>2777</v>
+      </c>
+      <c r="B1441" t="s">
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1442" t="s">
+        <v>2778</v>
+      </c>
+      <c r="B1442" t="s">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1443" t="s">
+        <v>2779</v>
+      </c>
+      <c r="B1443" t="s">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1444" t="s">
+        <v>2780</v>
+      </c>
+      <c r="B1444" t="s">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1445" t="s">
+        <v>2781</v>
+      </c>
+      <c r="B1445" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1446" t="s">
+        <v>2782</v>
+      </c>
+      <c r="B1446" t="s">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1447" t="s">
+        <v>2783</v>
+      </c>
+      <c r="B1447" t="s">
+        <v>2798</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1448" t="s">
+        <v>2784</v>
+      </c>
+      <c r="B1448" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1449" t="s">
+        <v>2785</v>
+      </c>
+      <c r="B1449" t="s">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1450" t="s">
+        <v>2801</v>
+      </c>
+      <c r="B1450" t="s">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1451" t="s">
+        <v>2802</v>
+      </c>
+      <c r="B1451" t="s">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1452" t="s">
+        <v>2803</v>
+      </c>
+      <c r="B1452" t="s">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1453" t="s">
+        <v>2804</v>
+      </c>
+      <c r="B1453" t="s">
+        <v>2817</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1454" t="s">
+        <v>2805</v>
+      </c>
+      <c r="B1454" t="s">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1455" t="s">
+        <v>2806</v>
+      </c>
+      <c r="B1455" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1456" t="s">
+        <v>2807</v>
+      </c>
+      <c r="B1456" t="s">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1457" t="s">
+        <v>2808</v>
+      </c>
+      <c r="B1457" t="s">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1458" t="s">
+        <v>2809</v>
+      </c>
+      <c r="B1458" t="s">
+        <v>2822</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1459" t="s">
+        <v>2810</v>
+      </c>
+      <c r="B1459" t="s">
+        <v>2823</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1460" t="s">
+        <v>2811</v>
+      </c>
+      <c r="B1460" t="s">
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1461" t="s">
+        <v>2812</v>
+      </c>
+      <c r="B1461" t="s">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1462" t="s">
+        <v>2813</v>
+      </c>
+      <c r="B1462" t="s">
+        <v>2826</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A259:B259"/>
     <mergeCell ref="A800:B800"/>
     <mergeCell ref="A717:B717"/>
     <mergeCell ref="A1373:B1373"/>
     <mergeCell ref="A1304:B1304"/>
     <mergeCell ref="A332:B332"/>
     <mergeCell ref="A398:B398"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="A259:B259"/>
     <mergeCell ref="A1147:B1147"/>
     <mergeCell ref="A1237:B1237"/>
     <mergeCell ref="A554:B554"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2827" uniqueCount="2827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2910" uniqueCount="2910">
   <si>
     <t>unit 22</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -26301,6 +26301,748 @@
     </rPh>
     <rPh sb="12" eb="13">
       <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pitiful</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obsolescent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>referent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tributary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eulogize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>welter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.复合物</t>
+    <rPh sb="2" eb="3">
+      <t>fu he wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.值得同情的，可怜的</t>
+    <rPh sb="4" eb="5">
+      <t>zhi de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>tong qing</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ke lian</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.逐渐荒废的</t>
+    <rPh sb="4" eb="5">
+      <t>zhu jian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>huang fei</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.指示对象</t>
+    <rPh sb="2" eb="3">
+      <t>zhi shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dui xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.支流；进贡国；</t>
+    <rPh sb="2" eb="3">
+      <t>zhi liu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jin gong</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.支流的；辅助的；进贡的</t>
+  </si>
+  <si>
+    <t>v.称赞，颂扬</t>
+    <rPh sb="2" eb="3">
+      <t>cheng zan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>song yang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.混乱，杂乱无章</t>
+    <rPh sb="2" eb="3">
+      <t>hun luan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>za luan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wu zhang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disproportionate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seductive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upscale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unprecedented</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epitome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self-effacement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aromatic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overblown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pristine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impecunious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proficient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不成比例的</t>
+    <rPh sb="4" eb="5">
+      <t>bu cheng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bi li</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.托运；托人看管</t>
+    <rPh sb="2" eb="3">
+      <t>tuo tun</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yun</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tuo ren</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>kan guan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.诱人的</t>
+    <rPh sb="4" eb="5">
+      <t>you ren</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.升高级，升档</t>
+    <rPh sb="2" eb="3">
+      <t>sheng gao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>sheng dang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.前所未有的</t>
+    <rPh sb="4" eb="5">
+      <t>qian suo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wei you</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.典型；梗概</t>
+    <rPh sb="2" eb="3">
+      <t>dian xing</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>geng gai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.限制，禁闭</t>
+    <rPh sb="2" eb="3">
+      <t>xian zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jin bi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.自谦</t>
+    <rPh sb="2" eb="3">
+      <t>zi qian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.芬芳的，芳香的</t>
+    <rPh sb="4" eb="5">
+      <t>fen fang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fang xiang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.盛期已过的，残败的；夸张的</t>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>can bai</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>kua zhang</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>d w</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.绞，拧，扭</t>
+    <rPh sb="2" eb="3">
+      <t>jiao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ning</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>niu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.原始的；质朴的，纯洁的</t>
+    <rPh sb="4" eb="5">
+      <t>yuan shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhi pu de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>chun jie</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新鲜的，干净的</t>
+    <rPh sb="0" eb="1">
+      <t>xin xian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gan jing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不名一文的，没钱的</t>
+    <rPh sb="4" eb="5">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ming</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wen</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>mei qian</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.熟练的，精通的</t>
+    <rPh sb="4" eb="5">
+      <t>shu lian de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jing tong</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unerringly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>charter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quagmire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>infuse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preclude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>raucous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frisky</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>withhold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repeal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relegate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gaudy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>undifferentiated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fallow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exonerate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stagger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agitation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adv.无过失的</t>
+    <rPh sb="4" eb="5">
+      <t>wu guo shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.特权或豁免权</t>
+    <rPh sb="2" eb="3">
+      <t>te quan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>huo mian quan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.正式的辩论，讨论；v.讨论，辩论</t>
+    <rPh sb="2" eb="3">
+      <t>zheng shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bian lun</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tao lun</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>tao lun</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>bian lun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.沼泽地；困境</t>
+    <rPh sb="2" eb="3">
+      <t>zhao ze</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>di</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>kun jing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.注入，灌输；鼓励</t>
+    <rPh sb="2" eb="3">
+      <t>zhu ru</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>guan shu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gu li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.预防，排除；阻止</t>
+    <rPh sb="2" eb="3">
+      <t>yu fang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>pai chu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zu zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.感觉的，感官的</t>
+    <rPh sb="4" eb="5">
+      <t>gan jue de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gan guan de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.刺耳的，沙哑的；喧嚣的</t>
+    <rPh sb="4" eb="5">
+      <t>ci er</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>sha ya</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>xuan xiao</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.活泼的，快活的</t>
+    <rPh sb="4" eb="5">
+      <t>huo po</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>kuai huo</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.抑制；扣留，保留</t>
+    <rPh sb="2" eb="3">
+      <t>yi zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>kou liu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bao liu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.废除(法律)</t>
+    <rPh sb="2" eb="3">
+      <t>fei chu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fa lü</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使降级，贬谪；交付，托付</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jiang ji</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bian zhe</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jiao fu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>tuo fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.俗丽的</t>
+    <rPh sb="4" eb="5">
+      <t>su</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>li</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.神智清楚的</t>
+    <rPh sb="4" eb="5">
+      <t>shen zhi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qing chu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.无差别的，一致的</t>
+    <rPh sb="4" eb="5">
+      <t>wu cha bie</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yhi zhi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.休耕地；adj.休耕的</t>
+    <rPh sb="2" eb="3">
+      <t>xiu geng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>di</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xiu geng</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.免除责任；确定无罪</t>
+    <rPh sb="2" eb="3">
+      <t>mian chu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ze ren</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>que ding wu zui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.蹒跚，摇晃</t>
+    <rPh sb="2" eb="3">
+      <t>pan shan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yao huang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.焦虑，不安；公开辩论，鼓励宣传</t>
+    <rPh sb="2" eb="3">
+      <t>jiao lü</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bu an</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gong kai</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bian lun</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>gu li</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>xuan chuan</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -26628,10 +27370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1462"/>
+  <dimension ref="A1:B1506"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A1448" zoomScale="136" zoomScaleNormal="108" zoomScalePageLayoutView="108" workbookViewId="0">
-      <selection activeCell="B1463" sqref="B1463"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A1486" zoomScale="136" zoomScaleNormal="108" zoomScalePageLayoutView="108" workbookViewId="0">
+      <selection activeCell="B1506" sqref="B1506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -38028,13 +38770,345 @@
         <v>2826</v>
       </c>
     </row>
+    <row r="1464" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1464" s="1" t="s">
+        <v>2827</v>
+      </c>
+      <c r="B1464" s="1"/>
+    </row>
+    <row r="1465" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1465" t="s">
+        <v>2828</v>
+      </c>
+      <c r="B1465" t="s">
+        <v>2835</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1466" t="s">
+        <v>2829</v>
+      </c>
+      <c r="B1466" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1467" t="s">
+        <v>2830</v>
+      </c>
+      <c r="B1467" t="s">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1468" t="s">
+        <v>2831</v>
+      </c>
+      <c r="B1468" t="s">
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1469" t="s">
+        <v>2832</v>
+      </c>
+      <c r="B1469" t="s">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1470" t="s">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1471" t="s">
+        <v>2833</v>
+      </c>
+      <c r="B1471" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1472" t="s">
+        <v>2834</v>
+      </c>
+      <c r="B1472" t="s">
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1473" t="s">
+        <v>2843</v>
+      </c>
+      <c r="B1473" t="s">
+        <v>2857</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1474" t="s">
+        <v>2844</v>
+      </c>
+      <c r="B1474" t="s">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1475" t="s">
+        <v>2845</v>
+      </c>
+      <c r="B1475" t="s">
+        <v>2859</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1476" t="s">
+        <v>2846</v>
+      </c>
+      <c r="B1476" t="s">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1477" t="s">
+        <v>2847</v>
+      </c>
+      <c r="B1477" t="s">
+        <v>2861</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1478" t="s">
+        <v>2848</v>
+      </c>
+      <c r="B1478" t="s">
+        <v>2862</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1479" t="s">
+        <v>2849</v>
+      </c>
+      <c r="B1479" t="s">
+        <v>2863</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1480" t="s">
+        <v>2850</v>
+      </c>
+      <c r="B1480" t="s">
+        <v>2864</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1481" t="s">
+        <v>2851</v>
+      </c>
+      <c r="B1481" t="s">
+        <v>2865</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1482" t="s">
+        <v>2852</v>
+      </c>
+      <c r="B1482" t="s">
+        <v>2866</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1483" t="s">
+        <v>2853</v>
+      </c>
+      <c r="B1483" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1484" t="s">
+        <v>2854</v>
+      </c>
+      <c r="B1484" t="s">
+        <v>2868</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1485" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1486" t="s">
+        <v>2855</v>
+      </c>
+      <c r="B1486" t="s">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1487" t="s">
+        <v>2856</v>
+      </c>
+      <c r="B1487" t="s">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1488" t="s">
+        <v>2872</v>
+      </c>
+      <c r="B1488" t="s">
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1489" t="s">
+        <v>2873</v>
+      </c>
+      <c r="B1489" t="s">
+        <v>2892</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1490" t="s">
+        <v>2874</v>
+      </c>
+      <c r="B1490" t="s">
+        <v>2893</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1491" t="s">
+        <v>2875</v>
+      </c>
+      <c r="B1491" t="s">
+        <v>2894</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1492" t="s">
+        <v>2876</v>
+      </c>
+      <c r="B1492" t="s">
+        <v>2895</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1493" t="s">
+        <v>2877</v>
+      </c>
+      <c r="B1493" t="s">
+        <v>2896</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1494" t="s">
+        <v>2878</v>
+      </c>
+      <c r="B1494" t="s">
+        <v>2897</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1495" t="s">
+        <v>2879</v>
+      </c>
+      <c r="B1495" t="s">
+        <v>2898</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1496" t="s">
+        <v>2880</v>
+      </c>
+      <c r="B1496" t="s">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1497" t="s">
+        <v>2881</v>
+      </c>
+      <c r="B1497" t="s">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1498" t="s">
+        <v>2882</v>
+      </c>
+      <c r="B1498" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1499" t="s">
+        <v>2883</v>
+      </c>
+      <c r="B1499" t="s">
+        <v>2902</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1500" t="s">
+        <v>2884</v>
+      </c>
+      <c r="B1500" t="s">
+        <v>2903</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1501" t="s">
+        <v>2885</v>
+      </c>
+      <c r="B1501" t="s">
+        <v>2904</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1502" t="s">
+        <v>2886</v>
+      </c>
+      <c r="B1502" t="s">
+        <v>2905</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1503" t="s">
+        <v>2887</v>
+      </c>
+      <c r="B1503" t="s">
+        <v>2906</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1504" t="s">
+        <v>2888</v>
+      </c>
+      <c r="B1504" t="s">
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1505" t="s">
+        <v>2889</v>
+      </c>
+      <c r="B1505" t="s">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1506" t="s">
+        <v>2890</v>
+      </c>
+      <c r="B1506" t="s">
+        <v>2909</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="A259:B259"/>
+  <mergeCells count="20">
+    <mergeCell ref="A1464:B1464"/>
     <mergeCell ref="A800:B800"/>
     <mergeCell ref="A717:B717"/>
     <mergeCell ref="A1373:B1373"/>
@@ -38049,6 +39123,11 @@
     <mergeCell ref="A1071:B1071"/>
     <mergeCell ref="A974:B974"/>
     <mergeCell ref="A886:B886"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A259:B259"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2910" uniqueCount="2910">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3160" uniqueCount="3157">
   <si>
     <t>unit 22</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -27043,6 +27043,2491 @@
     </rPh>
     <rPh sb="15" eb="16">
       <t>xuan chuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>primal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dogmatist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>submerged</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vicissitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shiny</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grandeur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amorphous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>homespun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asunder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mournful</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distasteful</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incidental</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inalienable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>officious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ruminant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.原始的，最初的；首要的</t>
+    <rPh sb="4" eb="5">
+      <t>yuan shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zui chu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>shou yao de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.松树；v.(因疾病等)憔悴；渴望</t>
+    <rPh sb="2" eb="3">
+      <t>song shu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yin ji bing</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>qiao cui</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ke wang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.独断家，独断论者</t>
+    <rPh sb="2" eb="3">
+      <t>du duan jia</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>du duan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>lun</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.在水中的，淹没的</t>
+    <rPh sb="4" eb="5">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shui zhong</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yan mo</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.变迁，兴衰</t>
+    <rPh sb="2" eb="3">
+      <t>bian qian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xing shuai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.有光泽的；发光的</t>
+    <rPh sb="4" eb="5">
+      <t>you</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>guang ze</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>fa guang de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.壮丽，宏伟</t>
+    <rPh sb="2" eb="3">
+      <t>zhuang li</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hong wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.无固定形状的</t>
+    <rPh sb="4" eb="5">
+      <t>wu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gu ding</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xing tai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhuang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.朴素的；家织的</t>
+    <rPh sb="4" eb="5">
+      <t>pu su</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj./adv.分离的(地)；化为碎片的(地)</t>
+    <rPh sb="9" eb="10">
+      <t>fen li</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>di</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>hua wei</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>sui pian</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>de</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.悲伤的</t>
+    <rPh sb="4" eb="5">
+      <t>bei shang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.晒太阳，取暖</t>
+    <rPh sb="2" eb="3">
+      <t>shai tai yang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qu nuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.(令人)不愉快的，讨厌的</t>
+    <rPh sb="5" eb="6">
+      <t>ling ren</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bu yu kuai</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>tao yan</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.做为自然结果的，伴随而来的；</t>
+    <rPh sb="4" eb="5">
+      <t>zuo wei</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zi ran</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jie guo</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ban sui</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>er lai</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偶然发生的</t>
+    <rPh sb="0" eb="1">
+      <t>ou ran</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fa sheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不能转让的；不可剥夺的</t>
+    <rPh sb="4" eb="5">
+      <t>bu neng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhuan rang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bu ke</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>bo duo</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.过于殷勤的，多管闲事的，非官方的</t>
+    <rPh sb="4" eb="5">
+      <t>guo yu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yin qin</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>duo guan xian shi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>fei guan fang</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.(动物)反刍的；沉思的</t>
+    <rPh sb="5" eb="6">
+      <t>dong wu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fan chu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>chen si</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rigorous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diverse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rehabilitate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entrenched</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weightless</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indigent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trickle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anticipatory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pompous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enamored</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coherence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>patronizing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.严格的，严峻的</t>
+    <rPh sb="4" eb="5">
+      <t>yan ge</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yan jun de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不同的；多样的</t>
+    <rPh sb="4" eb="5">
+      <t>bu tong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>duo yang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使恢复(健康、能力、地位等)</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>hui fu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jian kang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>neng li</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>di wei</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>deng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.(权利、传统)确立的，牢固的</t>
+    <rPh sb="5" eb="6">
+      <t>quan li</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chuan tong</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>que li</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>lao gu</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.无重力的，失重的</t>
+    <rPh sb="4" eb="5">
+      <t>wu zhong li</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shi zhong</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.贫困的，贫穷的</t>
+    <rPh sb="4" eb="5">
+      <t>pin kun</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>pin qiong</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.证明，证实</t>
+    <rPh sb="2" eb="3">
+      <t>zheng ming</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zheng shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.细细地流；n.细流</t>
+    <rPh sb="2" eb="3">
+      <t>xi xi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>di</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>liu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>liu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.预想的，预期的</t>
+    <rPh sb="4" eb="5">
+      <t>yu xiang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yu qi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.自大的</t>
+    <rPh sb="4" eb="5">
+      <t>zi da de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.倾心的，被迷住的</t>
+    <rPh sb="4" eb="5">
+      <t>qing xin</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bei</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>mi zhu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.条理性，连贯性</t>
+    <rPh sb="2" eb="3">
+      <t>tiao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>lian guan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.以恩惠态度对待的，要人领情的</t>
+    <rPh sb="4" eb="5">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>en hui</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>tai du</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>dui dai</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>yao</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ren</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ling qing</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>misalliance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plainspoken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>counteract</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.不适当的结合</t>
+    <rPh sb="2" eb="3">
+      <t>bu shi dang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jie he</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.直言不讳的</t>
+    <rPh sb="4" eb="5">
+      <t>zhi yan bu hui</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.消除，抵消</t>
+    <rPh sb="2" eb="3">
+      <t>xiao chu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>di xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>querulous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obscurity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.抱怨的，爱发牢骚的</t>
+    <rPh sb="4" eb="5">
+      <t>bao yuan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ai fa lao sao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.费解；不出名</t>
+    <rPh sb="2" eb="3">
+      <t>fei jie</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bu chu ming</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roseate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intricate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heterogeneous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subterranean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dismal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cordiality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>engender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deprave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>provision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incorporate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acquiescence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingenious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>propel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imponderable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.玫瑰色的；过分乐观的</t>
+    <rPh sb="4" eb="5">
+      <t>mei gui</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>se</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>guo fen</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>le guan</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.错综复杂的；难懂的</t>
+    <rPh sb="4" eb="5">
+      <t>cuo zong fu za</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>nan dong</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.异类的，多样化的</t>
+    <rPh sb="4" eb="5">
+      <t>yi lei</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>duo yang hua</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.分配；拔出</t>
+    <rPh sb="2" eb="3">
+      <t>fen pei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ba chu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.地下的 ，地表下的</t>
+    <rPh sb="4" eb="5">
+      <t>di xia de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>di biao xia</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.沮丧的，阴沉的</t>
+    <rPh sb="4" eb="5">
+      <t>ju sang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yin chen</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.诚恳，热诚</t>
+    <rPh sb="2" eb="3">
+      <t>cheng ken</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>re cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.产生，引起</t>
+    <rPh sb="2" eb="3">
+      <t>chan sheng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yin qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使堕落，使恶化</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>duo luo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>e hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.供应；(法律等)条款</t>
+    <rPh sb="2" eb="3">
+      <t>gong ying</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fa lü</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>tiao kuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.合并，并入</t>
+    <rPh sb="2" eb="3">
+      <t>he bing</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bing ru</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.违约；未履行的责任；拖欠</t>
+    <rPh sb="2" eb="3">
+      <t>wei yue</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>lü xing</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ze ren</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>tuo qian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.不履行</t>
+    <rPh sb="2" eb="3">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>lü xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.默许</t>
+    <rPh sb="2" eb="3">
+      <t>mo xu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.聪明的；善于创造发明的，心灵手巧的</t>
+    <rPh sb="4" eb="5">
+      <t>cong ming</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shan yu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>chuang zao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>fa ming</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>xin ling shou qiao</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.推进，促进</t>
+    <rPh sb="2" eb="3">
+      <t>tui jin</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>cu jin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.(重量等)无法衡量的</t>
+    <rPh sb="5" eb="6">
+      <t>zhong liang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>wu fa heng liang</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>argumentative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>occupation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uncompromising</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insubstantial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tendentious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>palpable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drollery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>astronomical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ambiguity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perspicuous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proprietary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repellent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sweep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.好争辩的，好争吵的</t>
+    <rPh sb="4" eb="5">
+      <t>hao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zheng bian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>hao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zheng chao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.工作，职业；占有，占领</t>
+    <rPh sb="2" eb="3">
+      <t>gong zuo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhi ye</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhan you</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zhan ling</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使成薄片</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bo pian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不妥协的</t>
+    <rPh sb="4" eb="5">
+      <t>bu tuo xie</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.陈腐的，陈词滥调的</t>
+    <rPh sb="4" eb="5">
+      <t>chen fu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chen ci lan diao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.无实体的；脆弱的</t>
+    <rPh sb="4" eb="5">
+      <t>wu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi ti de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>cui ruo</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.惠允(作某事)；施惠于人</t>
+    <rPh sb="2" eb="3">
+      <t>hui yun</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zuo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>mou shi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shi hui</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.有偏见的</t>
+    <rPh sb="4" eb="5">
+      <t>you</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>pian jian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.色泽；v.给……谈谈地着色；染</t>
+    <rPh sb="2" eb="3">
+      <t>se ze</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>gei</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>tan tan</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>di</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zhuo se</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ran</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.可触知的，可觉察的；明显的</t>
+    <rPh sb="4" eb="5">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jue cha</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ming xian</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.遵从，听从；延期</t>
+    <rPh sb="2" eb="3">
+      <t>zun cong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ting cong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yan qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.滑稽</t>
+    <rPh sb="2" eb="3">
+      <t>hua ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.节制，限量，节省</t>
+    <rPh sb="2" eb="3">
+      <t>jie zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xian liang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jie sheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.极大的；天文学的</t>
+    <rPh sb="4" eb="5">
+      <t>ji da</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tian wen xue</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.模棱两可的话；不明确</t>
+    <rPh sb="2" eb="3">
+      <t>mo leng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>liang ke</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>hua</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bu ming que</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.明晰的，明了的</t>
+    <rPh sb="4" eb="5">
+      <t>ming xi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ming liao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.私有的</t>
+    <rPh sb="4" eb="5">
+      <t>si you</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.令人讨厌的</t>
+    <rPh sb="4" eb="5">
+      <t>ling ren</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>tao yan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.席卷，扫过</t>
+    <rPh sb="2" eb="3">
+      <t>xi juan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>sao guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regimental</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transmute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prophesy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upstart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toady</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distinct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>therapeutic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accomplice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reminiscent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bumper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>claim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>construe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.团的，团队的</t>
+    <rPh sb="4" eb="5">
+      <t>tuan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>tuan dui</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.变化</t>
+    <rPh sb="2" eb="3">
+      <t>bian uha</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.寓言</t>
+    <rPh sb="2" eb="3">
+      <t>yu yan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.突然升官的人，暴发户</t>
+    <rPh sb="2" eb="3">
+      <t>tu ran</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>sheng guan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ren</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bao fa hu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.谄媚者，马屁精</t>
+    <rPh sb="2" eb="3">
+      <t>chan mei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhe</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ma pi jing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.清楚的，明显的</t>
+    <rPh sb="4" eb="5">
+      <t>qing chu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ming xian</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.治疗的</t>
+    <rPh sb="4" eb="5">
+      <t>zhi liao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.共犯，同谋</t>
+    <rPh sb="2" eb="3">
+      <t>gong fan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tong mou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.美味，风味；喜好，兴趣</t>
+    <rPh sb="2" eb="3">
+      <t>mei wei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>feng wei</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xi hao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xing qu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.喜好，享受</t>
+    <rPh sb="2" eb="3">
+      <t>xi hao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xiang shou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.回忆的；使人联想的</t>
+    <rPh sb="4" eb="5">
+      <t>hui yi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi ren</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>lian xiang</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.特大的；n.保险杠</t>
+    <rPh sb="4" eb="5">
+      <t>te da</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bao xian gang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.要求或索要；n.生称拥有的权利</t>
+    <rPh sb="2" eb="3">
+      <t>yao qiu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>suo yao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>sheng cheng</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>cheng</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>yong you</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>quan li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.解释；翻译</t>
+    <rPh sb="2" eb="3">
+      <t>jie shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fan yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.磨碎，碾碎；n.苦差事</t>
+    <rPh sb="2" eb="3">
+      <t>mo sun</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>sui</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>nian sui</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ku chai shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>undirected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deciduous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>murky</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admonish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glamorous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disabuse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deferential</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>denigrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gratify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fickle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>combustible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tractable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>utilitarian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allegory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vestigial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defiant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingratiating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.未受指导的</t>
+    <rPh sb="4" eb="5">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shou</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhi dao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.藏匿</t>
+    <rPh sb="2" eb="3">
+      <t>cang ni</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.非永久的；短暂的；</t>
+    <rPh sb="4" eb="5">
+      <t>fei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yong jiu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>duan zan</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脱落的；落叶的</t>
+    <rPh sb="4" eb="5">
+      <t>luo ye</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.黑暗的，昏暗的；朦胧的</t>
+    <rPh sb="4" eb="5">
+      <t>hei an</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>hu nan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>meng long</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.训诫；警告</t>
+    <rPh sb="2" eb="3">
+      <t>xun jie</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jing gao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.迷人的，富有魅力的</t>
+    <rPh sb="4" eb="5">
+      <t>mi ren</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fu you</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>mei li</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.打消(某人的)错误念头，使醒悟</t>
+    <rPh sb="2" eb="3">
+      <t>da xiao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mou ren</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>cuo wu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>nian tou</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>xing wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.顺从的，恭顺的</t>
+    <rPh sb="4" eb="5">
+      <t>shun cong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gong shun</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.污蔑，诽谤</t>
+    <rPh sb="2" eb="3">
+      <t>wu mie</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fei bang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使高兴，使满足</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gao xing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>man zu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.(尤指感情方面)易变的，</t>
+    <rPh sb="5" eb="6">
+      <t>you</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>gan qing</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>fang mian</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>bian</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变化无常的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不坚定的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.易燃的；易激动的</t>
+    <rPh sb="4" eb="5">
+      <t>yi ran</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ji dong</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.易处理的；驯良的</t>
+    <rPh sb="4" eb="5">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chu li</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xun liang</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.功力的，实利的</t>
+    <rPh sb="4" eb="5">
+      <t>gong li</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi li</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>li</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.退化的</t>
+    <rPh sb="4" eb="5">
+      <t>tui hua</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.反抗的，挑衅的</t>
+    <rPh sb="4" eb="5">
+      <t>fan kang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tiao xin</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.讨人喜花的，迷人的</t>
+    <rPh sb="4" eb="5">
+      <t>tao ren</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xi hau</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>mi ren</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨好的，献媚的</t>
+    <rPh sb="0" eb="1">
+      <t>tao hao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mei</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intimation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remunerative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wavy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fluffy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>profligacy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adulation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hardheaded</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deficiency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scruple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sanitary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resilient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>authoritative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hereditary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>judicious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>revelation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>witty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sparing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>demotic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.民众的，通俗的</t>
+    <rPh sb="4" eb="5">
+      <t>min zhong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tong su</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.报酬高的，有利润的</t>
+    <rPh sb="4" eb="5">
+      <t>bao chou</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>you</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>li run de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.波状的，多浪的；波动起伏的</t>
+    <rPh sb="4" eb="5">
+      <t>bo zhuang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>duo lang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>bo dong qi fu</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.有绒毛的；无聊的，琐碎的</t>
+    <rPh sb="4" eb="5">
+      <t>you</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>rong mao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>wu liao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>suo sui</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.放肆；肆意挥霍</t>
+    <rPh sb="2" eb="3">
+      <t>fang si</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>si yi hui huo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.奉承，谄媚</t>
+    <rPh sb="2" eb="3">
+      <t>feng cheng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chan mei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.(尤指做生意时)讲究实际的，冷静的，精明的</t>
+    <rPh sb="5" eb="6">
+      <t>you</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zuo sheng yi shi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>jiang jiu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>shi ji</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>leng jing</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>de</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>jing ming</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.缺陷</t>
+    <rPh sb="2" eb="3">
+      <t>que xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.顾忌，迟疑；v.顾忌</t>
+    <rPh sb="2" eb="3">
+      <t>gu ji</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chi yi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gu ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.(有关)卫生的，清洁的</t>
+    <rPh sb="5" eb="6">
+      <t>you guan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wei sheng</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>qing jie</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.有弹性的，能恢复活力的，适应力强的</t>
+    <rPh sb="4" eb="5">
+      <t>you</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tan xing</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>neng</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>hui fu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>huo li</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>shi ying li</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>qiang de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.权威的，官方的；专断的</t>
+    <rPh sb="4" eb="5">
+      <t>quan wei</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>guan fang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zhuan duan</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>circumlocution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.迂回累赘的陈述</t>
+    <rPh sb="2" eb="3">
+      <t>yu hui</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>lei zhui</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>chen shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.祖传的，世袭的；遗传的</t>
+    <rPh sb="4" eb="5">
+      <t>zu chuan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi xi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>yi chuan</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.有判断力的；审慎的</t>
+    <rPh sb="4" eb="5">
+      <t>you</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>pan duan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>li</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shen shen</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.显示；揭露的事实</t>
+    <rPh sb="2" eb="3">
+      <t>xian shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jie lu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.机智的；风趣的</t>
+    <rPh sb="4" eb="5">
+      <t>ji zhi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>feng qu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -27370,10 +29855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1506"/>
+  <dimension ref="A1:C1635"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A1486" zoomScale="136" zoomScaleNormal="108" zoomScalePageLayoutView="108" workbookViewId="0">
-      <selection activeCell="B1506" sqref="B1506"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A1614" zoomScale="136" zoomScaleNormal="108" zoomScalePageLayoutView="108" workbookViewId="0">
+      <selection activeCell="B1634" sqref="B1634"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -39106,13 +41591,1021 @@
         <v>2909</v>
       </c>
     </row>
+    <row r="1507" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1507" t="s">
+        <v>2910</v>
+      </c>
+      <c r="B1507" t="s">
+        <v>2927</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1508" t="s">
+        <v>2911</v>
+      </c>
+      <c r="B1508" t="s">
+        <v>2928</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1509" t="s">
+        <v>2912</v>
+      </c>
+      <c r="B1509" t="s">
+        <v>2929</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1510" t="s">
+        <v>2913</v>
+      </c>
+      <c r="B1510" t="s">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1511" t="s">
+        <v>2914</v>
+      </c>
+      <c r="B1511" t="s">
+        <v>2931</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1512" t="s">
+        <v>2915</v>
+      </c>
+      <c r="B1512" t="s">
+        <v>2932</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1513" t="s">
+        <v>2916</v>
+      </c>
+      <c r="B1513" t="s">
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1514" t="s">
+        <v>2917</v>
+      </c>
+      <c r="B1514" t="s">
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1515" t="s">
+        <v>2918</v>
+      </c>
+      <c r="B1515" t="s">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1516" t="s">
+        <v>2919</v>
+      </c>
+      <c r="B1516" t="s">
+        <v>2936</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1517" t="s">
+        <v>2920</v>
+      </c>
+      <c r="B1517" t="s">
+        <v>2937</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1518" t="s">
+        <v>2921</v>
+      </c>
+      <c r="B1518" t="s">
+        <v>2938</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1519" t="s">
+        <v>2922</v>
+      </c>
+      <c r="B1519" t="s">
+        <v>2939</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1520" t="s">
+        <v>2923</v>
+      </c>
+      <c r="B1520" t="s">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1521" t="s">
+        <v>2941</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1522" t="s">
+        <v>2924</v>
+      </c>
+      <c r="B1522" t="s">
+        <v>2942</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1523" t="s">
+        <v>2925</v>
+      </c>
+      <c r="B1523" t="s">
+        <v>2943</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1524" t="s">
+        <v>2926</v>
+      </c>
+      <c r="B1524" t="s">
+        <v>2944</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1525" t="s">
+        <v>2945</v>
+      </c>
+      <c r="B1525" t="s">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1526" t="s">
+        <v>2946</v>
+      </c>
+      <c r="B1526" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1527" t="s">
+        <v>2947</v>
+      </c>
+      <c r="B1527" t="s">
+        <v>2960</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1528" t="s">
+        <v>2948</v>
+      </c>
+      <c r="B1528" t="s">
+        <v>2961</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1529" t="s">
+        <v>2949</v>
+      </c>
+      <c r="B1529" t="s">
+        <v>2962</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1530" t="s">
+        <v>2950</v>
+      </c>
+      <c r="B1530" t="s">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1531" t="s">
+        <v>2951</v>
+      </c>
+      <c r="B1531" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1532" t="s">
+        <v>2952</v>
+      </c>
+      <c r="B1532" t="s">
+        <v>2965</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1533" t="s">
+        <v>2953</v>
+      </c>
+      <c r="B1533" t="s">
+        <v>2966</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1534" t="s">
+        <v>2954</v>
+      </c>
+      <c r="B1534" t="s">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1535" t="s">
+        <v>2955</v>
+      </c>
+      <c r="B1535" t="s">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1536" t="s">
+        <v>2956</v>
+      </c>
+      <c r="B1536" t="s">
+        <v>2969</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1537" t="s">
+        <v>2957</v>
+      </c>
+      <c r="B1537" t="s">
+        <v>2970</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1538" t="s">
+        <v>2971</v>
+      </c>
+      <c r="B1538" t="s">
+        <v>2974</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1539" t="s">
+        <v>2972</v>
+      </c>
+      <c r="B1539" t="s">
+        <v>2975</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1540" t="s">
+        <v>2973</v>
+      </c>
+      <c r="B1540" t="s">
+        <v>2976</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1542" s="1" t="s">
+        <v>2977</v>
+      </c>
+      <c r="B1542" s="1"/>
+    </row>
+    <row r="1543" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1543" t="s">
+        <v>2978</v>
+      </c>
+      <c r="B1543" t="s">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1544" t="s">
+        <v>2979</v>
+      </c>
+      <c r="B1544" t="s">
+        <v>2981</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1545" t="s">
+        <v>2982</v>
+      </c>
+      <c r="B1545" t="s">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1546" t="s">
+        <v>2983</v>
+      </c>
+      <c r="B1546" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1547" t="s">
+        <v>2984</v>
+      </c>
+      <c r="B1547" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1548" t="s">
+        <v>2985</v>
+      </c>
+      <c r="B1548" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1549" t="s">
+        <v>2986</v>
+      </c>
+      <c r="B1549" t="s">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1550" t="s">
+        <v>2987</v>
+      </c>
+      <c r="B1550" t="s">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1551" t="s">
+        <v>2988</v>
+      </c>
+      <c r="B1551" t="s">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1552" t="s">
+        <v>2989</v>
+      </c>
+      <c r="B1552" t="s">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1553" t="s">
+        <v>2990</v>
+      </c>
+      <c r="B1553" t="s">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1554" t="s">
+        <v>2991</v>
+      </c>
+      <c r="B1554" t="s">
+        <v>3007</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1555" t="s">
+        <v>2992</v>
+      </c>
+      <c r="B1555" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1556" t="s">
+        <v>2993</v>
+      </c>
+      <c r="B1556" t="s">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1557" t="s">
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1558" t="s">
+        <v>2994</v>
+      </c>
+      <c r="B1558" t="s">
+        <v>3011</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1559" t="s">
+        <v>2995</v>
+      </c>
+      <c r="B1559" t="s">
+        <v>3012</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1560" t="s">
+        <v>2996</v>
+      </c>
+      <c r="B1560" t="s">
+        <v>3013</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1561" t="s">
+        <v>2997</v>
+      </c>
+      <c r="B1561" t="s">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1562" t="s">
+        <v>3015</v>
+      </c>
+      <c r="B1562" t="s">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1563" t="s">
+        <v>3016</v>
+      </c>
+      <c r="B1563" t="s">
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1564" t="s">
+        <v>3017</v>
+      </c>
+      <c r="B1564" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1565" t="s">
+        <v>3018</v>
+      </c>
+      <c r="B1565" t="s">
+        <v>3037</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1566" t="s">
+        <v>3019</v>
+      </c>
+      <c r="B1566" t="s">
+        <v>3038</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1567" t="s">
+        <v>3020</v>
+      </c>
+      <c r="B1567" t="s">
+        <v>3039</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1568" t="s">
+        <v>3021</v>
+      </c>
+      <c r="B1568" t="s">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1569" t="s">
+        <v>3022</v>
+      </c>
+      <c r="B1569" t="s">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1570" t="s">
+        <v>3023</v>
+      </c>
+      <c r="B1570" t="s">
+        <v>3042</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1571" t="s">
+        <v>3024</v>
+      </c>
+      <c r="B1571" t="s">
+        <v>3043</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1572" t="s">
+        <v>3025</v>
+      </c>
+      <c r="B1572" t="s">
+        <v>3044</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1573" t="s">
+        <v>3026</v>
+      </c>
+      <c r="B1573" t="s">
+        <v>3045</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1574" t="s">
+        <v>3027</v>
+      </c>
+      <c r="B1574" t="s">
+        <v>3046</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1575" t="s">
+        <v>3028</v>
+      </c>
+      <c r="B1575" t="s">
+        <v>3047</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1576" t="s">
+        <v>3029</v>
+      </c>
+      <c r="B1576" t="s">
+        <v>3048</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1577" t="s">
+        <v>3030</v>
+      </c>
+      <c r="B1577" t="s">
+        <v>3049</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1578" t="s">
+        <v>3031</v>
+      </c>
+      <c r="B1578" t="s">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1579" t="s">
+        <v>3032</v>
+      </c>
+      <c r="B1579" t="s">
+        <v>3051</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1580" t="s">
+        <v>3033</v>
+      </c>
+      <c r="B1580" t="s">
+        <v>3052</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1581" t="s">
+        <v>3053</v>
+      </c>
+      <c r="B1581" t="s">
+        <v>3067</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1582" t="s">
+        <v>3054</v>
+      </c>
+      <c r="B1582" t="s">
+        <v>3068</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1583" t="s">
+        <v>3055</v>
+      </c>
+      <c r="B1583" t="s">
+        <v>3069</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1584" t="s">
+        <v>3056</v>
+      </c>
+      <c r="B1584" t="s">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1585" t="s">
+        <v>3057</v>
+      </c>
+      <c r="B1585" t="s">
+        <v>3071</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1586" t="s">
+        <v>3058</v>
+      </c>
+      <c r="B1586" t="s">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1587" t="s">
+        <v>3059</v>
+      </c>
+      <c r="B1587" t="s">
+        <v>3073</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1588" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B1588" t="s">
+        <v>3074</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1589" t="s">
+        <v>3061</v>
+      </c>
+      <c r="B1589" t="s">
+        <v>3075</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1590" t="s">
+        <v>3076</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1591" t="s">
+        <v>3062</v>
+      </c>
+      <c r="B1591" t="s">
+        <v>3077</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1592" t="s">
+        <v>3063</v>
+      </c>
+      <c r="B1592" t="s">
+        <v>3078</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1593" t="s">
+        <v>3064</v>
+      </c>
+      <c r="B1593" t="s">
+        <v>3079</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1594" t="s">
+        <v>3065</v>
+      </c>
+      <c r="B1594" t="s">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1595" t="s">
+        <v>3066</v>
+      </c>
+      <c r="B1595" t="s">
+        <v>3081</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1596" t="s">
+        <v>3082</v>
+      </c>
+      <c r="B1596" t="s">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1597" t="s">
+        <v>3083</v>
+      </c>
+      <c r="B1597" t="s">
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1598" t="s">
+        <v>3084</v>
+      </c>
+      <c r="B1598" t="s">
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1599" t="s">
+        <v>3103</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1600" t="s">
+        <v>3085</v>
+      </c>
+      <c r="B1600" t="s">
+        <v>3104</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1601" t="s">
+        <v>3086</v>
+      </c>
+      <c r="B1601" t="s">
+        <v>3105</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1602" t="s">
+        <v>3087</v>
+      </c>
+      <c r="B1602" t="s">
+        <v>3106</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1603" t="s">
+        <v>3088</v>
+      </c>
+      <c r="B1603" t="s">
+        <v>3107</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1604" t="s">
+        <v>3089</v>
+      </c>
+      <c r="B1604" t="s">
+        <v>3108</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1605" t="s">
+        <v>3090</v>
+      </c>
+      <c r="B1605" t="s">
+        <v>3109</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1606" t="s">
+        <v>3091</v>
+      </c>
+      <c r="B1606" t="s">
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1607" t="s">
+        <v>3092</v>
+      </c>
+      <c r="B1607" t="s">
+        <v>3111</v>
+      </c>
+      <c r="C1607" t="s">
+        <v>3112</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1608" t="s">
+        <v>3113</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1609" t="s">
+        <v>3093</v>
+      </c>
+      <c r="B1609" t="s">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1610" t="s">
+        <v>3094</v>
+      </c>
+      <c r="B1610" t="s">
+        <v>3115</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1611" t="s">
+        <v>3095</v>
+      </c>
+      <c r="B1611" t="s">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1612" t="s">
+        <v>3096</v>
+      </c>
+      <c r="B1612" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1613" t="s">
+        <v>3097</v>
+      </c>
+      <c r="B1613" t="s">
+        <v>3117</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1614" t="s">
+        <v>3098</v>
+      </c>
+      <c r="B1614" t="s">
+        <v>3118</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1615" t="s">
+        <v>3099</v>
+      </c>
+      <c r="B1615" t="s">
+        <v>3119</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1616" t="s">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1617" t="s">
+        <v>3121</v>
+      </c>
+      <c r="B1617" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1618" t="s">
+        <v>3122</v>
+      </c>
+      <c r="B1618" t="s">
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1619" t="s">
+        <v>3123</v>
+      </c>
+      <c r="B1619" t="s">
+        <v>3141</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1620" t="s">
+        <v>3124</v>
+      </c>
+      <c r="B1620" t="s">
+        <v>3142</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1621" t="s">
+        <v>3125</v>
+      </c>
+      <c r="B1621" t="s">
+        <v>3143</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1622" t="s">
+        <v>3126</v>
+      </c>
+      <c r="B1622" t="s">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1623" t="s">
+        <v>3127</v>
+      </c>
+      <c r="B1623" t="s">
+        <v>3145</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1624" t="s">
+        <v>3128</v>
+      </c>
+      <c r="B1624" t="s">
+        <v>3146</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1625" t="s">
+        <v>3129</v>
+      </c>
+      <c r="B1625" t="s">
+        <v>3147</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1626" t="s">
+        <v>3130</v>
+      </c>
+      <c r="B1626" t="s">
+        <v>3148</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1627" t="s">
+        <v>3131</v>
+      </c>
+      <c r="B1627" t="s">
+        <v>3149</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1628" t="s">
+        <v>3132</v>
+      </c>
+      <c r="B1628" t="s">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1629" t="s">
+        <v>3151</v>
+      </c>
+      <c r="B1629" t="s">
+        <v>3152</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1630" t="s">
+        <v>3133</v>
+      </c>
+      <c r="B1630" t="s">
+        <v>3153</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1631" t="s">
+        <v>3134</v>
+      </c>
+      <c r="B1631" t="s">
+        <v>3154</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1632" t="s">
+        <v>3135</v>
+      </c>
+      <c r="B1632" t="s">
+        <v>3155</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1633" t="s">
+        <v>3136</v>
+      </c>
+      <c r="B1633" t="s">
+        <v>3156</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1634" t="s">
+        <v>3137</v>
+      </c>
+      <c r="B1634" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1635" t="s">
+        <v>3138</v>
+      </c>
+      <c r="B1635" t="s">
+        <v>3139</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A1464:B1464"/>
-    <mergeCell ref="A800:B800"/>
-    <mergeCell ref="A717:B717"/>
-    <mergeCell ref="A1373:B1373"/>
-    <mergeCell ref="A1304:B1304"/>
+  <mergeCells count="21">
+    <mergeCell ref="A1542:B1542"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A259:B259"/>
     <mergeCell ref="A332:B332"/>
     <mergeCell ref="A398:B398"/>
     <mergeCell ref="A1147:B1147"/>
@@ -39123,11 +42616,11 @@
     <mergeCell ref="A1071:B1071"/>
     <mergeCell ref="A974:B974"/>
     <mergeCell ref="A886:B886"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="A259:B259"/>
+    <mergeCell ref="A1464:B1464"/>
+    <mergeCell ref="A800:B800"/>
+    <mergeCell ref="A717:B717"/>
+    <mergeCell ref="A1373:B1373"/>
+    <mergeCell ref="A1304:B1304"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -31473,8 +31473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1724"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A1657" zoomScale="136" zoomScaleNormal="108" zoomScalePageLayoutView="108" workbookViewId="0">
-      <selection activeCell="A1662" sqref="A1662"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A1624" zoomScale="136" zoomScaleNormal="108" zoomScalePageLayoutView="108" workbookViewId="0">
+      <selection activeCell="B1629" sqref="B1629"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -44912,18 +44912,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A1637:B1637"/>
-    <mergeCell ref="A1464:B1464"/>
-    <mergeCell ref="A800:B800"/>
-    <mergeCell ref="A717:B717"/>
-    <mergeCell ref="A1373:B1373"/>
-    <mergeCell ref="A1304:B1304"/>
-    <mergeCell ref="A1542:B1542"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="A259:B259"/>
     <mergeCell ref="A332:B332"/>
     <mergeCell ref="A398:B398"/>
     <mergeCell ref="A1147:B1147"/>
@@ -44934,6 +44922,18 @@
     <mergeCell ref="A1071:B1071"/>
     <mergeCell ref="A974:B974"/>
     <mergeCell ref="A886:B886"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A259:B259"/>
+    <mergeCell ref="A1637:B1637"/>
+    <mergeCell ref="A1464:B1464"/>
+    <mergeCell ref="A800:B800"/>
+    <mergeCell ref="A717:B717"/>
+    <mergeCell ref="A1373:B1373"/>
+    <mergeCell ref="A1304:B1304"/>
+    <mergeCell ref="A1542:B1542"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -19395,16 +19395,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>v.威慑，吓住；组织</t>
-    <rPh sb="2" eb="3">
-      <t>wei she</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>zu zhi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>n.(科学实验)对照标准，对照物</t>
     <rPh sb="3" eb="4">
       <t>ke xue shi yan</t>
@@ -31144,6 +31134,16 @@
     </rPh>
     <rPh sb="11" eb="12">
       <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.威慑，吓住；阻止</t>
+    <rPh sb="2" eb="3">
+      <t>wei she</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zu hzi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -31473,8 +31473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1724"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A1624" zoomScale="136" zoomScaleNormal="108" zoomScalePageLayoutView="108" workbookViewId="0">
-      <selection activeCell="B1629" sqref="B1629"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A1074" zoomScale="136" zoomScaleNormal="108" zoomScalePageLayoutView="108" workbookViewId="0">
+      <selection activeCell="B1084" sqref="B1084"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -38155,7 +38155,7 @@
         <v>1657</v>
       </c>
       <c r="B851" t="s">
-        <v>3155</v>
+        <v>3154</v>
       </c>
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.2">
@@ -39751,7 +39751,7 @@
         <v>2048</v>
       </c>
       <c r="B1059" t="s">
-        <v>3156</v>
+        <v>3155</v>
       </c>
     </row>
     <row r="1060" spans="1:2" x14ac:dyDescent="0.2">
@@ -39941,7 +39941,7 @@
         <v>2097</v>
       </c>
       <c r="B1084" t="s">
-        <v>2111</v>
+        <v>3329</v>
       </c>
     </row>
     <row r="1085" spans="1:2" x14ac:dyDescent="0.2">
@@ -39949,7 +39949,7 @@
         <v>2098</v>
       </c>
       <c r="B1085" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="1086" spans="1:2" x14ac:dyDescent="0.2">
@@ -39957,7 +39957,7 @@
         <v>2099</v>
       </c>
       <c r="B1086" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="1087" spans="1:2" x14ac:dyDescent="0.2">
@@ -39965,17 +39965,17 @@
         <v>2100</v>
       </c>
       <c r="B1087" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="1088" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1088" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="1089" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1089" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="1090" spans="1:2" x14ac:dyDescent="0.2">
@@ -39983,7 +39983,7 @@
         <v>2101</v>
       </c>
       <c r="B1090" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="1091" spans="1:2" x14ac:dyDescent="0.2">
@@ -39991,7 +39991,7 @@
         <v>2102</v>
       </c>
       <c r="B1091" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="1092" spans="1:2" x14ac:dyDescent="0.2">
@@ -39999,7 +39999,7 @@
         <v>2103</v>
       </c>
       <c r="B1092" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="1093" spans="1:2" x14ac:dyDescent="0.2">
@@ -40007,7 +40007,7 @@
         <v>2104</v>
       </c>
       <c r="B1093" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="1094" spans="1:2" x14ac:dyDescent="0.2">
@@ -40015,7 +40015,7 @@
         <v>2105</v>
       </c>
       <c r="B1094" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="1095" spans="1:2" x14ac:dyDescent="0.2">
@@ -40023,7 +40023,7 @@
         <v>2106</v>
       </c>
       <c r="B1095" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="1096" spans="1:2" x14ac:dyDescent="0.2">
@@ -40031,7 +40031,7 @@
         <v>2107</v>
       </c>
       <c r="B1096" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="1097" spans="1:2" x14ac:dyDescent="0.2">
@@ -40039,7 +40039,7 @@
         <v>2108</v>
       </c>
       <c r="B1097" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="1098" spans="1:2" x14ac:dyDescent="0.2">
@@ -40047,3987 +40047,3987 @@
         <v>2109</v>
       </c>
       <c r="B1098" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="1099" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1099" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="1100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1100" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="B1100" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="1101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1101" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="B1101" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="1102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1102" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="B1102" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="1103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1103" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="B1103" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="1104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1104" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="B1104" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="1105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1105" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="B1105" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="1106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1106" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="B1106" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="1107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1107" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="B1107" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="1108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1108" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="B1108" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="1109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1109" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="B1109" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="1110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1110" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="B1110" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="1111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1111" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="B1111" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="1112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1112" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="B1112" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="1113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1113" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="B1113" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="1114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1114" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="B1114" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="1115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1115" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="B1115" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="1116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1116" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="B1116" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="1117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1117" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="B1117" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="1118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1118" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="B1118" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="1119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1119" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="B1119" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="1120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1120" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="B1120" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="1121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1121" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="B1121" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="1122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1122" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="B1122" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="1123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1123" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="B1123" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="1124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1124" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="B1124" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="1125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1125" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="B1125" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="1126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1126" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="B1126" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1127" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="B1127" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="1128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1128" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="B1128" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="1129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1129" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="B1129" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="1130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1130" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="B1130" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="1131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1131" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="B1131" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1132" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="B1132" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="1133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1133" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="B1133" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="1134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1134" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="B1134" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="1135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1135" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="B1135" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="1136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1136" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="B1136" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="1137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1137" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="B1137" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="1138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1138" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="B1138" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="1139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1139" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="B1139" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="1140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1140" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="B1140" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="1141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1141" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="B1141" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="1142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1142" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="B1142" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="1143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1143" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="B1143" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="1144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1144" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="B1144" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="1145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1145" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="B1145" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="1147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1147" s="1" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="B1147" s="1"/>
     </row>
     <row r="1148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1148" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="B1148" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="1149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1149" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="B1149" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="1150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1150" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B1150" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="1151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1151" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="B1151" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="1152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1152" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="B1152" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="1153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1153" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="B1153" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="1154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1154" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="B1154" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="1155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1155" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="B1155" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="1156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1156" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="B1156" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="1157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1157" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="B1157" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="1158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1158" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="1159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1159" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="1160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1160" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="B1160" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="1161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1161" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="B1161" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="1162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1162" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="B1162" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1163" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1164" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="B1164" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="1165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1165" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="B1165" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="1166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1166" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="B1166" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="1167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1167" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="B1167" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="1168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1168" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="B1168" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="1169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1169" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="B1169" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="1170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1170" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="B1170" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="1171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1171" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="B1171" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="1172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1172" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="B1172" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="1173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1173" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="B1173" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="1174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1174" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="B1174" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="1175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1175" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="B1175" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="1176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1176" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="B1176" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="1177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1177" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="B1177" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="1178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1178" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="B1178" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="1179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1179" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="B1179" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="1180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1180" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="B1180" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="1181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1181" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="B1181" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="1182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1182" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="B1182" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="1183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1183" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="B1183" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="1184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1184" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="B1184" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="1185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1185" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="B1185" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="1186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1186" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="B1186" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="1187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1187" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="B1187" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="1188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1188" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="B1188" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="1189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1189" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="B1189" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="1190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1190" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="B1190" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="1191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1191" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="B1191" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="1192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1192" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="B1192" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="1193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1193" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="B1193" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="1194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1194" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="B1194" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="1195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1195" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="B1195" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="1196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1196" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="B1196" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="1197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1197" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="B1197" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="1198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1198" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="B1198" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="1199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1199" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="B1199" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="1200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1200" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="B1200" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="1201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1201" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="B1201" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="1202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1202" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="B1202" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="1203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1203" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="1204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1204" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="B1204" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="1205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1205" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="B1205" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="1206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1206" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="B1206" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="1207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1207" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1208" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="B1208" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="1209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1209" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="B1209" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1210" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="B1210" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="1211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1211" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="B1211" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1212" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="B1212" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="1213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1213" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="B1213" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1214" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="B1214" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="1215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1215" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="B1215" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1216" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="B1216" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="1217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1217" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="B1217" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="1218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1218" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="B1218" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="1219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1219" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="B1219" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="1220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1220" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="B1220" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="1221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1221" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="B1221" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="1222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1222" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="B1222" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="1223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1223" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="B1223" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="1224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1224" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="B1224" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="1225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1225" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="B1225" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="1226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1226" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="B1226" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="1227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1227" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="B1227" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="1228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1228" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="B1228" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="1229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1229" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="B1229" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="1230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1230" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="B1230" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="1231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1231" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="B1231" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="1232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1232" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="B1232" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="1233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1233" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="B1233" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="1234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1234" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="B1234" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="1235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1235" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="B1235" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="1237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1237" s="1" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="B1237" s="1"/>
     </row>
     <row r="1238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1238" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="B1238" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="1239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1239" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="B1239" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="1240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1240" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="1241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1241" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="B1241" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="1242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1242" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="B1242" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="1243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1243" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="B1243" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="1244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1244" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="B1244" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="1245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1245" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="B1245" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="1246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1246" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="B1246" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="1247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1247" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="B1247" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="1248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1248" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="B1248" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="1249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1249" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="B1249" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="1250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1250" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="B1250" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="1251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1251" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="B1251" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="1252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1252" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="B1252" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="1253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1253" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="B1253" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="1254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1254" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="B1254" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="1255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1255" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="B1255" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="1256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1256" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="1257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1257" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="B1257" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="1258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1258" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="B1258" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="1259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1259" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="B1259" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="1260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1260" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="1261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1261" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="B1261" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="1262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1262" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="B1262" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="1263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1263" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="B1263" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="1264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1264" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="B1264" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="1265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1265" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="B1265" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="1266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1266" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="B1266" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="1267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1267" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="B1267" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="1268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1268" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="B1268" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="1269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1269" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="B1269" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="1270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1270" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="B1270" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="1271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1271" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="B1271" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="1272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1272" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="B1272" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="1273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1273" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="B1273" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="1274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1274" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="B1274" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="1275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1275" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="B1275" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="1276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1276" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="B1276" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="1277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1277" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="B1277" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="1278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1278" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="B1278" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="1279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1279" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="B1279" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="1280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1280" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="1281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1281" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="B1281" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="1282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1282" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="B1282" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="1283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1283" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="B1283" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="1284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1284" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="B1284" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="1285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1285" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="B1285" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="1286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1286" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="B1286" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="1287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1287" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="B1287" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="1288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1288" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="B1288" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="1289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1289" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="B1289" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="1290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1290" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="B1290" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="1291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1291" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="B1291" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="1292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1292" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="B1292" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="1293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1293" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="B1293" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="1294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1294" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="B1294" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="1295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1295" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="B1295" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="1296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1296" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="B1296" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="1297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1297" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="B1297" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="1298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1298" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="B1298" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="1299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1299" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="B1299" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="1300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1300" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="B1300" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="1301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1301" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="B1301" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="1302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1302" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="B1302" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="1304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1304" s="1" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="B1304" s="1"/>
     </row>
     <row r="1305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1305" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="B1305" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="1306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1306" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="1307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1307" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="B1307" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="1308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1308" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="B1308" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="1309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1309" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="B1309" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="1310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1310" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="B1310" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="1311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1311" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="B1311" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="1312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1312" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="B1312" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="1313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1313" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="B1313" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="1314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1314" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="B1314" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="1315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1315" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="B1315" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="1316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1316" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="B1316" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="1317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1317" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="B1317" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="1318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1318" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="B1318" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="1319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1319" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="B1319" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="1320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1320" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="B1320" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="1321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1321" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="B1321" t="s">
-        <v>3154</v>
+        <v>3153</v>
       </c>
     </row>
     <row r="1322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1322" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="B1322" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="1323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1323" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="B1323" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="1324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1324" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="B1324" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="1325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1325" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="B1325" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="1326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1326" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="B1326" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="1327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1327" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="B1327" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="1328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1328" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="B1328" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="1329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1329" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="B1329" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="1330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1330" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="B1330" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="1331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1331" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="B1331" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="1332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1332" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="B1332" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="1333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1333" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="B1333" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="1334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1334" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="B1334" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="1335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1335" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="B1335" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="1336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1336" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="B1336" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="1337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1337" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="B1337" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="1338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1338" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="B1338" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="1339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1339" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="B1339" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="1340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1340" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="B1340" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="1341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1341" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="B1341" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="1342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1342" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="1343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1343" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="B1343" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="1344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1344" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="B1344" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="1345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1345" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="B1345" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="1346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1346" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="B1346" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="1347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1347" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="B1347" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="1348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1348" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="B1348" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="1349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1349" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="B1349" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="1350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1350" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="B1350" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="1351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1351" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="B1351" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="1352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1352" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="B1352" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="1353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1353" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="B1353" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="1354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1354" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="B1354" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="1355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1355" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="B1355" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="1356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1356" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="B1356" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="1357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1357" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="B1357" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="1358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1358" t="s">
-        <v>3153</v>
+        <v>3152</v>
       </c>
       <c r="B1358" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="1359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1359" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="B1359" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="1360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1360" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="B1360" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="1361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1361" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="B1361" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="1362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1362" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="B1362" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="1363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1363" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="1364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1364" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="B1364" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="1365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1365" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="B1365" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="1366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1366" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="B1366" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="1367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1367" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="B1367" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="1368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1368" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="B1368" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="1369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1369" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="1370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1370" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="B1370" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="1371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1371" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="B1371" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="1373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1373" s="1" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="B1373" s="1"/>
     </row>
     <row r="1374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1374" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="B1374" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="1375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1375" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="B1375" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="1376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1376" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="B1376" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="1377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1377" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="B1377" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="1378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1378" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="B1378" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="1379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1379" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="B1379" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="1380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1380" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
       <c r="B1380" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="1381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1381" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="1382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1382" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="B1382" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="1383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1383" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="B1383" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="1384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1384" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="B1384" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="1385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1385" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="B1385" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="1386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1386" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="B1386" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="1387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1387" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="B1387" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="1388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1388" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="B1388" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="1389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1389" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="B1389" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="1390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1390" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="B1390" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="1391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1391" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="B1391" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="1392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1392" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="B1392" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="1393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1393" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="B1393" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="1394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1394" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
       <c r="B1394" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="1395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1395" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="B1395" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="1396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1396" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="B1396" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="1397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1397" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="B1397" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="1398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1398" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="B1398" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="1399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1399" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="1400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1400" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="B1400" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="1401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1401" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="B1401" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="1402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1402" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="B1402" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="1403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1403" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="1404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1404" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="B1404" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="1405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1405" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="B1405" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="1406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1406" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="B1406" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="1407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1407" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="B1407" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="1408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1408" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="B1408" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="1409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1409" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="B1409" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="1410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1410" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="B1410" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="1411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1411" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="B1411" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
     </row>
     <row r="1412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1412" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="B1412" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="1413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1413" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="B1413" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="1414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1414" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="B1414" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="1415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1415" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="B1415" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
     </row>
     <row r="1416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1416" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="B1416" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="1417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1417" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="B1417" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="1418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1418" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="B1418" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="1419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1419" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="B1419" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="1420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1420" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="B1420" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="1421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1421" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="B1421" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="1422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1422" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="B1422" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="1423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1423" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="B1423" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="1424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1424" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="B1424" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="1425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1425" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="B1425" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="1426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1426" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="B1426" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="1427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1427" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="B1427" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="1428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1428" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="B1428" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="1429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1429" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="B1429" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="1430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1430" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="B1430" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="1431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1431" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="B1431" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="1432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1432" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="B1432" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="1433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1433" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="B1433" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="1434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1434" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="B1434" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="1435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1435" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="B1435" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1436" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="B1436" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1437" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="B1437" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="1438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1438" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="B1438" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1439" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="B1439" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="1440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1440" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="B1440" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="1441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1441" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="B1441" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="1442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1442" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="B1442" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="1443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1443" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="B1443" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="1444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1444" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="B1444" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="1445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1445" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="B1445" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1446" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="B1446" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="1447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1447" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="B1447" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="1448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1448" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="B1448" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="1449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1449" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="B1449" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="1450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1450" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="B1450" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="1451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1451" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="B1451" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="1452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1452" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="B1452" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="1453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1453" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="B1453" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="1454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1454" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="B1454" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="1455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1455" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="B1455" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="1456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1456" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="B1456" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="1457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1457" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="B1457" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="1458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1458" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="B1458" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
     </row>
     <row r="1459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1459" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="B1459" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="1460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1460" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="B1460" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
     </row>
     <row r="1461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1461" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="B1461" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="1462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1462" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="B1462" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="1464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1464" s="1" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="B1464" s="1"/>
     </row>
     <row r="1465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1465" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="B1465" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="1466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1466" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="B1466" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="1467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1467" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
       <c r="B1467" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="1468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1468" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
       <c r="B1468" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="1469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1469" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="B1469" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="1470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1470" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="1471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1471" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="B1471" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="1472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1472" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="B1472" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="1473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1473" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="B1473" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
     </row>
     <row r="1474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1474" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="B1474" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="1475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1475" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="B1475" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="1476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1476" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="B1476" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="1477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1477" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="B1477" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="1478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1478" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="B1478" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="1479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1479" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="B1479" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="1480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1480" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="B1480" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="1481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1481" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="B1481" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="1482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1482" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="B1482" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="1483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1483" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="B1483" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="1484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1484" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="B1484" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="1485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1485" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="1486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1486" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="B1486" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="1487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1487" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="B1487" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="1488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1488" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="B1488" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="1489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1489" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
       <c r="B1489" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="1490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1490" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
       <c r="B1490" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="1491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1491" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="B1491" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="1492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1492" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="B1492" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="1493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1493" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
       <c r="B1493" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="1494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1494" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
       <c r="B1494" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="1495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1495" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="B1495" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1496" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
       <c r="B1496" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="1497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1497" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="B1497" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="1498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1498" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="B1498" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="1499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1499" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
       <c r="B1499" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="1500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1500" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
       <c r="B1500" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="1501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1501" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
       <c r="B1501" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="1502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1502" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
       <c r="B1502" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="1503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1503" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="B1503" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="1504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1504" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
       <c r="B1504" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="1505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1505" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="B1505" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="1506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1506" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
       <c r="B1506" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="1507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1507" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="B1507" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
     </row>
     <row r="1508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1508" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="B1508" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="1509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1509" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
       <c r="B1509" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="1510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1510" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="B1510" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
     </row>
     <row r="1511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1511" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="B1511" t="s">
-        <v>2927</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="1512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1512" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="B1512" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
     </row>
     <row r="1513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1513" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
       <c r="B1513" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="1514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1514" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="B1514" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="1515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1515" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="B1515" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="1516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1516" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
       <c r="B1516" t="s">
-        <v>2932</v>
+        <v>2931</v>
       </c>
     </row>
     <row r="1517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1517" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="B1517" t="s">
-        <v>2933</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="1518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1518" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
       <c r="B1518" t="s">
-        <v>2934</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="1519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1519" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="B1519" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="1520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1520" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="B1520" t="s">
-        <v>2936</v>
+        <v>2935</v>
       </c>
     </row>
     <row r="1521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1521" t="s">
-        <v>2937</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="1522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1522" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
       <c r="B1522" t="s">
-        <v>2938</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="1523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1523" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="B1523" t="s">
-        <v>2939</v>
+        <v>2938</v>
       </c>
     </row>
     <row r="1524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1524" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
       <c r="B1524" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="1525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1525" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="B1525" t="s">
-        <v>2954</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="1526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1526" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
       <c r="B1526" t="s">
-        <v>2955</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="1527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1527" t="s">
-        <v>2943</v>
+        <v>2942</v>
       </c>
       <c r="B1527" t="s">
-        <v>2956</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="1528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1528" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="B1528" t="s">
-        <v>2957</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="1529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1529" t="s">
-        <v>2945</v>
+        <v>2944</v>
       </c>
       <c r="B1529" t="s">
-        <v>2958</v>
+        <v>2957</v>
       </c>
     </row>
     <row r="1530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1530" t="s">
-        <v>2946</v>
+        <v>2945</v>
       </c>
       <c r="B1530" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="1531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1531" t="s">
-        <v>2947</v>
+        <v>2946</v>
       </c>
       <c r="B1531" t="s">
-        <v>2960</v>
+        <v>2959</v>
       </c>
     </row>
     <row r="1532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1532" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="B1532" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="1533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1533" t="s">
-        <v>2949</v>
+        <v>2948</v>
       </c>
       <c r="B1533" t="s">
-        <v>2962</v>
+        <v>2961</v>
       </c>
     </row>
     <row r="1534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1534" t="s">
-        <v>2950</v>
+        <v>2949</v>
       </c>
       <c r="B1534" t="s">
-        <v>2963</v>
+        <v>2962</v>
       </c>
     </row>
     <row r="1535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1535" t="s">
-        <v>2951</v>
+        <v>2950</v>
       </c>
       <c r="B1535" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="1536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1536" t="s">
-        <v>2952</v>
+        <v>2951</v>
       </c>
       <c r="B1536" t="s">
-        <v>2965</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="1537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1537" t="s">
-        <v>2953</v>
+        <v>2952</v>
       </c>
       <c r="B1537" t="s">
-        <v>2966</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="1538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1538" t="s">
-        <v>2967</v>
+        <v>2966</v>
       </c>
       <c r="B1538" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
     </row>
     <row r="1539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1539" t="s">
-        <v>2968</v>
+        <v>2967</v>
       </c>
       <c r="B1539" t="s">
-        <v>2971</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="1540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1540" t="s">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="B1540" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
     </row>
     <row r="1542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1542" s="1" t="s">
-        <v>2973</v>
+        <v>2972</v>
       </c>
       <c r="B1542" s="1"/>
     </row>
     <row r="1543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1543" t="s">
-        <v>2974</v>
+        <v>2973</v>
       </c>
       <c r="B1543" t="s">
-        <v>2976</v>
+        <v>2975</v>
       </c>
     </row>
     <row r="1544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1544" t="s">
-        <v>2975</v>
+        <v>2974</v>
       </c>
       <c r="B1544" t="s">
-        <v>2977</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="1545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1545" t="s">
-        <v>2978</v>
+        <v>2977</v>
       </c>
       <c r="B1545" t="s">
-        <v>2994</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="1546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1546" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
       <c r="B1546" t="s">
-        <v>2995</v>
+        <v>2994</v>
       </c>
     </row>
     <row r="1547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1547" t="s">
-        <v>2980</v>
+        <v>2979</v>
       </c>
       <c r="B1547" t="s">
-        <v>2996</v>
+        <v>2995</v>
       </c>
     </row>
     <row r="1548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1548" t="s">
-        <v>2981</v>
+        <v>2980</v>
       </c>
       <c r="B1548" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
     </row>
     <row r="1549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1549" t="s">
-        <v>2982</v>
+        <v>2981</v>
       </c>
       <c r="B1549" t="s">
-        <v>2998</v>
+        <v>2997</v>
       </c>
     </row>
     <row r="1550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1550" t="s">
-        <v>2983</v>
+        <v>2982</v>
       </c>
       <c r="B1550" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
     </row>
     <row r="1551" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1551" t="s">
-        <v>2984</v>
+        <v>2983</v>
       </c>
       <c r="B1551" t="s">
-        <v>3000</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="1552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1552" t="s">
-        <v>2985</v>
+        <v>2984</v>
       </c>
       <c r="B1552" t="s">
-        <v>3001</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="1553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1553" t="s">
-        <v>2986</v>
+        <v>2985</v>
       </c>
       <c r="B1553" t="s">
-        <v>3002</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="1554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1554" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
       <c r="B1554" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="1555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1555" t="s">
-        <v>2988</v>
+        <v>2987</v>
       </c>
       <c r="B1555" t="s">
-        <v>3004</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="1556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1556" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
       <c r="B1556" t="s">
-        <v>3005</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="1557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1557" t="s">
-        <v>3006</v>
+        <v>3005</v>
       </c>
     </row>
     <row r="1558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1558" t="s">
-        <v>2990</v>
+        <v>2989</v>
       </c>
       <c r="B1558" t="s">
-        <v>3007</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="1559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1559" t="s">
-        <v>2991</v>
+        <v>2990</v>
       </c>
       <c r="B1559" t="s">
-        <v>3008</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="1560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1560" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="B1560" t="s">
-        <v>3009</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="1561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1561" t="s">
-        <v>2993</v>
+        <v>2992</v>
       </c>
       <c r="B1561" t="s">
-        <v>3010</v>
+        <v>3009</v>
       </c>
     </row>
     <row r="1562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1562" t="s">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="B1562" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="1563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1563" t="s">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="B1563" t="s">
-        <v>3031</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="1564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1564" t="s">
-        <v>3013</v>
+        <v>3012</v>
       </c>
       <c r="B1564" t="s">
-        <v>3032</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="1565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1565" t="s">
-        <v>3014</v>
+        <v>3013</v>
       </c>
       <c r="B1565" t="s">
-        <v>3033</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="1566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1566" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="B1566" t="s">
-        <v>3034</v>
+        <v>3033</v>
       </c>
     </row>
     <row r="1567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1567" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
       <c r="B1567" t="s">
-        <v>3035</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="1568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1568" t="s">
-        <v>3017</v>
+        <v>3016</v>
       </c>
       <c r="B1568" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1569" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="B1569" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="1570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1570" t="s">
-        <v>3019</v>
+        <v>3018</v>
       </c>
       <c r="B1570" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="1571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1571" t="s">
-        <v>3020</v>
+        <v>3019</v>
       </c>
       <c r="B1571" t="s">
-        <v>3039</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="1572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1572" t="s">
-        <v>3021</v>
+        <v>3020</v>
       </c>
       <c r="B1572" t="s">
-        <v>3040</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="1573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1573" t="s">
-        <v>3022</v>
+        <v>3021</v>
       </c>
       <c r="B1573" t="s">
-        <v>3041</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="1574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1574" t="s">
-        <v>3023</v>
+        <v>3022</v>
       </c>
       <c r="B1574" t="s">
-        <v>3042</v>
+        <v>3041</v>
       </c>
     </row>
     <row r="1575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1575" t="s">
-        <v>3024</v>
+        <v>3023</v>
       </c>
       <c r="B1575" t="s">
-        <v>3043</v>
+        <v>3042</v>
       </c>
     </row>
     <row r="1576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1576" t="s">
-        <v>3025</v>
+        <v>3024</v>
       </c>
       <c r="B1576" t="s">
-        <v>3044</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="1577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1577" t="s">
-        <v>3026</v>
+        <v>3025</v>
       </c>
       <c r="B1577" t="s">
-        <v>3045</v>
+        <v>3044</v>
       </c>
     </row>
     <row r="1578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1578" t="s">
-        <v>3027</v>
+        <v>3026</v>
       </c>
       <c r="B1578" t="s">
-        <v>3046</v>
+        <v>3045</v>
       </c>
     </row>
     <row r="1579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1579" t="s">
-        <v>3028</v>
+        <v>3027</v>
       </c>
       <c r="B1579" t="s">
-        <v>3047</v>
+        <v>3046</v>
       </c>
     </row>
     <row r="1580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1580" t="s">
-        <v>3029</v>
+        <v>3028</v>
       </c>
       <c r="B1580" t="s">
-        <v>3048</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="1581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1581" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="B1581" t="s">
-        <v>3063</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="1582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1582" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="B1582" t="s">
-        <v>3064</v>
+        <v>3063</v>
       </c>
     </row>
     <row r="1583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1583" t="s">
-        <v>3051</v>
+        <v>3050</v>
       </c>
       <c r="B1583" t="s">
-        <v>3065</v>
+        <v>3064</v>
       </c>
     </row>
     <row r="1584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1584" t="s">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="B1584" t="s">
-        <v>3066</v>
+        <v>3065</v>
       </c>
     </row>
     <row r="1585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1585" t="s">
-        <v>3053</v>
+        <v>3052</v>
       </c>
       <c r="B1585" t="s">
-        <v>3067</v>
+        <v>3066</v>
       </c>
     </row>
     <row r="1586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1586" t="s">
-        <v>3054</v>
+        <v>3053</v>
       </c>
       <c r="B1586" t="s">
-        <v>3068</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="1587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1587" t="s">
-        <v>3055</v>
+        <v>3054</v>
       </c>
       <c r="B1587" t="s">
-        <v>3069</v>
+        <v>3068</v>
       </c>
     </row>
     <row r="1588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1588" t="s">
-        <v>3056</v>
+        <v>3055</v>
       </c>
       <c r="B1588" t="s">
-        <v>3070</v>
+        <v>3069</v>
       </c>
     </row>
     <row r="1589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1589" t="s">
-        <v>3057</v>
+        <v>3056</v>
       </c>
       <c r="B1589" t="s">
-        <v>3071</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="1590" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1590" t="s">
-        <v>3072</v>
+        <v>3071</v>
       </c>
     </row>
     <row r="1591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1591" t="s">
-        <v>3058</v>
+        <v>3057</v>
       </c>
       <c r="B1591" t="s">
-        <v>3073</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="1592" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1592" t="s">
-        <v>3059</v>
+        <v>3058</v>
       </c>
       <c r="B1592" t="s">
-        <v>3074</v>
+        <v>3073</v>
       </c>
     </row>
     <row r="1593" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1593" t="s">
-        <v>3060</v>
+        <v>3059</v>
       </c>
       <c r="B1593" t="s">
-        <v>3075</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="1594" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1594" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="B1594" t="s">
-        <v>3076</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="1595" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1595" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
       <c r="B1595" t="s">
-        <v>3077</v>
+        <v>3076</v>
       </c>
     </row>
     <row r="1596" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1596" t="s">
-        <v>3078</v>
+        <v>3077</v>
       </c>
       <c r="B1596" t="s">
-        <v>3096</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="1597" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1597" t="s">
-        <v>3079</v>
+        <v>3078</v>
       </c>
       <c r="B1597" t="s">
-        <v>3097</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="1598" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1598" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
       <c r="B1598" t="s">
-        <v>3098</v>
+        <v>3097</v>
       </c>
     </row>
     <row r="1599" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1599" t="s">
-        <v>3099</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="1600" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1600" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
       <c r="B1600" t="s">
-        <v>3100</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="1601" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1601" t="s">
-        <v>3082</v>
+        <v>3081</v>
       </c>
       <c r="B1601" t="s">
-        <v>3101</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="1602" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1602" t="s">
-        <v>3083</v>
+        <v>3082</v>
       </c>
       <c r="B1602" t="s">
-        <v>3102</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="1603" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1603" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
       <c r="B1603" t="s">
-        <v>3103</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="1604" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1604" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
       <c r="B1604" t="s">
-        <v>3104</v>
+        <v>3103</v>
       </c>
     </row>
     <row r="1605" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1605" t="s">
-        <v>3086</v>
+        <v>3085</v>
       </c>
       <c r="B1605" t="s">
-        <v>3105</v>
+        <v>3104</v>
       </c>
     </row>
     <row r="1606" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1606" t="s">
-        <v>3087</v>
+        <v>3086</v>
       </c>
       <c r="B1606" t="s">
-        <v>3106</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="1607" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1607" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
       <c r="B1607" t="s">
+        <v>3106</v>
+      </c>
+      <c r="C1607" t="s">
         <v>3107</v>
-      </c>
-      <c r="C1607" t="s">
-        <v>3108</v>
       </c>
     </row>
     <row r="1608" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1608" t="s">
-        <v>3109</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="1609" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1609" t="s">
-        <v>3089</v>
+        <v>3088</v>
       </c>
       <c r="B1609" t="s">
-        <v>3110</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="1610" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1610" t="s">
-        <v>3090</v>
+        <v>3089</v>
       </c>
       <c r="B1610" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="1611" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1611" t="s">
-        <v>3091</v>
+        <v>3090</v>
       </c>
       <c r="B1611" t="s">
-        <v>3112</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="1612" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1612" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="B1612" t="s">
         <v>851</v>
@@ -44035,36 +44035,36 @@
     </row>
     <row r="1613" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1613" t="s">
-        <v>3093</v>
+        <v>3092</v>
       </c>
       <c r="B1613" t="s">
-        <v>3113</v>
+        <v>3112</v>
       </c>
     </row>
     <row r="1614" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1614" t="s">
-        <v>3094</v>
+        <v>3093</v>
       </c>
       <c r="B1614" t="s">
-        <v>3114</v>
+        <v>3113</v>
       </c>
     </row>
     <row r="1615" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1615" t="s">
-        <v>3095</v>
+        <v>3094</v>
       </c>
       <c r="B1615" t="s">
-        <v>3115</v>
+        <v>3114</v>
       </c>
     </row>
     <row r="1616" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1616" t="s">
-        <v>3116</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="1617" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1617" t="s">
-        <v>3117</v>
+        <v>3116</v>
       </c>
       <c r="B1617" t="s">
         <v>1629</v>
@@ -44072,135 +44072,135 @@
     </row>
     <row r="1618" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1618" t="s">
-        <v>3118</v>
+        <v>3117</v>
       </c>
       <c r="B1618" t="s">
-        <v>3136</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="1619" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1619" t="s">
-        <v>3119</v>
+        <v>3118</v>
       </c>
       <c r="B1619" t="s">
-        <v>3137</v>
+        <v>3136</v>
       </c>
     </row>
     <row r="1620" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1620" t="s">
-        <v>3120</v>
+        <v>3119</v>
       </c>
       <c r="B1620" t="s">
-        <v>3138</v>
+        <v>3137</v>
       </c>
     </row>
     <row r="1621" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1621" t="s">
-        <v>3121</v>
+        <v>3120</v>
       </c>
       <c r="B1621" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
     </row>
     <row r="1622" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1622" t="s">
-        <v>3122</v>
+        <v>3121</v>
       </c>
       <c r="B1622" t="s">
-        <v>3140</v>
+        <v>3139</v>
       </c>
     </row>
     <row r="1623" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1623" t="s">
-        <v>3123</v>
+        <v>3122</v>
       </c>
       <c r="B1623" t="s">
-        <v>3141</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="1624" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1624" t="s">
-        <v>3124</v>
+        <v>3123</v>
       </c>
       <c r="B1624" t="s">
-        <v>3142</v>
+        <v>3141</v>
       </c>
     </row>
     <row r="1625" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1625" t="s">
-        <v>3125</v>
+        <v>3124</v>
       </c>
       <c r="B1625" t="s">
-        <v>3143</v>
+        <v>3142</v>
       </c>
     </row>
     <row r="1626" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1626" t="s">
-        <v>3126</v>
+        <v>3125</v>
       </c>
       <c r="B1626" t="s">
-        <v>3144</v>
+        <v>3143</v>
       </c>
     </row>
     <row r="1627" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1627" t="s">
-        <v>3127</v>
+        <v>3126</v>
       </c>
       <c r="B1627" t="s">
-        <v>3145</v>
+        <v>3144</v>
       </c>
     </row>
     <row r="1628" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1628" t="s">
-        <v>3128</v>
+        <v>3127</v>
       </c>
       <c r="B1628" t="s">
-        <v>3146</v>
+        <v>3145</v>
       </c>
     </row>
     <row r="1629" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1629" t="s">
+        <v>3146</v>
+      </c>
+      <c r="B1629" t="s">
         <v>3147</v>
-      </c>
-      <c r="B1629" t="s">
-        <v>3148</v>
       </c>
     </row>
     <row r="1630" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1630" t="s">
-        <v>3129</v>
+        <v>3128</v>
       </c>
       <c r="B1630" t="s">
-        <v>3149</v>
+        <v>3148</v>
       </c>
     </row>
     <row r="1631" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1631" t="s">
-        <v>3130</v>
+        <v>3129</v>
       </c>
       <c r="B1631" t="s">
-        <v>3150</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="1632" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1632" t="s">
-        <v>3131</v>
+        <v>3130</v>
       </c>
       <c r="B1632" t="s">
-        <v>3151</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="1633" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1633" t="s">
-        <v>3132</v>
+        <v>3131</v>
       </c>
       <c r="B1633" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="1634" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1634" t="s">
-        <v>3133</v>
+        <v>3132</v>
       </c>
       <c r="B1634" t="s">
         <v>163</v>
@@ -44208,710 +44208,722 @@
     </row>
     <row r="1635" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1635" t="s">
+        <v>3133</v>
+      </c>
+      <c r="B1635" t="s">
         <v>3134</v>
-      </c>
-      <c r="B1635" t="s">
-        <v>3135</v>
       </c>
     </row>
     <row r="1637" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1637" s="1" t="s">
-        <v>3157</v>
+        <v>3156</v>
       </c>
       <c r="B1637" s="1"/>
     </row>
     <row r="1638" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1638" t="s">
+        <v>3157</v>
+      </c>
+      <c r="B1638" t="s">
         <v>3158</v>
-      </c>
-      <c r="B1638" t="s">
-        <v>3159</v>
       </c>
     </row>
     <row r="1639" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1639" t="s">
-        <v>3160</v>
+        <v>3159</v>
       </c>
       <c r="B1639" t="s">
-        <v>3176</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="1640" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1640" t="s">
-        <v>3161</v>
+        <v>3160</v>
       </c>
       <c r="B1640" t="s">
-        <v>3177</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="1641" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1641" t="s">
-        <v>3162</v>
+        <v>3161</v>
       </c>
       <c r="B1641" t="s">
-        <v>3178</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="1642" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1642" t="s">
-        <v>3163</v>
+        <v>3162</v>
       </c>
       <c r="B1642" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="1643" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1643" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="B1643" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="1644" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1644" t="s">
-        <v>3165</v>
+        <v>3164</v>
       </c>
       <c r="B1644" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="1645" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1645" t="s">
-        <v>3166</v>
+        <v>3165</v>
       </c>
       <c r="B1645" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="1646" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1646" t="s">
-        <v>3167</v>
+        <v>3166</v>
       </c>
       <c r="B1646" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="1647" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1647" t="s">
-        <v>3168</v>
+        <v>3167</v>
       </c>
       <c r="B1647" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
     </row>
     <row r="1648" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1648" t="s">
-        <v>3169</v>
+        <v>3168</v>
       </c>
       <c r="B1648" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
     </row>
     <row r="1649" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1649" t="s">
-        <v>3170</v>
+        <v>3169</v>
       </c>
       <c r="B1649" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
     </row>
     <row r="1650" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1650" t="s">
-        <v>3171</v>
+        <v>3170</v>
       </c>
       <c r="B1650" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
     </row>
     <row r="1651" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1651" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="1652" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1652" t="s">
-        <v>3172</v>
+        <v>3171</v>
       </c>
       <c r="B1652" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="1653" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1653" t="s">
-        <v>3173</v>
+        <v>3172</v>
       </c>
       <c r="B1653" t="s">
-        <v>3190</v>
+        <v>3189</v>
       </c>
     </row>
     <row r="1654" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1654" t="s">
-        <v>3174</v>
+        <v>3173</v>
       </c>
       <c r="B1654" t="s">
-        <v>3191</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="1655" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1655" t="s">
-        <v>3175</v>
+        <v>3174</v>
       </c>
       <c r="B1655" t="s">
-        <v>3192</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="1656" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1656" t="s">
-        <v>3193</v>
+        <v>3192</v>
       </c>
       <c r="B1656" t="s">
-        <v>3208</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="1657" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1657" t="s">
-        <v>3194</v>
+        <v>3193</v>
       </c>
       <c r="B1657" t="s">
-        <v>3209</v>
+        <v>3208</v>
       </c>
     </row>
     <row r="1658" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1658" t="s">
-        <v>3195</v>
+        <v>3194</v>
       </c>
       <c r="B1658" t="s">
-        <v>3210</v>
+        <v>3209</v>
       </c>
     </row>
     <row r="1659" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1659" t="s">
-        <v>3196</v>
+        <v>3195</v>
       </c>
       <c r="B1659" t="s">
-        <v>3211</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="1660" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1660" t="s">
-        <v>3197</v>
+        <v>3196</v>
       </c>
       <c r="B1660" t="s">
-        <v>3212</v>
+        <v>3211</v>
       </c>
     </row>
     <row r="1661" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1661" t="s">
-        <v>3198</v>
+        <v>3197</v>
       </c>
       <c r="B1661" t="s">
-        <v>3213</v>
+        <v>3212</v>
       </c>
     </row>
     <row r="1662" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1662" t="s">
-        <v>3199</v>
+        <v>3198</v>
       </c>
       <c r="B1662" t="s">
-        <v>3214</v>
+        <v>3213</v>
       </c>
     </row>
     <row r="1663" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1663" t="s">
-        <v>3200</v>
+        <v>3199</v>
       </c>
       <c r="B1663" t="s">
-        <v>3215</v>
+        <v>3214</v>
       </c>
     </row>
     <row r="1664" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1664" t="s">
-        <v>3201</v>
+        <v>3200</v>
       </c>
       <c r="B1664" t="s">
-        <v>3216</v>
+        <v>3215</v>
       </c>
     </row>
     <row r="1665" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1665" t="s">
-        <v>3202</v>
+        <v>3201</v>
       </c>
       <c r="B1665" t="s">
-        <v>3217</v>
+        <v>3216</v>
       </c>
     </row>
     <row r="1666" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1666" t="s">
-        <v>3203</v>
+        <v>3202</v>
       </c>
       <c r="B1666" t="s">
-        <v>3218</v>
+        <v>3217</v>
       </c>
     </row>
     <row r="1667" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1667" t="s">
-        <v>3204</v>
+        <v>3203</v>
       </c>
       <c r="B1667" t="s">
-        <v>3219</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="1668" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1668" t="s">
-        <v>3205</v>
+        <v>3204</v>
       </c>
       <c r="B1668" t="s">
-        <v>3220</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="1669" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1669" t="s">
-        <v>3206</v>
+        <v>3205</v>
       </c>
       <c r="B1669" t="s">
-        <v>3221</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="1670" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1670" t="s">
-        <v>3207</v>
+        <v>3206</v>
       </c>
       <c r="B1670" t="s">
-        <v>3222</v>
+        <v>3221</v>
       </c>
     </row>
     <row r="1671" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1671" t="s">
-        <v>3223</v>
+        <v>3222</v>
       </c>
       <c r="B1671" t="s">
-        <v>3238</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="1672" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1672" t="s">
+        <v>3223</v>
+      </c>
+      <c r="B1672" t="s">
         <v>3224</v>
-      </c>
-      <c r="B1672" t="s">
-        <v>3225</v>
       </c>
     </row>
     <row r="1673" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1673" t="s">
-        <v>3226</v>
+        <v>3225</v>
       </c>
       <c r="B1673" t="s">
-        <v>3239</v>
+        <v>3238</v>
       </c>
     </row>
     <row r="1674" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1674" t="s">
-        <v>3227</v>
+        <v>3226</v>
       </c>
       <c r="B1674" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="1675" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1675" t="s">
-        <v>3228</v>
+        <v>3227</v>
       </c>
       <c r="B1675" t="s">
-        <v>3241</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="1676" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1676" t="s">
-        <v>3229</v>
+        <v>3228</v>
       </c>
       <c r="B1676" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="1677" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1677" t="s">
-        <v>3230</v>
+        <v>3229</v>
       </c>
       <c r="B1677" t="s">
-        <v>3243</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="1678" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1678" t="s">
-        <v>3231</v>
+        <v>3230</v>
       </c>
       <c r="B1678" t="s">
-        <v>3244</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="1679" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1679" t="s">
-        <v>3232</v>
+        <v>3231</v>
       </c>
       <c r="B1679" t="s">
-        <v>3245</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="1680" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1680" t="s">
-        <v>3233</v>
+        <v>3232</v>
       </c>
       <c r="B1680" t="s">
-        <v>3246</v>
+        <v>3245</v>
       </c>
     </row>
     <row r="1681" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1681" t="s">
-        <v>3234</v>
+        <v>3233</v>
       </c>
       <c r="B1681" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
     </row>
     <row r="1682" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1682" t="s">
-        <v>3235</v>
+        <v>3234</v>
       </c>
       <c r="B1682" t="s">
-        <v>3248</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="1683" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1683" t="s">
-        <v>3236</v>
+        <v>3235</v>
       </c>
       <c r="B1683" t="s">
-        <v>3249</v>
+        <v>3248</v>
       </c>
     </row>
     <row r="1684" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1684" t="s">
-        <v>3237</v>
+        <v>3236</v>
       </c>
       <c r="B1684" t="s">
-        <v>3250</v>
+        <v>3249</v>
       </c>
     </row>
     <row r="1685" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1685" t="s">
-        <v>3251</v>
+        <v>3250</v>
       </c>
       <c r="B1685" t="s">
-        <v>3267</v>
+        <v>3266</v>
       </c>
     </row>
     <row r="1686" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1686" t="s">
-        <v>3252</v>
+        <v>3251</v>
       </c>
       <c r="B1686" t="s">
-        <v>3268</v>
+        <v>3267</v>
       </c>
     </row>
     <row r="1687" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1687" t="s">
-        <v>3253</v>
+        <v>3252</v>
       </c>
       <c r="B1687" t="s">
-        <v>3269</v>
+        <v>3268</v>
       </c>
     </row>
     <row r="1688" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1688" t="s">
-        <v>3254</v>
+        <v>3253</v>
       </c>
       <c r="B1688" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
     </row>
     <row r="1689" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1689" t="s">
-        <v>3255</v>
+        <v>3254</v>
       </c>
       <c r="B1689" t="s">
-        <v>3271</v>
+        <v>3270</v>
       </c>
     </row>
     <row r="1690" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1690" t="s">
-        <v>3272</v>
+        <v>3271</v>
       </c>
     </row>
     <row r="1691" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1691" t="s">
-        <v>3256</v>
+        <v>3255</v>
       </c>
       <c r="B1691" t="s">
-        <v>3273</v>
+        <v>3272</v>
       </c>
     </row>
     <row r="1692" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1692" t="s">
-        <v>3257</v>
+        <v>3256</v>
       </c>
       <c r="B1692" t="s">
-        <v>3274</v>
+        <v>3273</v>
       </c>
     </row>
     <row r="1693" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1693" t="s">
-        <v>3258</v>
+        <v>3257</v>
       </c>
       <c r="B1693" t="s">
-        <v>3275</v>
+        <v>3274</v>
       </c>
     </row>
     <row r="1694" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1694" t="s">
-        <v>3259</v>
+        <v>3258</v>
       </c>
       <c r="B1694" t="s">
-        <v>3276</v>
+        <v>3275</v>
       </c>
     </row>
     <row r="1695" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1695" t="s">
-        <v>3260</v>
+        <v>3259</v>
       </c>
       <c r="B1695" t="s">
-        <v>3277</v>
+        <v>3276</v>
       </c>
     </row>
     <row r="1696" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1696" t="s">
-        <v>3261</v>
+        <v>3260</v>
       </c>
       <c r="B1696" t="s">
-        <v>3278</v>
+        <v>3277</v>
       </c>
     </row>
     <row r="1697" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1697" t="s">
-        <v>3262</v>
+        <v>3261</v>
       </c>
       <c r="B1697" t="s">
-        <v>3279</v>
+        <v>3278</v>
       </c>
     </row>
     <row r="1698" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1698" t="s">
-        <v>3263</v>
+        <v>3262</v>
       </c>
       <c r="B1698" t="s">
-        <v>3280</v>
+        <v>3279</v>
       </c>
     </row>
     <row r="1699" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1699" t="s">
-        <v>3264</v>
+        <v>3263</v>
       </c>
       <c r="B1699" t="s">
-        <v>3281</v>
+        <v>3280</v>
       </c>
     </row>
     <row r="1700" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1700" t="s">
-        <v>3265</v>
+        <v>3264</v>
       </c>
       <c r="B1700" t="s">
-        <v>3282</v>
+        <v>3281</v>
       </c>
     </row>
     <row r="1701" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1701" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B1701" t="s">
-        <v>3283</v>
+        <v>3282</v>
       </c>
     </row>
     <row r="1702" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1702" t="s">
-        <v>3284</v>
+        <v>3283</v>
       </c>
       <c r="B1702" t="s">
-        <v>3300</v>
+        <v>3299</v>
       </c>
     </row>
     <row r="1703" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1703" t="s">
-        <v>3285</v>
+        <v>3284</v>
       </c>
       <c r="B1703" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="1704" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1704" t="s">
-        <v>3286</v>
+        <v>3285</v>
       </c>
       <c r="B1704" t="s">
-        <v>3302</v>
+        <v>3301</v>
       </c>
     </row>
     <row r="1705" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1705" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
       <c r="B1705" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="1706" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1706" t="s">
-        <v>3288</v>
+        <v>3287</v>
       </c>
       <c r="B1706" t="s">
-        <v>3304</v>
+        <v>3303</v>
       </c>
     </row>
     <row r="1707" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1707" t="s">
-        <v>3289</v>
+        <v>3288</v>
       </c>
       <c r="B1707" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
     </row>
     <row r="1708" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1708" t="s">
-        <v>3290</v>
+        <v>3289</v>
       </c>
       <c r="B1708" t="s">
-        <v>3306</v>
+        <v>3305</v>
       </c>
     </row>
     <row r="1709" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1709" t="s">
-        <v>3291</v>
+        <v>3290</v>
       </c>
       <c r="B1709" t="s">
-        <v>3307</v>
+        <v>3306</v>
       </c>
     </row>
     <row r="1710" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1710" t="s">
-        <v>3292</v>
+        <v>3291</v>
       </c>
       <c r="B1710" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="1711" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1711" t="s">
-        <v>3293</v>
+        <v>3292</v>
       </c>
       <c r="B1711" t="s">
-        <v>3309</v>
+        <v>3308</v>
       </c>
     </row>
     <row r="1712" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1712" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="B1712" t="s">
-        <v>3310</v>
+        <v>3309</v>
       </c>
     </row>
     <row r="1713" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1713" t="s">
-        <v>3295</v>
+        <v>3294</v>
       </c>
       <c r="B1713" t="s">
-        <v>3311</v>
+        <v>3310</v>
       </c>
     </row>
     <row r="1714" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1714" t="s">
-        <v>3296</v>
+        <v>3295</v>
       </c>
       <c r="B1714" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
     </row>
     <row r="1715" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1715" t="s">
-        <v>3297</v>
+        <v>3296</v>
       </c>
       <c r="B1715" t="s">
-        <v>3313</v>
+        <v>3312</v>
       </c>
     </row>
     <row r="1716" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1716" t="s">
-        <v>3298</v>
+        <v>3297</v>
       </c>
       <c r="B1716" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
     </row>
     <row r="1717" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1717" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="B1717" t="s">
-        <v>3315</v>
+        <v>3314</v>
       </c>
     </row>
     <row r="1718" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1718" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
       <c r="B1718" t="s">
-        <v>3323</v>
+        <v>3322</v>
       </c>
     </row>
     <row r="1719" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1719" t="s">
-        <v>3317</v>
+        <v>3316</v>
       </c>
       <c r="B1719" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
     </row>
     <row r="1720" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1720" t="s">
-        <v>3318</v>
+        <v>3317</v>
       </c>
       <c r="B1720" t="s">
-        <v>3325</v>
+        <v>3324</v>
       </c>
     </row>
     <row r="1721" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1721" t="s">
-        <v>3319</v>
+        <v>3318</v>
       </c>
       <c r="B1721" t="s">
-        <v>3326</v>
+        <v>3325</v>
       </c>
     </row>
     <row r="1722" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1722" t="s">
-        <v>3320</v>
+        <v>3319</v>
       </c>
       <c r="B1722" t="s">
-        <v>3327</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="1723" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1723" t="s">
-        <v>3321</v>
+        <v>3320</v>
       </c>
       <c r="B1723" t="s">
-        <v>3328</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="1724" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1724" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
       <c r="B1724" t="s">
-        <v>3329</v>
+        <v>3328</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A1637:B1637"/>
+    <mergeCell ref="A1464:B1464"/>
+    <mergeCell ref="A800:B800"/>
+    <mergeCell ref="A717:B717"/>
+    <mergeCell ref="A1373:B1373"/>
+    <mergeCell ref="A1304:B1304"/>
+    <mergeCell ref="A1542:B1542"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A259:B259"/>
     <mergeCell ref="A332:B332"/>
     <mergeCell ref="A398:B398"/>
     <mergeCell ref="A1147:B1147"/>
@@ -44922,18 +44934,6 @@
     <mergeCell ref="A1071:B1071"/>
     <mergeCell ref="A974:B974"/>
     <mergeCell ref="A886:B886"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="A259:B259"/>
-    <mergeCell ref="A1637:B1637"/>
-    <mergeCell ref="A1464:B1464"/>
-    <mergeCell ref="A800:B800"/>
-    <mergeCell ref="A717:B717"/>
-    <mergeCell ref="A1373:B1373"/>
-    <mergeCell ref="A1304:B1304"/>
-    <mergeCell ref="A1542:B1542"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
